--- a/INTLINE/data/566/PHSA/Gross National Income and Gross Domestic Product by Industry At Current Prices Q_historical.xlsx
+++ b/INTLINE/data/566/PHSA/Gross National Income and Gross Domestic Product by Industry At Current Prices Q_historical.xlsx
@@ -1,37 +1,582 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Gross National Income and Gros" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Gross National Income and Gros" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="179">
+  <si>
+    <t>1981-Q1</t>
+  </si>
+  <si>
+    <t>1981-Q2</t>
+  </si>
+  <si>
+    <t>1981-Q3</t>
+  </si>
+  <si>
+    <t>1981-Q4</t>
+  </si>
+  <si>
+    <t>1982-Q1</t>
+  </si>
+  <si>
+    <t>1982-Q2</t>
+  </si>
+  <si>
+    <t>1982-Q3</t>
+  </si>
+  <si>
+    <t>1982-Q4</t>
+  </si>
+  <si>
+    <t>1983-Q1</t>
+  </si>
+  <si>
+    <t>1983-Q2</t>
+  </si>
+  <si>
+    <t>1983-Q3</t>
+  </si>
+  <si>
+    <t>1983-Q4</t>
+  </si>
+  <si>
+    <t>1984-Q1</t>
+  </si>
+  <si>
+    <t>1984-Q2</t>
+  </si>
+  <si>
+    <t>1984-Q3</t>
+  </si>
+  <si>
+    <t>1984-Q4</t>
+  </si>
+  <si>
+    <t>1985-Q1</t>
+  </si>
+  <si>
+    <t>1985-Q2</t>
+  </si>
+  <si>
+    <t>1985-Q3</t>
+  </si>
+  <si>
+    <t>1985-Q4</t>
+  </si>
+  <si>
+    <t>1986-Q1</t>
+  </si>
+  <si>
+    <t>1986-Q2</t>
+  </si>
+  <si>
+    <t>1986-Q3</t>
+  </si>
+  <si>
+    <t>1986-Q4</t>
+  </si>
+  <si>
+    <t>1987-Q1</t>
+  </si>
+  <si>
+    <t>1987-Q2</t>
+  </si>
+  <si>
+    <t>1987-Q3</t>
+  </si>
+  <si>
+    <t>1987-Q4</t>
+  </si>
+  <si>
+    <t>1988-Q1</t>
+  </si>
+  <si>
+    <t>1988-Q2</t>
+  </si>
+  <si>
+    <t>1988-Q3</t>
+  </si>
+  <si>
+    <t>1988-Q4</t>
+  </si>
+  <si>
+    <t>1989-Q1</t>
+  </si>
+  <si>
+    <t>1989-Q2</t>
+  </si>
+  <si>
+    <t>1989-Q3</t>
+  </si>
+  <si>
+    <t>1989-Q4</t>
+  </si>
+  <si>
+    <t>1990-Q1</t>
+  </si>
+  <si>
+    <t>1990-Q2</t>
+  </si>
+  <si>
+    <t>1990-Q3</t>
+  </si>
+  <si>
+    <t>1990-Q4</t>
+  </si>
+  <si>
+    <t>1991-Q1</t>
+  </si>
+  <si>
+    <t>1991-Q2</t>
+  </si>
+  <si>
+    <t>1991-Q3</t>
+  </si>
+  <si>
+    <t>1991-Q4</t>
+  </si>
+  <si>
+    <t>1992-Q1</t>
+  </si>
+  <si>
+    <t>1992-Q2</t>
+  </si>
+  <si>
+    <t>1992-Q3</t>
+  </si>
+  <si>
+    <t>1992-Q4</t>
+  </si>
+  <si>
+    <t>1993-Q1</t>
+  </si>
+  <si>
+    <t>1993-Q2</t>
+  </si>
+  <si>
+    <t>1993-Q3</t>
+  </si>
+  <si>
+    <t>1993-Q4</t>
+  </si>
+  <si>
+    <t>1994-Q1</t>
+  </si>
+  <si>
+    <t>1994-Q2</t>
+  </si>
+  <si>
+    <t>1994-Q3</t>
+  </si>
+  <si>
+    <t>1994-Q4</t>
+  </si>
+  <si>
+    <t>1995-Q1</t>
+  </si>
+  <si>
+    <t>1995-Q2</t>
+  </si>
+  <si>
+    <t>1995-Q3</t>
+  </si>
+  <si>
+    <t>1995-Q4</t>
+  </si>
+  <si>
+    <t>1996-Q1</t>
+  </si>
+  <si>
+    <t>1996-Q2</t>
+  </si>
+  <si>
+    <t>1996-Q3</t>
+  </si>
+  <si>
+    <t>1996-Q4</t>
+  </si>
+  <si>
+    <t>1997-Q1</t>
+  </si>
+  <si>
+    <t>1997-Q2</t>
+  </si>
+  <si>
+    <t>1997-Q3</t>
+  </si>
+  <si>
+    <t>1997-Q4</t>
+  </si>
+  <si>
+    <t>1998-Q1</t>
+  </si>
+  <si>
+    <t>1998-Q2</t>
+  </si>
+  <si>
+    <t>1998-Q3</t>
+  </si>
+  <si>
+    <t>1998-Q4</t>
+  </si>
+  <si>
+    <t>1999-Q1</t>
+  </si>
+  <si>
+    <t>1999-Q2</t>
+  </si>
+  <si>
+    <t>1999-Q3</t>
+  </si>
+  <si>
+    <t>1999-Q4</t>
+  </si>
+  <si>
+    <t>2000-Q1</t>
+  </si>
+  <si>
+    <t>2000-Q2</t>
+  </si>
+  <si>
+    <t>2000-Q3</t>
+  </si>
+  <si>
+    <t>2000-Q4</t>
+  </si>
+  <si>
+    <t>2001-Q1</t>
+  </si>
+  <si>
+    <t>2001-Q2</t>
+  </si>
+  <si>
+    <t>2001-Q3</t>
+  </si>
+  <si>
+    <t>2001-Q4</t>
+  </si>
+  <si>
+    <t>2002-Q1</t>
+  </si>
+  <si>
+    <t>2002-Q2</t>
+  </si>
+  <si>
+    <t>2002-Q3</t>
+  </si>
+  <si>
+    <t>2002-Q4</t>
+  </si>
+  <si>
+    <t>2003-Q1</t>
+  </si>
+  <si>
+    <t>2003-Q2</t>
+  </si>
+  <si>
+    <t>2003-Q3</t>
+  </si>
+  <si>
+    <t>2003-Q4</t>
+  </si>
+  <si>
+    <t>2004-Q1</t>
+  </si>
+  <si>
+    <t>2004-Q2</t>
+  </si>
+  <si>
+    <t>2004-Q3</t>
+  </si>
+  <si>
+    <t>2004-Q4</t>
+  </si>
+  <si>
+    <t>2005-Q1</t>
+  </si>
+  <si>
+    <t>2005-Q2</t>
+  </si>
+  <si>
+    <t>2005-Q3</t>
+  </si>
+  <si>
+    <t>2005-Q4</t>
+  </si>
+  <si>
+    <t>2006-Q1</t>
+  </si>
+  <si>
+    <t>2006-Q2</t>
+  </si>
+  <si>
+    <t>2006-Q3</t>
+  </si>
+  <si>
+    <t>2006-Q4</t>
+  </si>
+  <si>
+    <t>2007-Q1</t>
+  </si>
+  <si>
+    <t>2007-Q2</t>
+  </si>
+  <si>
+    <t>2007-Q3</t>
+  </si>
+  <si>
+    <t>2007-Q4</t>
+  </si>
+  <si>
+    <t>2008-Q1</t>
+  </si>
+  <si>
+    <t>2008-Q2</t>
+  </si>
+  <si>
+    <t>2008-Q3</t>
+  </si>
+  <si>
+    <t>2008-Q4</t>
+  </si>
+  <si>
+    <t>2009-Q1</t>
+  </si>
+  <si>
+    <t>2009-Q2</t>
+  </si>
+  <si>
+    <t>2009-Q3</t>
+  </si>
+  <si>
+    <t>2009-Q4</t>
+  </si>
+  <si>
+    <t>2010-Q1</t>
+  </si>
+  <si>
+    <t>2010-Q2</t>
+  </si>
+  <si>
+    <t>2010-Q3</t>
+  </si>
+  <si>
+    <t>2010-Q4</t>
+  </si>
+  <si>
+    <t>2011-Q1</t>
+  </si>
+  <si>
+    <t>2011-Q2</t>
+  </si>
+  <si>
+    <t>2011-Q3</t>
+  </si>
+  <si>
+    <t>2011-Q4</t>
+  </si>
+  <si>
+    <t>2012-Q1</t>
+  </si>
+  <si>
+    <t>2012-Q2</t>
+  </si>
+  <si>
+    <t>2012-Q3</t>
+  </si>
+  <si>
+    <t>2012-Q4</t>
+  </si>
+  <si>
+    <t>2013-Q1</t>
+  </si>
+  <si>
+    <t>2013-Q2</t>
+  </si>
+  <si>
+    <t>2013-Q3</t>
+  </si>
+  <si>
+    <t>2013-Q4</t>
+  </si>
+  <si>
+    <t>2014-Q1</t>
+  </si>
+  <si>
+    <t>2014-Q2</t>
+  </si>
+  <si>
+    <t>2014-Q3</t>
+  </si>
+  <si>
+    <t>2014-Q4</t>
+  </si>
+  <si>
+    <t>2015-Q1</t>
+  </si>
+  <si>
+    <t>2015-Q2</t>
+  </si>
+  <si>
+    <t>2015-Q3</t>
+  </si>
+  <si>
+    <t>2015-Q4</t>
+  </si>
+  <si>
+    <t>2016-Q1</t>
+  </si>
+  <si>
+    <t>2016-Q2</t>
+  </si>
+  <si>
+    <t>2016-Q3</t>
+  </si>
+  <si>
+    <t>2016-Q4</t>
+  </si>
+  <si>
+    <t>2017-Q1</t>
+  </si>
+  <si>
+    <t>2017-Q2</t>
+  </si>
+  <si>
+    <t>2017-Q3</t>
+  </si>
+  <si>
+    <t>2017-Q4</t>
+  </si>
+  <si>
+    <t>2018-Q1</t>
+  </si>
+  <si>
+    <t>2018-Q2</t>
+  </si>
+  <si>
+    <t>2018-Q3</t>
+  </si>
+  <si>
+    <t>2018-Q4</t>
+  </si>
+  <si>
+    <t>2019-Q1</t>
+  </si>
+  <si>
+    <t>2019-Q2</t>
+  </si>
+  <si>
+    <t>2019-Q3</t>
+  </si>
+  <si>
+    <t>2019-Q4</t>
+  </si>
+  <si>
+    <t>2020-Q1</t>
+  </si>
+  <si>
+    <t>2020-Q2</t>
+  </si>
+  <si>
+    <t>2020-Q3</t>
+  </si>
+  <si>
+    <t>2020-Q4</t>
+  </si>
+  <si>
+    <t>2021-Q1</t>
+  </si>
+  <si>
+    <t>2021-Q2</t>
+  </si>
+  <si>
+    <t>2021-Q3</t>
+  </si>
+  <si>
+    <t>2021-Q4</t>
+  </si>
+  <si>
+    <t>2022-Q1</t>
+  </si>
+  <si>
+    <t>2022-Q2</t>
+  </si>
+  <si>
+    <t>2022-Q3</t>
+  </si>
+  <si>
+    <t>2022-Q4</t>
+  </si>
+  <si>
+    <t>Industry</t>
+  </si>
+  <si>
+    <t>Mining and quarrying</t>
+  </si>
+  <si>
+    <t>Manufacturing</t>
+  </si>
+  <si>
+    <t>Electricity, steam, water and waste management</t>
+  </si>
+  <si>
+    <t>Construction</t>
+  </si>
+  <si>
+    <t>Services</t>
+  </si>
+  <si>
+    <t>Wholesale and retail trade; repair of motor vehicles and motorcycles</t>
+  </si>
+  <si>
+    <t>Financial and insurance activities</t>
+  </si>
+  <si>
+    <t>Public administration and defense; compulsory social activities</t>
+  </si>
+  <si>
+    <t>Other services</t>
+  </si>
+  <si>
+    <t>..</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,10 +591,18 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -57,14 +610,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -353,5858 +907,5349 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:FM11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>1981-Q1</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>1981-Q2</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>1981-Q3</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>1981-Q4</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>1982-Q1</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>1982-Q2</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>1982-Q3</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>1982-Q4</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>1983-Q1</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>1983-Q2</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>1983-Q3</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>1983-Q4</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>1984-Q1</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>1984-Q2</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>1984-Q3</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>1984-Q4</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>1985-Q1</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>1985-Q2</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>1985-Q3</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>1985-Q4</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>1986-Q1</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>1986-Q2</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>1986-Q3</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>1986-Q4</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>1987-Q1</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>1987-Q2</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>1987-Q3</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>1987-Q4</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>1988-Q1</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>1988-Q2</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>1988-Q3</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>1988-Q4</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>1989-Q1</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>1989-Q2</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>1989-Q3</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>1989-Q4</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>1990-Q1</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>1990-Q2</t>
-        </is>
-      </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>1990-Q3</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>1990-Q4</t>
-        </is>
-      </c>
-      <c r="AP1" s="1" t="inlineStr">
-        <is>
-          <t>1991-Q1</t>
-        </is>
-      </c>
-      <c r="AQ1" s="1" t="inlineStr">
-        <is>
-          <t>1991-Q2</t>
-        </is>
-      </c>
-      <c r="AR1" s="1" t="inlineStr">
-        <is>
-          <t>1991-Q3</t>
-        </is>
-      </c>
-      <c r="AS1" s="1" t="inlineStr">
-        <is>
-          <t>1991-Q4</t>
-        </is>
-      </c>
-      <c r="AT1" s="1" t="inlineStr">
-        <is>
-          <t>1992-Q1</t>
-        </is>
-      </c>
-      <c r="AU1" s="1" t="inlineStr">
-        <is>
-          <t>1992-Q2</t>
-        </is>
-      </c>
-      <c r="AV1" s="1" t="inlineStr">
-        <is>
-          <t>1992-Q3</t>
-        </is>
-      </c>
-      <c r="AW1" s="1" t="inlineStr">
-        <is>
-          <t>1992-Q4</t>
-        </is>
-      </c>
-      <c r="AX1" s="1" t="inlineStr">
-        <is>
-          <t>1993-Q1</t>
-        </is>
-      </c>
-      <c r="AY1" s="1" t="inlineStr">
-        <is>
-          <t>1993-Q2</t>
-        </is>
-      </c>
-      <c r="AZ1" s="1" t="inlineStr">
-        <is>
-          <t>1993-Q3</t>
-        </is>
-      </c>
-      <c r="BA1" s="1" t="inlineStr">
-        <is>
-          <t>1993-Q4</t>
-        </is>
-      </c>
-      <c r="BB1" s="1" t="inlineStr">
-        <is>
-          <t>1994-Q1</t>
-        </is>
-      </c>
-      <c r="BC1" s="1" t="inlineStr">
-        <is>
-          <t>1994-Q2</t>
-        </is>
-      </c>
-      <c r="BD1" s="1" t="inlineStr">
-        <is>
-          <t>1994-Q3</t>
-        </is>
-      </c>
-      <c r="BE1" s="1" t="inlineStr">
-        <is>
-          <t>1994-Q4</t>
-        </is>
-      </c>
-      <c r="BF1" s="1" t="inlineStr">
-        <is>
-          <t>1995-Q1</t>
-        </is>
-      </c>
-      <c r="BG1" s="1" t="inlineStr">
-        <is>
-          <t>1995-Q2</t>
-        </is>
-      </c>
-      <c r="BH1" s="1" t="inlineStr">
-        <is>
-          <t>1995-Q3</t>
-        </is>
-      </c>
-      <c r="BI1" s="1" t="inlineStr">
-        <is>
-          <t>1995-Q4</t>
-        </is>
-      </c>
-      <c r="BJ1" s="1" t="inlineStr">
-        <is>
-          <t>1996-Q1</t>
-        </is>
-      </c>
-      <c r="BK1" s="1" t="inlineStr">
-        <is>
-          <t>1996-Q2</t>
-        </is>
-      </c>
-      <c r="BL1" s="1" t="inlineStr">
-        <is>
-          <t>1996-Q3</t>
-        </is>
-      </c>
-      <c r="BM1" s="1" t="inlineStr">
-        <is>
-          <t>1996-Q4</t>
-        </is>
-      </c>
-      <c r="BN1" s="1" t="inlineStr">
-        <is>
-          <t>1997-Q1</t>
-        </is>
-      </c>
-      <c r="BO1" s="1" t="inlineStr">
-        <is>
-          <t>1997-Q2</t>
-        </is>
-      </c>
-      <c r="BP1" s="1" t="inlineStr">
-        <is>
-          <t>1997-Q3</t>
-        </is>
-      </c>
-      <c r="BQ1" s="1" t="inlineStr">
-        <is>
-          <t>1997-Q4</t>
-        </is>
-      </c>
-      <c r="BR1" s="1" t="inlineStr">
-        <is>
-          <t>1998-Q1</t>
-        </is>
-      </c>
-      <c r="BS1" s="1" t="inlineStr">
-        <is>
-          <t>1998-Q2</t>
-        </is>
-      </c>
-      <c r="BT1" s="1" t="inlineStr">
-        <is>
-          <t>1998-Q3</t>
-        </is>
-      </c>
-      <c r="BU1" s="1" t="inlineStr">
-        <is>
-          <t>1998-Q4</t>
-        </is>
-      </c>
-      <c r="BV1" s="1" t="inlineStr">
-        <is>
-          <t>1999-Q1</t>
-        </is>
-      </c>
-      <c r="BW1" s="1" t="inlineStr">
-        <is>
-          <t>1999-Q2</t>
-        </is>
-      </c>
-      <c r="BX1" s="1" t="inlineStr">
-        <is>
-          <t>1999-Q3</t>
-        </is>
-      </c>
-      <c r="BY1" s="1" t="inlineStr">
-        <is>
-          <t>1999-Q4</t>
-        </is>
-      </c>
-      <c r="BZ1" s="1" t="inlineStr">
-        <is>
-          <t>2000-Q1</t>
-        </is>
-      </c>
-      <c r="CA1" s="1" t="inlineStr">
-        <is>
-          <t>2000-Q2</t>
-        </is>
-      </c>
-      <c r="CB1" s="1" t="inlineStr">
-        <is>
-          <t>2000-Q3</t>
-        </is>
-      </c>
-      <c r="CC1" s="1" t="inlineStr">
-        <is>
-          <t>2000-Q4</t>
-        </is>
-      </c>
-      <c r="CD1" s="1" t="inlineStr">
-        <is>
-          <t>2001-Q1</t>
-        </is>
-      </c>
-      <c r="CE1" s="1" t="inlineStr">
-        <is>
-          <t>2001-Q2</t>
-        </is>
-      </c>
-      <c r="CF1" s="1" t="inlineStr">
-        <is>
-          <t>2001-Q3</t>
-        </is>
-      </c>
-      <c r="CG1" s="1" t="inlineStr">
-        <is>
-          <t>2001-Q4</t>
-        </is>
-      </c>
-      <c r="CH1" s="1" t="inlineStr">
-        <is>
-          <t>2002-Q1</t>
-        </is>
-      </c>
-      <c r="CI1" s="1" t="inlineStr">
-        <is>
-          <t>2002-Q2</t>
-        </is>
-      </c>
-      <c r="CJ1" s="1" t="inlineStr">
-        <is>
-          <t>2002-Q3</t>
-        </is>
-      </c>
-      <c r="CK1" s="1" t="inlineStr">
-        <is>
-          <t>2002-Q4</t>
-        </is>
-      </c>
-      <c r="CL1" s="1" t="inlineStr">
-        <is>
-          <t>2003-Q1</t>
-        </is>
-      </c>
-      <c r="CM1" s="1" t="inlineStr">
-        <is>
-          <t>2003-Q2</t>
-        </is>
-      </c>
-      <c r="CN1" s="1" t="inlineStr">
-        <is>
-          <t>2003-Q3</t>
-        </is>
-      </c>
-      <c r="CO1" s="1" t="inlineStr">
-        <is>
-          <t>2003-Q4</t>
-        </is>
-      </c>
-      <c r="CP1" s="1" t="inlineStr">
-        <is>
-          <t>2004-Q1</t>
-        </is>
-      </c>
-      <c r="CQ1" s="1" t="inlineStr">
-        <is>
-          <t>2004-Q2</t>
-        </is>
-      </c>
-      <c r="CR1" s="1" t="inlineStr">
-        <is>
-          <t>2004-Q3</t>
-        </is>
-      </c>
-      <c r="CS1" s="1" t="inlineStr">
-        <is>
-          <t>2004-Q4</t>
-        </is>
-      </c>
-      <c r="CT1" s="1" t="inlineStr">
-        <is>
-          <t>2005-Q1</t>
-        </is>
-      </c>
-      <c r="CU1" s="1" t="inlineStr">
-        <is>
-          <t>2005-Q2</t>
-        </is>
-      </c>
-      <c r="CV1" s="1" t="inlineStr">
-        <is>
-          <t>2005-Q3</t>
-        </is>
-      </c>
-      <c r="CW1" s="1" t="inlineStr">
-        <is>
-          <t>2005-Q4</t>
-        </is>
-      </c>
-      <c r="CX1" s="1" t="inlineStr">
-        <is>
-          <t>2006-Q1</t>
-        </is>
-      </c>
-      <c r="CY1" s="1" t="inlineStr">
-        <is>
-          <t>2006-Q2</t>
-        </is>
-      </c>
-      <c r="CZ1" s="1" t="inlineStr">
-        <is>
-          <t>2006-Q3</t>
-        </is>
-      </c>
-      <c r="DA1" s="1" t="inlineStr">
-        <is>
-          <t>2006-Q4</t>
-        </is>
-      </c>
-      <c r="DB1" s="1" t="inlineStr">
-        <is>
-          <t>2007-Q1</t>
-        </is>
-      </c>
-      <c r="DC1" s="1" t="inlineStr">
-        <is>
-          <t>2007-Q2</t>
-        </is>
-      </c>
-      <c r="DD1" s="1" t="inlineStr">
-        <is>
-          <t>2007-Q3</t>
-        </is>
-      </c>
-      <c r="DE1" s="1" t="inlineStr">
-        <is>
-          <t>2007-Q4</t>
-        </is>
-      </c>
-      <c r="DF1" s="1" t="inlineStr">
-        <is>
-          <t>2008-Q1</t>
-        </is>
-      </c>
-      <c r="DG1" s="1" t="inlineStr">
-        <is>
-          <t>2008-Q2</t>
-        </is>
-      </c>
-      <c r="DH1" s="1" t="inlineStr">
-        <is>
-          <t>2008-Q3</t>
-        </is>
-      </c>
-      <c r="DI1" s="1" t="inlineStr">
-        <is>
-          <t>2008-Q4</t>
-        </is>
-      </c>
-      <c r="DJ1" s="1" t="inlineStr">
-        <is>
-          <t>2009-Q1</t>
-        </is>
-      </c>
-      <c r="DK1" s="1" t="inlineStr">
-        <is>
-          <t>2009-Q2</t>
-        </is>
-      </c>
-      <c r="DL1" s="1" t="inlineStr">
-        <is>
-          <t>2009-Q3</t>
-        </is>
-      </c>
-      <c r="DM1" s="1" t="inlineStr">
-        <is>
-          <t>2009-Q4</t>
-        </is>
-      </c>
-      <c r="DN1" s="1" t="inlineStr">
-        <is>
-          <t>2010-Q1</t>
-        </is>
-      </c>
-      <c r="DO1" s="1" t="inlineStr">
-        <is>
-          <t>2010-Q2</t>
-        </is>
-      </c>
-      <c r="DP1" s="1" t="inlineStr">
-        <is>
-          <t>2010-Q3</t>
-        </is>
-      </c>
-      <c r="DQ1" s="1" t="inlineStr">
-        <is>
-          <t>2010-Q4</t>
-        </is>
-      </c>
-      <c r="DR1" s="1" t="inlineStr">
-        <is>
-          <t>2011-Q1</t>
-        </is>
-      </c>
-      <c r="DS1" s="1" t="inlineStr">
-        <is>
-          <t>2011-Q2</t>
-        </is>
-      </c>
-      <c r="DT1" s="1" t="inlineStr">
-        <is>
-          <t>2011-Q3</t>
-        </is>
-      </c>
-      <c r="DU1" s="1" t="inlineStr">
-        <is>
-          <t>2011-Q4</t>
-        </is>
-      </c>
-      <c r="DV1" s="1" t="inlineStr">
-        <is>
-          <t>2012-Q1</t>
-        </is>
-      </c>
-      <c r="DW1" s="1" t="inlineStr">
-        <is>
-          <t>2012-Q2</t>
-        </is>
-      </c>
-      <c r="DX1" s="1" t="inlineStr">
-        <is>
-          <t>2012-Q3</t>
-        </is>
-      </c>
-      <c r="DY1" s="1" t="inlineStr">
-        <is>
-          <t>2012-Q4</t>
-        </is>
-      </c>
-      <c r="DZ1" s="1" t="inlineStr">
-        <is>
-          <t>2013-Q1</t>
-        </is>
-      </c>
-      <c r="EA1" s="1" t="inlineStr">
-        <is>
-          <t>2013-Q2</t>
-        </is>
-      </c>
-      <c r="EB1" s="1" t="inlineStr">
-        <is>
-          <t>2013-Q3</t>
-        </is>
-      </c>
-      <c r="EC1" s="1" t="inlineStr">
-        <is>
-          <t>2013-Q4</t>
-        </is>
-      </c>
-      <c r="ED1" s="1" t="inlineStr">
-        <is>
-          <t>2014-Q1</t>
-        </is>
-      </c>
-      <c r="EE1" s="1" t="inlineStr">
-        <is>
-          <t>2014-Q2</t>
-        </is>
-      </c>
-      <c r="EF1" s="1" t="inlineStr">
-        <is>
-          <t>2014-Q3</t>
-        </is>
-      </c>
-      <c r="EG1" s="1" t="inlineStr">
-        <is>
-          <t>2014-Q4</t>
-        </is>
-      </c>
-      <c r="EH1" s="1" t="inlineStr">
-        <is>
-          <t>2015-Q1</t>
-        </is>
-      </c>
-      <c r="EI1" s="1" t="inlineStr">
-        <is>
-          <t>2015-Q2</t>
-        </is>
-      </c>
-      <c r="EJ1" s="1" t="inlineStr">
-        <is>
-          <t>2015-Q3</t>
-        </is>
-      </c>
-      <c r="EK1" s="1" t="inlineStr">
-        <is>
-          <t>2015-Q4</t>
-        </is>
-      </c>
-      <c r="EL1" s="1" t="inlineStr">
-        <is>
-          <t>2016-Q1</t>
-        </is>
-      </c>
-      <c r="EM1" s="1" t="inlineStr">
-        <is>
-          <t>2016-Q2</t>
-        </is>
-      </c>
-      <c r="EN1" s="1" t="inlineStr">
-        <is>
-          <t>2016-Q3</t>
-        </is>
-      </c>
-      <c r="EO1" s="1" t="inlineStr">
-        <is>
-          <t>2016-Q4</t>
-        </is>
-      </c>
-      <c r="EP1" s="1" t="inlineStr">
-        <is>
-          <t>2017-Q1</t>
-        </is>
-      </c>
-      <c r="EQ1" s="1" t="inlineStr">
-        <is>
-          <t>2017-Q2</t>
-        </is>
-      </c>
-      <c r="ER1" s="1" t="inlineStr">
-        <is>
-          <t>2017-Q3</t>
-        </is>
-      </c>
-      <c r="ES1" s="1" t="inlineStr">
-        <is>
-          <t>2017-Q4</t>
-        </is>
-      </c>
-      <c r="ET1" s="1" t="inlineStr">
-        <is>
-          <t>2018-Q1</t>
-        </is>
-      </c>
-      <c r="EU1" s="1" t="inlineStr">
-        <is>
-          <t>2018-Q2</t>
-        </is>
-      </c>
-      <c r="EV1" s="1" t="inlineStr">
-        <is>
-          <t>2018-Q3</t>
-        </is>
-      </c>
-      <c r="EW1" s="1" t="inlineStr">
-        <is>
-          <t>2018-Q4</t>
-        </is>
-      </c>
-      <c r="EX1" s="1" t="inlineStr">
-        <is>
-          <t>2019-Q1</t>
-        </is>
-      </c>
-      <c r="EY1" s="1" t="inlineStr">
-        <is>
-          <t>2019-Q2</t>
-        </is>
-      </c>
-      <c r="EZ1" s="1" t="inlineStr">
-        <is>
-          <t>2019-Q3</t>
-        </is>
-      </c>
-      <c r="FA1" s="1" t="inlineStr">
-        <is>
-          <t>2019-Q4</t>
-        </is>
-      </c>
-      <c r="FB1" s="1" t="inlineStr">
-        <is>
-          <t>2020-Q1</t>
-        </is>
-      </c>
-      <c r="FC1" s="1" t="inlineStr">
-        <is>
-          <t>2020-Q2</t>
-        </is>
-      </c>
-      <c r="FD1" s="1" t="inlineStr">
-        <is>
-          <t>2020-Q3</t>
-        </is>
-      </c>
-      <c r="FE1" s="1" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="FF1" s="1" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="FG1" s="1" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="FH1" s="1" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="FI1" s="1" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="FJ1" s="1" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="FK1" s="1" t="inlineStr">
-        <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="FL1" s="1" t="inlineStr">
-        <is>
-          <t>2022-Q3</t>
-        </is>
-      </c>
-      <c r="FM1" s="1" t="inlineStr">
-        <is>
-          <t>2022-Q4</t>
-        </is>
+    <row r="1" spans="1:169">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CL1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="CN1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CP1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CQ1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="CR1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CS1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CT1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CU1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CV1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CW1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CX1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="CY1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="CZ1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="DA1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="DB1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="DC1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="DD1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="DE1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="DF1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="DG1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="DH1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="DI1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="DJ1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="DK1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="DL1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="DM1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="DN1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="DO1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="DP1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="DQ1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="DR1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="DS1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="DT1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="DU1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="DV1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="DW1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="DX1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="DY1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="DZ1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="EA1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="EB1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="EC1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="ED1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="EE1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="EF1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="EG1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="EH1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="EI1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="EJ1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="EK1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="EL1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="EM1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="EN1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="EO1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="EP1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="EQ1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="ER1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="ES1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="ET1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="EU1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="EV1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="EW1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="EX1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="EY1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="EZ1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="FA1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="FB1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="FC1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="FD1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="FE1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="FF1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="FG1" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="FH1" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="FI1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="FJ1" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="FK1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="FL1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="FM1" s="1" t="s">
+        <v>167</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>Industry</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="2" spans="1:169">
+      <c r="A2" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B2">
         <v>32585.5350534093</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>34045.757419019</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>33733.2658792521</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>37567.9664983193</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>36380.6400781725</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>38762.7168905191</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>37300.3173672574</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2">
         <v>41466.5858840506</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2">
         <v>40932.2664713195</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2">
         <v>46252.4780634588</v>
       </c>
-      <c r="L2" t="n">
+      <c r="L2">
         <v>42266.0461682928</v>
       </c>
-      <c r="M2" t="n">
+      <c r="M2">
         <v>51384.2252669285</v>
       </c>
-      <c r="N2" t="n">
+      <c r="N2">
         <v>58060.0942752413</v>
       </c>
-      <c r="O2" t="n">
+      <c r="O2">
         <v>63015.208164445</v>
       </c>
-      <c r="P2" t="n">
+      <c r="P2">
         <v>59889.1706133713</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="Q2">
         <v>68578.92671694209</v>
       </c>
-      <c r="R2" t="n">
+      <c r="R2">
         <v>61872.1229280251</v>
       </c>
-      <c r="S2" t="n">
+      <c r="S2">
         <v>64975.9387109214</v>
       </c>
-      <c r="T2" t="n">
+      <c r="T2">
         <v>60569.5670534654</v>
       </c>
-      <c r="U2" t="n">
+      <c r="U2">
         <v>65232.8596975877</v>
       </c>
-      <c r="V2" t="n">
+      <c r="V2">
         <v>62870.0333311735</v>
       </c>
-      <c r="W2" t="n">
+      <c r="W2">
         <v>67731.0338601547</v>
       </c>
-      <c r="X2" t="n">
+      <c r="X2">
         <v>66832.20955833291</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="Y2">
         <v>67963.49926033799</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="Z2">
         <v>64401.9720493194</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AA2">
         <v>72609.81233502099</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AB2">
         <v>80640.2067322581</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AC2">
         <v>79031.8286634008</v>
       </c>
-      <c r="AD2" t="n">
+      <c r="AD2">
         <v>79632.81854859579</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="AE2">
         <v>83005.1510722622</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="AF2">
         <v>87758.24743662419</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="AG2">
         <v>103762.044972517</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AH2">
         <v>87852.96216110339</v>
       </c>
-      <c r="AI2" t="n">
+      <c r="AI2">
         <v>93844.0059729926</v>
       </c>
-      <c r="AJ2" t="n">
+      <c r="AJ2">
         <v>99061.6040965826</v>
       </c>
-      <c r="AK2" t="n">
+      <c r="AK2">
         <v>126682.21434932</v>
       </c>
-      <c r="AL2" t="n">
+      <c r="AL2">
         <v>105514.788516964</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="AM2">
         <v>108161.030422496</v>
       </c>
-      <c r="AN2" t="n">
+      <c r="AN2">
         <v>114680.592514075</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AO2">
         <v>140309.090766464</v>
       </c>
-      <c r="AP2" t="n">
+      <c r="AP2">
         <v>120413.906012448</v>
       </c>
-      <c r="AQ2" t="n">
+      <c r="AQ2">
         <v>126633.856846532</v>
       </c>
-      <c r="AR2" t="n">
+      <c r="AR2">
         <v>135561.706562185</v>
       </c>
-      <c r="AS2" t="n">
+      <c r="AS2">
         <v>153293.460258835</v>
       </c>
-      <c r="AT2" t="n">
+      <c r="AT2">
         <v>134230.866173026</v>
       </c>
-      <c r="AU2" t="n">
+      <c r="AU2">
         <v>133105.888093941</v>
       </c>
-      <c r="AV2" t="n">
+      <c r="AV2">
         <v>142964.16653883</v>
       </c>
-      <c r="AW2" t="n">
+      <c r="AW2">
         <v>151704.698514202</v>
       </c>
-      <c r="AX2" t="n">
+      <c r="AX2">
         <v>136651.933131843</v>
       </c>
-      <c r="AY2" t="n">
+      <c r="AY2">
         <v>143557.374127968</v>
       </c>
-      <c r="AZ2" t="n">
+      <c r="AZ2">
         <v>160783.717937592</v>
       </c>
-      <c r="BA2" t="n">
+      <c r="BA2">
         <v>169705.732892595</v>
       </c>
-      <c r="BB2" t="n">
+      <c r="BB2">
         <v>158297.253934867</v>
       </c>
-      <c r="BC2" t="n">
+      <c r="BC2">
         <v>164731.687464923</v>
       </c>
-      <c r="BD2" t="n">
+      <c r="BD2">
         <v>179284.052966456</v>
       </c>
-      <c r="BE2" t="n">
+      <c r="BE2">
         <v>196609.486873752</v>
       </c>
-      <c r="BF2" t="n">
+      <c r="BF2">
         <v>175902.283666344</v>
       </c>
-      <c r="BG2" t="n">
+      <c r="BG2">
         <v>183451.476088143</v>
       </c>
-      <c r="BH2" t="n">
+      <c r="BH2">
         <v>199573.538828481</v>
       </c>
-      <c r="BI2" t="n">
+      <c r="BI2">
         <v>217342.605297031</v>
       </c>
-      <c r="BJ2" t="n">
+      <c r="BJ2">
         <v>203143.896108222</v>
       </c>
-      <c r="BK2" t="n">
+      <c r="BK2">
         <v>209748.463144641</v>
       </c>
-      <c r="BL2" t="n">
+      <c r="BL2">
         <v>228036.016440876</v>
       </c>
-      <c r="BM2" t="n">
+      <c r="BM2">
         <v>244004.483426257</v>
       </c>
-      <c r="BN2" t="n">
+      <c r="BN2">
         <v>222510.34489605</v>
       </c>
-      <c r="BO2" t="n">
+      <c r="BO2">
         <v>234498.388233899</v>
       </c>
-      <c r="BP2" t="n">
+      <c r="BP2">
         <v>254107.904424462</v>
       </c>
-      <c r="BQ2" t="n">
+      <c r="BQ2">
         <v>277887.456845587</v>
       </c>
-      <c r="BR2" t="n">
+      <c r="BR2">
         <v>250858.703588419</v>
       </c>
-      <c r="BS2" t="n">
+      <c r="BS2">
         <v>256837.12170314</v>
       </c>
-      <c r="BT2" t="n">
+      <c r="BT2">
         <v>270663.501557063</v>
       </c>
-      <c r="BU2" t="n">
+      <c r="BU2">
         <v>284259.358881376</v>
       </c>
-      <c r="BV2" t="n">
+      <c r="BV2">
         <v>253359.735273989</v>
       </c>
-      <c r="BW2" t="n">
+      <c r="BW2">
         <v>269391.955454857</v>
       </c>
-      <c r="BX2" t="n">
+      <c r="BX2">
         <v>291679.294065415</v>
       </c>
-      <c r="BY2" t="n">
+      <c r="BY2">
         <v>308708.226685737</v>
       </c>
-      <c r="BZ2" t="n">
+      <c r="BZ2">
         <v>300292.026211</v>
       </c>
-      <c r="CA2" t="n">
+      <c r="CA2">
         <v>309328.314065</v>
       </c>
-      <c r="CB2" t="n">
+      <c r="CB2">
         <v>335168.647315</v>
       </c>
-      <c r="CC2" t="n">
+      <c r="CC2">
         <v>348441.82473</v>
       </c>
-      <c r="CD2" t="n">
+      <c r="CD2">
         <v>331235.330932</v>
       </c>
-      <c r="CE2" t="n">
+      <c r="CE2">
         <v>344364.998509</v>
       </c>
-      <c r="CF2" t="n">
+      <c r="CF2">
         <v>360535.011324</v>
       </c>
-      <c r="CG2" t="n">
+      <c r="CG2">
         <v>368283.917831</v>
       </c>
-      <c r="CH2" t="n">
+      <c r="CH2">
         <v>354214.147095</v>
       </c>
-      <c r="CI2" t="n">
+      <c r="CI2">
         <v>379154.930833</v>
       </c>
-      <c r="CJ2" t="n">
+      <c r="CJ2">
         <v>374921.696654</v>
       </c>
-      <c r="CK2" t="n">
+      <c r="CK2">
         <v>404983.367324</v>
       </c>
-      <c r="CL2" t="n">
+      <c r="CL2">
         <v>390009.564193</v>
       </c>
-      <c r="CM2" t="n">
+      <c r="CM2">
         <v>394203.842565</v>
       </c>
-      <c r="CN2" t="n">
+      <c r="CN2">
         <v>406599.962367</v>
       </c>
-      <c r="CO2" t="n">
+      <c r="CO2">
         <v>438744.448813</v>
       </c>
-      <c r="CP2" t="n">
+      <c r="CP2">
         <v>425101.855728</v>
       </c>
-      <c r="CQ2" t="n">
+      <c r="CQ2">
         <v>433020.413733</v>
       </c>
-      <c r="CR2" t="n">
+      <c r="CR2">
         <v>434185.159444</v>
       </c>
-      <c r="CS2" t="n">
+      <c r="CS2">
         <v>497519.742746</v>
       </c>
-      <c r="CT2" t="n">
+      <c r="CT2">
         <v>461941.294894</v>
       </c>
-      <c r="CU2" t="n">
+      <c r="CU2">
         <v>489655.488979</v>
       </c>
-      <c r="CV2" t="n">
+      <c r="CV2">
         <v>489238.404741</v>
       </c>
-      <c r="CW2" t="n">
+      <c r="CW2">
         <v>560015.494801</v>
       </c>
-      <c r="CX2" t="n">
+      <c r="CX2">
         <v>504968.340806</v>
       </c>
-      <c r="CY2" t="n">
+      <c r="CY2">
         <v>535150.2965769999</v>
       </c>
-      <c r="CZ2" t="n">
+      <c r="CZ2">
         <v>539872.509586</v>
       </c>
-      <c r="DA2" t="n">
+      <c r="DA2">
         <v>611947.7689190001</v>
       </c>
-      <c r="DB2" t="n">
+      <c r="DB2">
         <v>558338.700129</v>
       </c>
-      <c r="DC2" t="n">
+      <c r="DC2">
         <v>592799.298451</v>
       </c>
-      <c r="DD2" t="n">
+      <c r="DD2">
         <v>572735.419175</v>
       </c>
-      <c r="DE2" t="n">
+      <c r="DE2">
         <v>651609.367274</v>
       </c>
-      <c r="DF2" t="n">
+      <c r="DF2">
         <v>580476.047803</v>
       </c>
-      <c r="DG2" t="n">
+      <c r="DG2">
         <v>646197.206482</v>
       </c>
-      <c r="DH2" t="n">
+      <c r="DH2">
         <v>670920.572697</v>
       </c>
-      <c r="DI2" t="n">
+      <c r="DI2">
         <v>740077.624003</v>
       </c>
-      <c r="DJ2" t="n">
+      <c r="DJ2">
         <v>592715.907983</v>
       </c>
-      <c r="DK2" t="n">
+      <c r="DK2">
         <v>642507.14113</v>
       </c>
-      <c r="DL2" t="n">
+      <c r="DL2">
         <v>635073.4804229999</v>
       </c>
-      <c r="DM2" t="n">
+      <c r="DM2">
         <v>774577.655177</v>
       </c>
-      <c r="DN2" t="n">
+      <c r="DN2">
         <v>706382.096134</v>
       </c>
-      <c r="DO2" t="n">
+      <c r="DO2">
         <v>771272.9085350001</v>
       </c>
-      <c r="DP2" t="n">
+      <c r="DP2">
         <v>708172.040702</v>
       </c>
-      <c r="DQ2" t="n">
+      <c r="DQ2">
         <v>853913.600517</v>
       </c>
-      <c r="DR2" t="n">
+      <c r="DR2">
         <v>777912.034737</v>
       </c>
-      <c r="DS2" t="n">
+      <c r="DS2">
         <v>789832.930931</v>
       </c>
-      <c r="DT2" t="n">
+      <c r="DT2">
         <v>720849.782304</v>
       </c>
-      <c r="DU2" t="n">
+      <c r="DU2">
         <v>890608.484606</v>
       </c>
-      <c r="DV2" t="n">
+      <c r="DV2">
         <v>838650.469159</v>
       </c>
-      <c r="DW2" t="n">
+      <c r="DW2">
         <v>851319.856102</v>
       </c>
-      <c r="DX2" t="n">
+      <c r="DX2">
         <v>788776.641879</v>
       </c>
-      <c r="DY2" t="n">
+      <c r="DY2">
         <v>994221.888666</v>
       </c>
-      <c r="DZ2" t="n">
+      <c r="DZ2">
         <v>915358.1770960001</v>
       </c>
-      <c r="EA2" t="n">
+      <c r="EA2">
         <v>910317.809491</v>
       </c>
-      <c r="EB2" t="n">
+      <c r="EB2">
         <v>830453.996152</v>
       </c>
-      <c r="EC2" t="n">
+      <c r="EC2">
         <v>1052493.522174</v>
       </c>
-      <c r="ED2" t="n">
+      <c r="ED2">
         <v>975512.287228</v>
       </c>
-      <c r="EE2" t="n">
+      <c r="EE2">
         <v>1011588.178739</v>
       </c>
-      <c r="EF2" t="n">
+      <c r="EF2">
         <v>926095.981771</v>
       </c>
-      <c r="EG2" t="n">
+      <c r="EG2">
         <v>1187186.220617</v>
       </c>
-      <c r="EH2" t="n">
+      <c r="EH2">
         <v>1016199.851833</v>
       </c>
-      <c r="EI2" t="n">
+      <c r="EI2">
         <v>1060893.605481</v>
       </c>
-      <c r="EJ2" t="n">
+      <c r="EJ2">
         <v>930320.793961</v>
       </c>
-      <c r="EK2" t="n">
+      <c r="EK2">
         <v>1243036.987045</v>
       </c>
-      <c r="EL2" t="n">
+      <c r="EL2">
         <v>1073676.996095</v>
       </c>
-      <c r="EM2" t="n">
+      <c r="EM2">
         <v>1132468.604269</v>
       </c>
-      <c r="EN2" t="n">
+      <c r="EN2">
         <v>1027087.566552</v>
       </c>
-      <c r="EO2" t="n">
+      <c r="EO2">
         <v>1349747.350568</v>
       </c>
-      <c r="EP2" t="n">
+      <c r="EP2">
         <v>1156906.457908</v>
       </c>
-      <c r="EQ2" t="n">
+      <c r="EQ2">
         <v>1234692.453956</v>
       </c>
-      <c r="ER2" t="n">
+      <c r="ER2">
         <v>1139951.327825</v>
       </c>
-      <c r="ES2" t="n">
+      <c r="ES2">
         <v>1456397.62274</v>
       </c>
-      <c r="ET2" t="n">
+      <c r="ET2">
         <v>1275597.543561</v>
       </c>
-      <c r="EU2" t="n">
+      <c r="EU2">
         <v>1381005.349029</v>
       </c>
-      <c r="EV2" t="n">
+      <c r="EV2">
         <v>1283471.429576</v>
       </c>
-      <c r="EW2" t="n">
+      <c r="EW2">
         <v>1642450.967151</v>
       </c>
-      <c r="EX2" t="n">
+      <c r="EX2">
         <v>1371767.500472</v>
       </c>
-      <c r="EY2" t="n">
+      <c r="EY2">
         <v>1441554.317329</v>
       </c>
-      <c r="EZ2" t="n">
+      <c r="EZ2">
         <v>1342483.712753</v>
       </c>
-      <c r="FA2" t="n">
+      <c r="FA2">
         <v>1763475.960751</v>
       </c>
-      <c r="FB2" t="n">
+      <c r="FB2">
         <v>1317902.358293</v>
       </c>
-      <c r="FC2" t="n">
+      <c r="FC2">
         <v>1146187.203699</v>
       </c>
-      <c r="FD2" t="n">
+      <c r="FD2">
         <v>1053048.792534</v>
       </c>
-      <c r="FE2" t="n">
+      <c r="FE2">
         <v>1581093.744576</v>
       </c>
-      <c r="FF2" t="n">
+      <c r="FF2">
         <v>1241803.439311</v>
       </c>
-      <c r="FG2" t="n">
+      <c r="FG2">
         <v>1432448.383122</v>
       </c>
-      <c r="FH2" t="n">
+      <c r="FH2">
         <v>1171955.402909</v>
       </c>
-      <c r="FI2" t="n">
+      <c r="FI2">
         <v>1760803.306591</v>
       </c>
-      <c r="FJ2" t="n">
+      <c r="FJ2">
         <v>1482187.906581</v>
       </c>
-      <c r="FK2" t="inlineStr">
-        <is>
-          <t>..</t>
-        </is>
-      </c>
-      <c r="FL2" t="inlineStr">
-        <is>
-          <t>..</t>
-        </is>
-      </c>
-      <c r="FM2" t="inlineStr">
-        <is>
-          <t>..</t>
-        </is>
+      <c r="FK2" t="s">
+        <v>178</v>
+      </c>
+      <c r="FL2" t="s">
+        <v>178</v>
+      </c>
+      <c r="FM2" t="s">
+        <v>178</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>Mining and quarrying</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="n">
+    <row r="3" spans="1:169">
+      <c r="A3" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C3">
         <v>1297</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>1305</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>1335</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>1236</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>1231</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>1064</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3">
         <v>1205</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3">
         <v>1382</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3">
         <v>1499</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L3">
         <v>1540</v>
       </c>
-      <c r="M3" t="n">
+      <c r="M3">
         <v>1633</v>
       </c>
-      <c r="N3" t="n">
+      <c r="N3">
         <v>1510</v>
       </c>
-      <c r="O3" t="n">
+      <c r="O3">
         <v>1810</v>
       </c>
-      <c r="P3" t="n">
+      <c r="P3">
         <v>1915</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="Q3">
         <v>2109</v>
       </c>
-      <c r="R3" t="n">
+      <c r="R3">
         <v>2308</v>
       </c>
-      <c r="S3" t="n">
+      <c r="S3">
         <v>3014</v>
       </c>
-      <c r="T3" t="n">
+      <c r="T3">
         <v>3061</v>
       </c>
-      <c r="U3" t="n">
+      <c r="U3">
         <v>3002</v>
       </c>
-      <c r="V3" t="n">
+      <c r="V3">
         <v>2816</v>
       </c>
-      <c r="W3" t="n">
+      <c r="W3">
         <v>3721</v>
       </c>
-      <c r="X3" t="n">
+      <c r="X3">
         <v>3640</v>
       </c>
-      <c r="Y3" t="n">
+      <c r="Y3">
         <v>3411</v>
       </c>
-      <c r="Z3" t="n">
+      <c r="Z3">
         <v>3372</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="AA3">
         <v>3283</v>
       </c>
-      <c r="AB3" t="n">
+      <c r="AB3">
         <v>3853</v>
       </c>
-      <c r="AC3" t="n">
+      <c r="AC3">
         <v>3655</v>
       </c>
-      <c r="AD3" t="n">
+      <c r="AD3">
         <v>3563</v>
       </c>
-      <c r="AE3" t="n">
+      <c r="AE3">
         <v>3475</v>
       </c>
-      <c r="AF3" t="n">
+      <c r="AF3">
         <v>4117</v>
       </c>
-      <c r="AG3" t="n">
+      <c r="AG3">
         <v>3826</v>
       </c>
-      <c r="AH3" t="n">
+      <c r="AH3">
         <v>3857</v>
       </c>
-      <c r="AI3" t="n">
+      <c r="AI3">
         <v>3822</v>
       </c>
-      <c r="AJ3" t="n">
+      <c r="AJ3">
         <v>3721</v>
       </c>
-      <c r="AK3" t="n">
+      <c r="AK3">
         <v>3624</v>
       </c>
-      <c r="AL3" t="n">
+      <c r="AL3">
         <v>4279</v>
       </c>
-      <c r="AM3" t="n">
+      <c r="AM3">
         <v>4177</v>
       </c>
-      <c r="AN3" t="n">
+      <c r="AN3">
         <v>4055</v>
       </c>
-      <c r="AO3" t="n">
+      <c r="AO3">
         <v>3771</v>
       </c>
-      <c r="AP3" t="n">
+      <c r="AP3">
         <v>4656</v>
       </c>
-      <c r="AQ3" t="n">
+      <c r="AQ3">
         <v>3800</v>
       </c>
-      <c r="AR3" t="n">
+      <c r="AR3">
         <v>4555</v>
       </c>
-      <c r="AS3" t="n">
+      <c r="AS3">
         <v>4438</v>
       </c>
-      <c r="AT3" t="n">
+      <c r="AT3">
         <v>4711</v>
       </c>
-      <c r="AU3" t="n">
+      <c r="AU3">
         <v>3891</v>
       </c>
-      <c r="AV3" t="n">
+      <c r="AV3">
         <v>3999</v>
       </c>
-      <c r="AW3" t="n">
+      <c r="AW3">
         <v>4556</v>
       </c>
-      <c r="AX3" t="n">
+      <c r="AX3">
         <v>3817</v>
       </c>
-      <c r="AY3" t="n">
+      <c r="AY3">
         <v>3669</v>
       </c>
-      <c r="AZ3" t="n">
+      <c r="AZ3">
         <v>4044</v>
       </c>
-      <c r="BA3" t="n">
+      <c r="BA3">
         <v>5163</v>
       </c>
-      <c r="BB3" t="n">
+      <c r="BB3">
         <v>3745</v>
       </c>
-      <c r="BC3" t="n">
+      <c r="BC3">
         <v>3979</v>
       </c>
-      <c r="BD3" t="n">
+      <c r="BD3">
         <v>4212</v>
       </c>
-      <c r="BE3" t="n">
+      <c r="BE3">
         <v>4892</v>
       </c>
-      <c r="BF3" t="n">
+      <c r="BF3">
         <v>3426</v>
       </c>
-      <c r="BG3" t="n">
+      <c r="BG3">
         <v>3791</v>
       </c>
-      <c r="BH3" t="n">
+      <c r="BH3">
         <v>3964</v>
       </c>
-      <c r="BI3" t="n">
+      <c r="BI3">
         <v>4767</v>
       </c>
-      <c r="BJ3" t="n">
+      <c r="BJ3">
         <v>4279</v>
       </c>
-      <c r="BK3" t="n">
+      <c r="BK3">
         <v>4441</v>
       </c>
-      <c r="BL3" t="n">
+      <c r="BL3">
         <v>4266</v>
       </c>
-      <c r="BM3" t="n">
+      <c r="BM3">
         <v>4679</v>
       </c>
-      <c r="BN3" t="n">
+      <c r="BN3">
         <v>3672</v>
       </c>
-      <c r="BO3" t="n">
+      <c r="BO3">
         <v>4019</v>
       </c>
-      <c r="BP3" t="n">
+      <c r="BP3">
         <v>4707</v>
       </c>
-      <c r="BQ3" t="n">
+      <c r="BQ3">
         <v>4913</v>
       </c>
-      <c r="BR3" t="n">
+      <c r="BR3">
         <v>6315.056778</v>
       </c>
-      <c r="BS3" t="n">
+      <c r="BS3">
         <v>6406.95104766454</v>
       </c>
-      <c r="BT3" t="n">
+      <c r="BT3">
         <v>7193.36663916773</v>
       </c>
-      <c r="BU3" t="n">
+      <c r="BU3">
         <v>5122.52553716773</v>
       </c>
-      <c r="BV3" t="n">
+      <c r="BV3">
         <v>5109.623237</v>
       </c>
-      <c r="BW3" t="n">
+      <c r="BW3">
         <v>5023.108399</v>
       </c>
-      <c r="BX3" t="n">
+      <c r="BX3">
         <v>5511.126138</v>
       </c>
-      <c r="BY3" t="n">
+      <c r="BY3">
         <v>5478.142225</v>
       </c>
-      <c r="BZ3" t="n">
+      <c r="BZ3">
         <v>5773.333565</v>
       </c>
-      <c r="CA3" t="n">
+      <c r="CA3">
         <v>5486.513652</v>
       </c>
-      <c r="CB3" t="n">
+      <c r="CB3">
         <v>5592.898898</v>
       </c>
-      <c r="CC3" t="n">
+      <c r="CC3">
         <v>6058.485761</v>
       </c>
-      <c r="CD3" t="n">
+      <c r="CD3">
         <v>5412.897826</v>
       </c>
-      <c r="CE3" t="n">
+      <c r="CE3">
         <v>6613.820179</v>
       </c>
-      <c r="CF3" t="n">
+      <c r="CF3">
         <v>5380.384671</v>
       </c>
-      <c r="CG3" t="n">
+      <c r="CG3">
         <v>5372.916929</v>
       </c>
-      <c r="CH3" t="n">
+      <c r="CH3">
         <v>14110.736858</v>
       </c>
-      <c r="CI3" t="n">
+      <c r="CI3">
         <v>10607.619422</v>
       </c>
-      <c r="CJ3" t="n">
+      <c r="CJ3">
         <v>8847.738308</v>
       </c>
-      <c r="CK3" t="n">
+      <c r="CK3">
         <v>7771.054432</v>
       </c>
-      <c r="CL3" t="n">
+      <c r="CL3">
         <v>11639.959053</v>
       </c>
-      <c r="CM3" t="n">
+      <c r="CM3">
         <v>12279.204593</v>
       </c>
-      <c r="CN3" t="n">
+      <c r="CN3">
         <v>13917.011576</v>
       </c>
-      <c r="CO3" t="n">
+      <c r="CO3">
         <v>14549.722911</v>
       </c>
-      <c r="CP3" t="n">
+      <c r="CP3">
         <v>14460.19994</v>
       </c>
-      <c r="CQ3" t="n">
+      <c r="CQ3">
         <v>12647.227292</v>
       </c>
-      <c r="CR3" t="n">
+      <c r="CR3">
         <v>14816.88352</v>
       </c>
-      <c r="CS3" t="n">
+      <c r="CS3">
         <v>13550.286878</v>
       </c>
-      <c r="CT3" t="n">
+      <c r="CT3">
         <v>15723.714654</v>
       </c>
-      <c r="CU3" t="n">
+      <c r="CU3">
         <v>18213.719884</v>
       </c>
-      <c r="CV3" t="n">
+      <c r="CV3">
         <v>19373.470104</v>
       </c>
-      <c r="CW3" t="n">
+      <c r="CW3">
         <v>18146.764869</v>
       </c>
-      <c r="CX3" t="n">
+      <c r="CX3">
         <v>18663.718786</v>
       </c>
-      <c r="CY3" t="n">
+      <c r="CY3">
         <v>21800.922896</v>
       </c>
-      <c r="CZ3" t="n">
+      <c r="CZ3">
         <v>21850.67975</v>
       </c>
-      <c r="DA3" t="n">
+      <c r="DA3">
         <v>17164.959644</v>
       </c>
-      <c r="DB3" t="n">
+      <c r="DB3">
         <v>24524.90556</v>
       </c>
-      <c r="DC3" t="n">
+      <c r="DC3">
         <v>31559.801328</v>
       </c>
-      <c r="DD3" t="n">
+      <c r="DD3">
         <v>23026.134339</v>
       </c>
-      <c r="DE3" t="n">
+      <c r="DE3">
         <v>19099.331534</v>
       </c>
-      <c r="DF3" t="n">
+      <c r="DF3">
         <v>23690.392973</v>
       </c>
-      <c r="DG3" t="n">
+      <c r="DG3">
         <v>26074.194834</v>
       </c>
-      <c r="DH3" t="n">
+      <c r="DH3">
         <v>26428.780494</v>
       </c>
-      <c r="DI3" t="n">
+      <c r="DI3">
         <v>22374.558058</v>
       </c>
-      <c r="DJ3" t="n">
+      <c r="DJ3">
         <v>24127.347289</v>
       </c>
-      <c r="DK3" t="n">
+      <c r="DK3">
         <v>24278.571478</v>
       </c>
-      <c r="DL3" t="n">
+      <c r="DL3">
         <v>30426.835996</v>
       </c>
-      <c r="DM3" t="n">
+      <c r="DM3">
         <v>31842.962265</v>
       </c>
-      <c r="DN3" t="n">
+      <c r="DN3">
         <v>27401.560023</v>
       </c>
-      <c r="DO3" t="n">
+      <c r="DO3">
         <v>36983.186797</v>
       </c>
-      <c r="DP3" t="n">
+      <c r="DP3">
         <v>34541.018829</v>
       </c>
-      <c r="DQ3" t="n">
+      <c r="DQ3">
         <v>36475.981023</v>
       </c>
-      <c r="DR3" t="n">
+      <c r="DR3">
         <v>40709.771657</v>
       </c>
-      <c r="DS3" t="n">
+      <c r="DS3">
         <v>46874.832733</v>
       </c>
-      <c r="DT3" t="n">
+      <c r="DT3">
         <v>34743.732295</v>
       </c>
-      <c r="DU3" t="n">
+      <c r="DU3">
         <v>29159.068383</v>
       </c>
-      <c r="DV3" t="n">
+      <c r="DV3">
         <v>33451.427982</v>
       </c>
-      <c r="DW3" t="n">
+      <c r="DW3">
         <v>42164.550998</v>
       </c>
-      <c r="DX3" t="n">
+      <c r="DX3">
         <v>29227.770904</v>
       </c>
-      <c r="DY3" t="n">
+      <c r="DY3">
         <v>26922.776882</v>
       </c>
-      <c r="DZ3" t="n">
+      <c r="DZ3">
         <v>30673.743886</v>
       </c>
-      <c r="EA3" t="n">
+      <c r="EA3">
         <v>37313.197446</v>
       </c>
-      <c r="EB3" t="n">
+      <c r="EB3">
         <v>31127.917166</v>
       </c>
-      <c r="EC3" t="n">
+      <c r="EC3">
         <v>27338.630795</v>
       </c>
-      <c r="ED3" t="n">
+      <c r="ED3">
         <v>37147.47951</v>
       </c>
-      <c r="EE3" t="n">
+      <c r="EE3">
         <v>44753.613131</v>
       </c>
-      <c r="EF3" t="n">
+      <c r="EF3">
         <v>33547.190031</v>
       </c>
-      <c r="EG3" t="n">
+      <c r="EG3">
         <v>28432.170957</v>
       </c>
-      <c r="EH3" t="n">
+      <c r="EH3">
         <v>31983.86326</v>
       </c>
-      <c r="EI3" t="n">
+      <c r="EI3">
         <v>33088.27518</v>
       </c>
-      <c r="EJ3" t="n">
+      <c r="EJ3">
         <v>27534.603748</v>
       </c>
-      <c r="EK3" t="n">
+      <c r="EK3">
         <v>27019.727305</v>
       </c>
-      <c r="EL3" t="n">
+      <c r="EL3">
         <v>32862.799463</v>
       </c>
-      <c r="EM3" t="n">
+      <c r="EM3">
         <v>30657.450395</v>
       </c>
-      <c r="EN3" t="n">
+      <c r="EN3">
         <v>32583.79223</v>
       </c>
-      <c r="EO3" t="n">
+      <c r="EO3">
         <v>29793.483863</v>
       </c>
-      <c r="EP3" t="n">
+      <c r="EP3">
         <v>34468.231488</v>
       </c>
-      <c r="EQ3" t="n">
+      <c r="EQ3">
         <v>38890.139191</v>
       </c>
-      <c r="ER3" t="n">
+      <c r="ER3">
         <v>39470.391542</v>
       </c>
-      <c r="ES3" t="n">
+      <c r="ES3">
         <v>35265.120304</v>
       </c>
-      <c r="ET3" t="n">
+      <c r="ET3">
         <v>40943.905601</v>
       </c>
-      <c r="EU3" t="n">
+      <c r="EU3">
         <v>43539.126178</v>
       </c>
-      <c r="EV3" t="n">
+      <c r="EV3">
         <v>40309.793121</v>
       </c>
-      <c r="EW3" t="n">
+      <c r="EW3">
         <v>38529.663686</v>
       </c>
-      <c r="EX3" t="n">
+      <c r="EX3">
         <v>42686.895182</v>
       </c>
-      <c r="EY3" t="n">
+      <c r="EY3">
         <v>45186.863496</v>
       </c>
-      <c r="EZ3" t="n">
+      <c r="EZ3">
         <v>37188.626399</v>
       </c>
-      <c r="FA3" t="n">
+      <c r="FA3">
         <v>36593.987995</v>
       </c>
-      <c r="FB3" t="n">
+      <c r="FB3">
         <v>33537.444408</v>
       </c>
-      <c r="FC3" t="n">
+      <c r="FC3">
         <v>32447.196612</v>
       </c>
-      <c r="FD3" t="n">
+      <c r="FD3">
         <v>34029.794544</v>
       </c>
-      <c r="FE3" t="n">
+      <c r="FE3">
         <v>37045.879761</v>
       </c>
-      <c r="FF3" t="n">
+      <c r="FF3">
         <v>42358.938017</v>
       </c>
-      <c r="FG3" t="n">
+      <c r="FG3">
         <v>48530.758339</v>
       </c>
-      <c r="FH3" t="n">
+      <c r="FH3">
         <v>47508.309366</v>
       </c>
-      <c r="FI3" t="n">
+      <c r="FI3">
         <v>46886.013877</v>
       </c>
-      <c r="FJ3" t="n">
+      <c r="FJ3">
         <v>67801.168509</v>
       </c>
-      <c r="FK3" t="inlineStr">
-        <is>
-          <t>..</t>
-        </is>
-      </c>
-      <c r="FL3" t="inlineStr">
-        <is>
-          <t>..</t>
-        </is>
-      </c>
-      <c r="FM3" t="inlineStr">
-        <is>
-          <t>..</t>
-        </is>
+      <c r="FK3" t="s">
+        <v>178</v>
+      </c>
+      <c r="FL3" t="s">
+        <v>178</v>
+      </c>
+      <c r="FM3" t="s">
+        <v>178</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>Manufacturing</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="n">
+    <row r="4" spans="1:169">
+      <c r="A4" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C4">
         <v>17160</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>17115</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>17854</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>19700</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>19056</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>19445</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4">
         <v>19306</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4">
         <v>21801</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4">
         <v>20199</v>
       </c>
-      <c r="L4" t="n">
+      <c r="L4">
         <v>21495</v>
       </c>
-      <c r="M4" t="n">
+      <c r="M4">
         <v>21924</v>
       </c>
-      <c r="N4" t="n">
+      <c r="N4">
         <v>25854</v>
       </c>
-      <c r="O4" t="n">
+      <c r="O4">
         <v>27932</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P4">
         <v>31090</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="Q4">
         <v>32045</v>
       </c>
-      <c r="R4" t="n">
+      <c r="R4">
         <v>38104</v>
       </c>
-      <c r="S4" t="n">
+      <c r="S4">
         <v>35049</v>
       </c>
-      <c r="T4" t="n">
+      <c r="T4">
         <v>36093</v>
       </c>
-      <c r="U4" t="n">
+      <c r="U4">
         <v>34299</v>
       </c>
-      <c r="V4" t="n">
+      <c r="V4">
         <v>38410</v>
       </c>
-      <c r="W4" t="n">
+      <c r="W4">
         <v>35793</v>
       </c>
-      <c r="X4" t="n">
+      <c r="X4">
         <v>37612</v>
       </c>
-      <c r="Y4" t="n">
+      <c r="Y4">
         <v>36546</v>
       </c>
-      <c r="Z4" t="n">
+      <c r="Z4">
         <v>40007</v>
       </c>
-      <c r="AA4" t="n">
+      <c r="AA4">
         <v>38074</v>
       </c>
-      <c r="AB4" t="n">
+      <c r="AB4">
         <v>41181</v>
       </c>
-      <c r="AC4" t="n">
+      <c r="AC4">
         <v>42284</v>
       </c>
-      <c r="AD4" t="n">
+      <c r="AD4">
         <v>48088</v>
       </c>
-      <c r="AE4" t="n">
+      <c r="AE4">
         <v>46111</v>
       </c>
-      <c r="AF4" t="n">
+      <c r="AF4">
         <v>47448</v>
       </c>
-      <c r="AG4" t="n">
+      <c r="AG4">
         <v>51349</v>
       </c>
-      <c r="AH4" t="n">
+      <c r="AH4">
         <v>59876</v>
       </c>
-      <c r="AI4" t="n">
+      <c r="AI4">
         <v>51470</v>
       </c>
-      <c r="AJ4" t="n">
+      <c r="AJ4">
         <v>52937</v>
       </c>
-      <c r="AK4" t="n">
+      <c r="AK4">
         <v>57842</v>
       </c>
-      <c r="AL4" t="n">
+      <c r="AL4">
         <v>67914</v>
       </c>
-      <c r="AM4" t="n">
+      <c r="AM4">
         <v>59826</v>
       </c>
-      <c r="AN4" t="n">
+      <c r="AN4">
         <v>60549</v>
       </c>
-      <c r="AO4" t="n">
+      <c r="AO4">
         <v>67249</v>
       </c>
-      <c r="AP4" t="n">
+      <c r="AP4">
         <v>79861</v>
       </c>
-      <c r="AQ4" t="n">
+      <c r="AQ4">
         <v>73046</v>
       </c>
-      <c r="AR4" t="n">
+      <c r="AR4">
         <v>73189</v>
       </c>
-      <c r="AS4" t="n">
+      <c r="AS4">
         <v>81262</v>
       </c>
-      <c r="AT4" t="n">
+      <c r="AT4">
         <v>88441</v>
       </c>
-      <c r="AU4" t="n">
+      <c r="AU4">
         <v>78969</v>
       </c>
-      <c r="AV4" t="n">
+      <c r="AV4">
         <v>75648</v>
       </c>
-      <c r="AW4" t="n">
+      <c r="AW4">
         <v>83006</v>
       </c>
-      <c r="AX4" t="n">
+      <c r="AX4">
         <v>89216</v>
       </c>
-      <c r="AY4" t="n">
+      <c r="AY4">
         <v>78130</v>
       </c>
-      <c r="AZ4" t="n">
+      <c r="AZ4">
         <v>79645</v>
       </c>
-      <c r="BA4" t="n">
+      <c r="BA4">
         <v>92257</v>
       </c>
-      <c r="BB4" t="n">
+      <c r="BB4">
         <v>99563</v>
       </c>
-      <c r="BC4" t="n">
+      <c r="BC4">
         <v>88462</v>
       </c>
-      <c r="BD4" t="n">
+      <c r="BD4">
         <v>90676</v>
       </c>
-      <c r="BE4" t="n">
+      <c r="BE4">
         <v>102019</v>
       </c>
-      <c r="BF4" t="n">
+      <c r="BF4">
         <v>112653</v>
       </c>
-      <c r="BG4" t="n">
+      <c r="BG4">
         <v>98159</v>
       </c>
-      <c r="BH4" t="n">
+      <c r="BH4">
         <v>102096</v>
       </c>
-      <c r="BI4" t="n">
+      <c r="BI4">
         <v>112965</v>
       </c>
-      <c r="BJ4" t="n">
+      <c r="BJ4">
         <v>125027</v>
       </c>
-      <c r="BK4" t="n">
+      <c r="BK4">
         <v>113491</v>
       </c>
-      <c r="BL4" t="n">
+      <c r="BL4">
         <v>116270</v>
       </c>
-      <c r="BM4" t="n">
+      <c r="BM4">
         <v>127505</v>
       </c>
-      <c r="BN4" t="n">
+      <c r="BN4">
         <v>118701</v>
       </c>
-      <c r="BO4" t="n">
+      <c r="BO4">
         <v>126169</v>
       </c>
-      <c r="BP4" t="n">
+      <c r="BP4">
         <v>139050</v>
       </c>
-      <c r="BQ4" t="n">
+      <c r="BQ4">
         <v>156385</v>
       </c>
-      <c r="BR4" t="n">
+      <c r="BR4">
         <v>157449.511</v>
       </c>
-      <c r="BS4" t="n">
+      <c r="BS4">
         <v>162145.18</v>
       </c>
-      <c r="BT4" t="n">
+      <c r="BT4">
         <v>177938.034</v>
       </c>
-      <c r="BU4" t="n">
+      <c r="BU4">
         <v>195064.3442849</v>
       </c>
-      <c r="BV4" t="n">
+      <c r="BV4">
         <v>166845.277</v>
       </c>
-      <c r="BW4" t="n">
+      <c r="BW4">
         <v>176298.335</v>
       </c>
-      <c r="BX4" t="n">
+      <c r="BX4">
         <v>197987.699</v>
       </c>
-      <c r="BY4" t="n">
+      <c r="BY4">
         <v>220194.223915009</v>
       </c>
-      <c r="BZ4" t="n">
+      <c r="BZ4">
         <v>212973.010281</v>
       </c>
-      <c r="CA4" t="n">
+      <c r="CA4">
         <v>221099.577423</v>
       </c>
-      <c r="CB4" t="n">
+      <c r="CB4">
         <v>243288.471868</v>
       </c>
-      <c r="CC4" t="n">
+      <c r="CC4">
         <v>257365.074042</v>
       </c>
-      <c r="CD4" t="n">
+      <c r="CD4">
         <v>239903.944046</v>
       </c>
-      <c r="CE4" t="n">
+      <c r="CE4">
         <v>243285.598661</v>
       </c>
-      <c r="CF4" t="n">
+      <c r="CF4">
         <v>261975.212045</v>
       </c>
-      <c r="CG4" t="n">
+      <c r="CG4">
         <v>273472.829976</v>
       </c>
-      <c r="CH4" t="n">
+      <c r="CH4">
         <v>249642.309808</v>
       </c>
-      <c r="CI4" t="n">
+      <c r="CI4">
         <v>261649.366484</v>
       </c>
-      <c r="CJ4" t="n">
+      <c r="CJ4">
         <v>277280.828088</v>
       </c>
-      <c r="CK4" t="n">
+      <c r="CK4">
         <v>304958.474112</v>
       </c>
-      <c r="CL4" t="n">
+      <c r="CL4">
         <v>281363.169567</v>
       </c>
-      <c r="CM4" t="n">
+      <c r="CM4">
         <v>275369.297903</v>
       </c>
-      <c r="CN4" t="n">
+      <c r="CN4">
         <v>291785.895704</v>
       </c>
-      <c r="CO4" t="n">
+      <c r="CO4">
         <v>323237.835018</v>
       </c>
-      <c r="CP4" t="n">
+      <c r="CP4">
         <v>306684.034218</v>
       </c>
-      <c r="CQ4" t="n">
+      <c r="CQ4">
         <v>297778.044346</v>
       </c>
-      <c r="CR4" t="n">
+      <c r="CR4">
         <v>308665.457704</v>
       </c>
-      <c r="CS4" t="n">
+      <c r="CS4">
         <v>365248.22208</v>
       </c>
-      <c r="CT4" t="n">
+      <c r="CT4">
         <v>331317.078997</v>
       </c>
-      <c r="CU4" t="n">
+      <c r="CU4">
         <v>329830.601408</v>
       </c>
-      <c r="CV4" t="n">
+      <c r="CV4">
         <v>352725.215275</v>
       </c>
-      <c r="CW4" t="n">
+      <c r="CW4">
         <v>422245.670509</v>
       </c>
-      <c r="CX4" t="n">
+      <c r="CX4">
         <v>362336.896453</v>
       </c>
-      <c r="CY4" t="n">
+      <c r="CY4">
         <v>353738.008691</v>
       </c>
-      <c r="CZ4" t="n">
+      <c r="CZ4">
         <v>384249.172765</v>
       </c>
-      <c r="DA4" t="n">
+      <c r="DA4">
         <v>460586.960129</v>
       </c>
-      <c r="DB4" t="n">
+      <c r="DB4">
         <v>389577.294877</v>
       </c>
-      <c r="DC4" t="n">
+      <c r="DC4">
         <v>378589.1285</v>
       </c>
-      <c r="DD4" t="n">
+      <c r="DD4">
         <v>407388.143654</v>
       </c>
-      <c r="DE4" t="n">
+      <c r="DE4">
         <v>490904.743637</v>
       </c>
-      <c r="DF4" t="n">
+      <c r="DF4">
         <v>412889.694697</v>
       </c>
-      <c r="DG4" t="n">
+      <c r="DG4">
         <v>434455.853371</v>
       </c>
-      <c r="DH4" t="n">
+      <c r="DH4">
         <v>475283.665224</v>
       </c>
-      <c r="DI4" t="n">
+      <c r="DI4">
         <v>550545.2164949999</v>
       </c>
-      <c r="DJ4" t="n">
+      <c r="DJ4">
         <v>409040.439293</v>
       </c>
-      <c r="DK4" t="n">
+      <c r="DK4">
         <v>404256.795362</v>
       </c>
-      <c r="DL4" t="n">
+      <c r="DL4">
         <v>435335.006116</v>
       </c>
-      <c r="DM4" t="n">
+      <c r="DM4">
         <v>575329.1254660001</v>
       </c>
-      <c r="DN4" t="n">
+      <c r="DN4">
         <v>492383.368836</v>
       </c>
-      <c r="DO4" t="n">
+      <c r="DO4">
         <v>462901.715973</v>
       </c>
-      <c r="DP4" t="n">
+      <c r="DP4">
         <v>475001.990972</v>
       </c>
-      <c r="DQ4" t="n">
+      <c r="DQ4">
         <v>629997.4961540001</v>
       </c>
-      <c r="DR4" t="n">
+      <c r="DR4">
         <v>542361.877188</v>
       </c>
-      <c r="DS4" t="n">
+      <c r="DS4">
         <v>509005.158658</v>
       </c>
-      <c r="DT4" t="n">
+      <c r="DT4">
         <v>491717.14838</v>
       </c>
-      <c r="DU4" t="n">
+      <c r="DU4">
         <v>658746.278374</v>
       </c>
-      <c r="DV4" t="n">
+      <c r="DV4">
         <v>590471.4058140001</v>
       </c>
-      <c r="DW4" t="n">
+      <c r="DW4">
         <v>540752.780623</v>
       </c>
-      <c r="DX4" t="n">
+      <c r="DX4">
         <v>523248.035999</v>
       </c>
-      <c r="DY4" t="n">
+      <c r="DY4">
         <v>704593.34244</v>
       </c>
-      <c r="DZ4" t="n">
+      <c r="DZ4">
         <v>613570.04135</v>
       </c>
-      <c r="EA4" t="n">
+      <c r="EA4">
         <v>547903.135133</v>
       </c>
-      <c r="EB4" t="n">
+      <c r="EB4">
         <v>545052.496275</v>
       </c>
-      <c r="EC4" t="n">
+      <c r="EC4">
         <v>755952.397509</v>
       </c>
-      <c r="ED4" t="n">
+      <c r="ED4">
         <v>656219.036898</v>
       </c>
-      <c r="EE4" t="n">
+      <c r="EE4">
         <v>616392.625964</v>
       </c>
-      <c r="EF4" t="n">
+      <c r="EF4">
         <v>603565.956921</v>
       </c>
-      <c r="EG4" t="n">
+      <c r="EG4">
         <v>841138.385503</v>
       </c>
-      <c r="EH4" t="n">
+      <c r="EH4">
         <v>685149.0679500001</v>
       </c>
-      <c r="EI4" t="n">
+      <c r="EI4">
         <v>628126.893142</v>
       </c>
-      <c r="EJ4" t="n">
+      <c r="EJ4">
         <v>592308.023865</v>
       </c>
-      <c r="EK4" t="n">
+      <c r="EK4">
         <v>873210.831146</v>
       </c>
-      <c r="EL4" t="n">
+      <c r="EL4">
         <v>713257.291491</v>
       </c>
-      <c r="EM4" t="n">
+      <c r="EM4">
         <v>663887.0628590001</v>
       </c>
-      <c r="EN4" t="n">
+      <c r="EN4">
         <v>642465.2851109999</v>
       </c>
-      <c r="EO4" t="n">
+      <c r="EO4">
         <v>944869.7718399999</v>
       </c>
-      <c r="EP4" t="n">
+      <c r="EP4">
         <v>768652.738275</v>
       </c>
-      <c r="EQ4" t="n">
+      <c r="EQ4">
         <v>729100.656882</v>
       </c>
-      <c r="ER4" t="n">
+      <c r="ER4">
         <v>719727.20964</v>
       </c>
-      <c r="ES4" t="n">
+      <c r="ES4">
         <v>1011099.81006</v>
       </c>
-      <c r="ET4" t="n">
+      <c r="ET4">
         <v>823811.238172</v>
       </c>
-      <c r="EU4" t="n">
+      <c r="EU4">
         <v>789468.556543</v>
       </c>
-      <c r="EV4" t="n">
+      <c r="EV4">
         <v>779668.002459</v>
       </c>
-      <c r="EW4" t="n">
+      <c r="EW4">
         <v>1095383.383851</v>
       </c>
-      <c r="EX4" t="n">
+      <c r="EX4">
         <v>878958.105556</v>
       </c>
-      <c r="EY4" t="n">
+      <c r="EY4">
         <v>806663.294814</v>
       </c>
-      <c r="EZ4" t="n">
+      <c r="EZ4">
         <v>769222.363364</v>
       </c>
-      <c r="FA4" t="n">
+      <c r="FA4">
         <v>1159172.470369</v>
       </c>
-      <c r="FB4" t="n">
+      <c r="FB4">
         <v>822907.9932490001</v>
       </c>
-      <c r="FC4" t="n">
+      <c r="FC4">
         <v>622352.932835</v>
       </c>
-      <c r="FD4" t="n">
+      <c r="FD4">
         <v>642955.6403260001</v>
       </c>
-      <c r="FE4" t="n">
+      <c r="FE4">
         <v>1081704.436448</v>
       </c>
-      <c r="FF4" t="n">
+      <c r="FF4">
         <v>809444.432473</v>
       </c>
-      <c r="FG4" t="n">
+      <c r="FG4">
         <v>770605.750245</v>
       </c>
-      <c r="FH4" t="n">
+      <c r="FH4">
         <v>677727.856179</v>
       </c>
-      <c r="FI4" t="n">
+      <c r="FI4">
         <v>1165625.821985</v>
       </c>
-      <c r="FJ4" t="n">
+      <c r="FJ4">
         <v>945087.3827289999</v>
       </c>
-      <c r="FK4" t="inlineStr">
-        <is>
-          <t>..</t>
-        </is>
-      </c>
-      <c r="FL4" t="inlineStr">
-        <is>
-          <t>..</t>
-        </is>
-      </c>
-      <c r="FM4" t="inlineStr">
-        <is>
-          <t>..</t>
-        </is>
+      <c r="FK4" t="s">
+        <v>178</v>
+      </c>
+      <c r="FL4" t="s">
+        <v>178</v>
+      </c>
+      <c r="FM4" t="s">
+        <v>178</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>Electricity, steam, water and waste management</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="n">
+    <row r="5" spans="1:169">
+      <c r="A5" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C5">
         <v>1003</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>1249</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>1301</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>1392</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>1390</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
         <v>1678</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5">
         <v>1597</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5">
         <v>1912</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K5">
         <v>2014</v>
       </c>
-      <c r="L5" t="n">
+      <c r="L5">
         <v>2229</v>
       </c>
-      <c r="M5" t="n">
+      <c r="M5">
         <v>2342</v>
       </c>
-      <c r="N5" t="n">
+      <c r="N5">
         <v>2370</v>
       </c>
-      <c r="O5" t="n">
+      <c r="O5">
         <v>2783</v>
       </c>
-      <c r="P5" t="n">
+      <c r="P5">
         <v>3136</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="Q5">
         <v>3365</v>
       </c>
-      <c r="R5" t="n">
+      <c r="R5">
         <v>3495</v>
       </c>
-      <c r="S5" t="n">
+      <c r="S5">
         <v>3488</v>
       </c>
-      <c r="T5" t="n">
+      <c r="T5">
         <v>3951</v>
       </c>
-      <c r="U5" t="n">
+      <c r="U5">
         <v>4121</v>
       </c>
-      <c r="V5" t="n">
+      <c r="V5">
         <v>4207</v>
       </c>
-      <c r="W5" t="n">
+      <c r="W5">
         <v>4269</v>
       </c>
-      <c r="X5" t="n">
+      <c r="X5">
         <v>3941</v>
       </c>
-      <c r="Y5" t="n">
+      <c r="Y5">
         <v>4094</v>
       </c>
-      <c r="Z5" t="n">
+      <c r="Z5">
         <v>4338</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="AA5">
         <v>4079</v>
       </c>
-      <c r="AB5" t="n">
+      <c r="AB5">
         <v>3143</v>
       </c>
-      <c r="AC5" t="n">
+      <c r="AC5">
         <v>3721</v>
       </c>
-      <c r="AD5" t="n">
+      <c r="AD5">
         <v>3066</v>
       </c>
-      <c r="AE5" t="n">
+      <c r="AE5">
         <v>4339</v>
       </c>
-      <c r="AF5" t="n">
+      <c r="AF5">
         <v>4547</v>
       </c>
-      <c r="AG5" t="n">
+      <c r="AG5">
         <v>4595</v>
       </c>
-      <c r="AH5" t="n">
+      <c r="AH5">
         <v>4603</v>
       </c>
-      <c r="AI5" t="n">
+      <c r="AI5">
         <v>4642</v>
       </c>
-      <c r="AJ5" t="n">
+      <c r="AJ5">
         <v>5036</v>
       </c>
-      <c r="AK5" t="n">
+      <c r="AK5">
         <v>5067</v>
       </c>
-      <c r="AL5" t="n">
+      <c r="AL5">
         <v>5329</v>
       </c>
-      <c r="AM5" t="n">
+      <c r="AM5">
         <v>5211</v>
       </c>
-      <c r="AN5" t="n">
+      <c r="AN5">
         <v>5602</v>
       </c>
-      <c r="AO5" t="n">
+      <c r="AO5">
         <v>5676</v>
       </c>
-      <c r="AP5" t="n">
+      <c r="AP5">
         <v>5811</v>
       </c>
-      <c r="AQ5" t="n">
+      <c r="AQ5">
         <v>6940</v>
       </c>
-      <c r="AR5" t="n">
+      <c r="AR5">
         <v>7688</v>
       </c>
-      <c r="AS5" t="n">
+      <c r="AS5">
         <v>7442</v>
       </c>
-      <c r="AT5" t="n">
+      <c r="AT5">
         <v>7030</v>
       </c>
-      <c r="AU5" t="n">
+      <c r="AU5">
         <v>8047</v>
       </c>
-      <c r="AV5" t="n">
+      <c r="AV5">
         <v>8295</v>
       </c>
-      <c r="AW5" t="n">
+      <c r="AW5">
         <v>8426</v>
       </c>
-      <c r="AX5" t="n">
+      <c r="AX5">
         <v>7975</v>
       </c>
-      <c r="AY5" t="n">
+      <c r="AY5">
         <v>8146</v>
       </c>
-      <c r="AZ5" t="n">
+      <c r="AZ5">
         <v>9029</v>
       </c>
-      <c r="BA5" t="n">
+      <c r="BA5">
         <v>9500</v>
       </c>
-      <c r="BB5" t="n">
+      <c r="BB5">
         <v>9742</v>
       </c>
-      <c r="BC5" t="n">
+      <c r="BC5">
         <v>10359</v>
       </c>
-      <c r="BD5" t="n">
+      <c r="BD5">
         <v>11620</v>
       </c>
-      <c r="BE5" t="n">
+      <c r="BE5">
         <v>11318</v>
       </c>
-      <c r="BF5" t="n">
+      <c r="BF5">
         <v>11598</v>
       </c>
-      <c r="BG5" t="n">
+      <c r="BG5">
         <v>11289</v>
       </c>
-      <c r="BH5" t="n">
+      <c r="BH5">
         <v>13097</v>
       </c>
-      <c r="BI5" t="n">
+      <c r="BI5">
         <v>13149</v>
       </c>
-      <c r="BJ5" t="n">
+      <c r="BJ5">
         <v>11875</v>
       </c>
-      <c r="BK5" t="n">
+      <c r="BK5">
         <v>12711</v>
       </c>
-      <c r="BL5" t="n">
+      <c r="BL5">
         <v>14374</v>
       </c>
-      <c r="BM5" t="n">
+      <c r="BM5">
         <v>15282</v>
       </c>
-      <c r="BN5" t="n">
+      <c r="BN5">
         <v>15319</v>
       </c>
-      <c r="BO5" t="n">
+      <c r="BO5">
         <v>17286</v>
       </c>
-      <c r="BP5" t="n">
+      <c r="BP5">
         <v>17023</v>
       </c>
-      <c r="BQ5" t="n">
+      <c r="BQ5">
         <v>16426</v>
       </c>
-      <c r="BR5" t="n">
+      <c r="BR5">
         <v>26600.566428</v>
       </c>
-      <c r="BS5" t="n">
+      <c r="BS5">
         <v>29693.5593249808</v>
       </c>
-      <c r="BT5" t="n">
+      <c r="BT5">
         <v>28509.7367125096</v>
       </c>
-      <c r="BU5" t="n">
+      <c r="BU5">
         <v>25258.7397259167</v>
       </c>
-      <c r="BV5" t="n">
+      <c r="BV5">
         <v>28538.45659</v>
       </c>
-      <c r="BW5" t="n">
+      <c r="BW5">
         <v>30882.289851</v>
       </c>
-      <c r="BX5" t="n">
+      <c r="BX5">
         <v>30509.524106</v>
       </c>
-      <c r="BY5" t="n">
+      <c r="BY5">
         <v>27249.1067746115</v>
       </c>
-      <c r="BZ5" t="n">
+      <c r="BZ5">
         <v>31368.218387</v>
       </c>
-      <c r="CA5" t="n">
+      <c r="CA5">
         <v>34646.201822</v>
       </c>
-      <c r="CB5" t="n">
+      <c r="CB5">
         <v>34950.237704</v>
       </c>
-      <c r="CC5" t="n">
+      <c r="CC5">
         <v>33535.117755</v>
       </c>
-      <c r="CD5" t="n">
+      <c r="CD5">
         <v>37477.087544</v>
       </c>
-      <c r="CE5" t="n">
+      <c r="CE5">
         <v>42971.575369</v>
       </c>
-      <c r="CF5" t="n">
+      <c r="CF5">
         <v>42350.099699</v>
       </c>
-      <c r="CG5" t="n">
+      <c r="CG5">
         <v>37200.896127</v>
       </c>
-      <c r="CH5" t="n">
+      <c r="CH5">
         <v>42283.860028</v>
       </c>
-      <c r="CI5" t="n">
+      <c r="CI5">
         <v>46498.21179</v>
       </c>
-      <c r="CJ5" t="n">
+      <c r="CJ5">
         <v>38047.051993</v>
       </c>
-      <c r="CK5" t="n">
+      <c r="CK5">
         <v>38540.201065</v>
       </c>
-      <c r="CL5" t="n">
+      <c r="CL5">
         <v>43169.802762</v>
       </c>
-      <c r="CM5" t="n">
+      <c r="CM5">
         <v>48477.319395</v>
       </c>
-      <c r="CN5" t="n">
+      <c r="CN5">
         <v>42050.698997</v>
       </c>
-      <c r="CO5" t="n">
+      <c r="CO5">
         <v>41494.797799</v>
       </c>
-      <c r="CP5" t="n">
+      <c r="CP5">
         <v>47230.475093</v>
       </c>
-      <c r="CQ5" t="n">
+      <c r="CQ5">
         <v>51621.054799</v>
       </c>
-      <c r="CR5" t="n">
+      <c r="CR5">
         <v>47377.227477</v>
       </c>
-      <c r="CS5" t="n">
+      <c r="CS5">
         <v>49394.325787</v>
       </c>
-      <c r="CT5" t="n">
+      <c r="CT5">
         <v>55696.727726</v>
       </c>
-      <c r="CU5" t="n">
+      <c r="CU5">
         <v>60460.448961</v>
       </c>
-      <c r="CV5" t="n">
+      <c r="CV5">
         <v>52644.521597</v>
       </c>
-      <c r="CW5" t="n">
+      <c r="CW5">
         <v>51768.809104</v>
       </c>
-      <c r="CX5" t="n">
+      <c r="CX5">
         <v>57338.13455</v>
       </c>
-      <c r="CY5" t="n">
+      <c r="CY5">
         <v>66237.05609899999</v>
       </c>
-      <c r="CZ5" t="n">
+      <c r="CZ5">
         <v>58815.808835</v>
       </c>
-      <c r="DA5" t="n">
+      <c r="DA5">
         <v>56111.599006</v>
       </c>
-      <c r="DB5" t="n">
+      <c r="DB5">
         <v>61868.139942</v>
       </c>
-      <c r="DC5" t="n">
+      <c r="DC5">
         <v>73046.90412000001</v>
       </c>
-      <c r="DD5" t="n">
+      <c r="DD5">
         <v>62392.469657</v>
       </c>
-      <c r="DE5" t="n">
+      <c r="DE5">
         <v>57987.763499</v>
       </c>
-      <c r="DF5" t="n">
+      <c r="DF5">
         <v>65714.420986</v>
       </c>
-      <c r="DG5" t="n">
+      <c r="DG5">
         <v>77701.208451</v>
       </c>
-      <c r="DH5" t="n">
+      <c r="DH5">
         <v>63490.229286</v>
       </c>
-      <c r="DI5" t="n">
+      <c r="DI5">
         <v>59796.526787</v>
       </c>
-      <c r="DJ5" t="n">
+      <c r="DJ5">
         <v>65096.875063</v>
       </c>
-      <c r="DK5" t="n">
+      <c r="DK5">
         <v>82901.227092</v>
       </c>
-      <c r="DL5" t="n">
+      <c r="DL5">
         <v>65691.213456</v>
       </c>
-      <c r="DM5" t="n">
+      <c r="DM5">
         <v>62094.90505</v>
       </c>
-      <c r="DN5" t="n">
+      <c r="DN5">
         <v>78756.58624800001</v>
       </c>
-      <c r="DO5" t="n">
+      <c r="DO5">
         <v>99762.52246199999</v>
       </c>
-      <c r="DP5" t="n">
+      <c r="DP5">
         <v>75543.171862</v>
       </c>
-      <c r="DQ5" t="n">
+      <c r="DQ5">
         <v>72070.330048</v>
       </c>
-      <c r="DR5" t="n">
+      <c r="DR5">
         <v>80587.769503</v>
       </c>
-      <c r="DS5" t="n">
+      <c r="DS5">
         <v>100457.322577</v>
       </c>
-      <c r="DT5" t="n">
+      <c r="DT5">
         <v>77949.405568</v>
       </c>
-      <c r="DU5" t="n">
+      <c r="DU5">
         <v>76339.94472499999</v>
       </c>
-      <c r="DV5" t="n">
+      <c r="DV5">
         <v>94203.92264</v>
       </c>
-      <c r="DW5" t="n">
+      <c r="DW5">
         <v>112950.761271</v>
       </c>
-      <c r="DX5" t="n">
+      <c r="DX5">
         <v>87783.584787</v>
       </c>
-      <c r="DY5" t="n">
+      <c r="DY5">
         <v>84808.65917</v>
       </c>
-      <c r="DZ5" t="n">
+      <c r="DZ5">
         <v>96266.86045599999</v>
       </c>
-      <c r="EA5" t="n">
+      <c r="EA5">
         <v>124117.274971</v>
       </c>
-      <c r="EB5" t="n">
+      <c r="EB5">
         <v>91398.64099499999</v>
       </c>
-      <c r="EC5" t="n">
+      <c r="EC5">
         <v>89599.639839</v>
       </c>
-      <c r="ED5" t="n">
+      <c r="ED5">
         <v>103691.565448</v>
       </c>
-      <c r="EE5" t="n">
+      <c r="EE5">
         <v>129006.878327</v>
       </c>
-      <c r="EF5" t="n">
+      <c r="EF5">
         <v>95551.32960899999</v>
       </c>
-      <c r="EG5" t="n">
+      <c r="EG5">
         <v>97813.48768599999</v>
       </c>
-      <c r="EH5" t="n">
+      <c r="EH5">
         <v>109098.844192</v>
       </c>
-      <c r="EI5" t="n">
+      <c r="EI5">
         <v>135963.779866</v>
       </c>
-      <c r="EJ5" t="n">
+      <c r="EJ5">
         <v>97975.528787</v>
       </c>
-      <c r="EK5" t="n">
+      <c r="EK5">
         <v>100240.999618</v>
       </c>
-      <c r="EL5" t="n">
+      <c r="EL5">
         <v>114583.208821</v>
       </c>
-      <c r="EM5" t="n">
+      <c r="EM5">
         <v>141990.306194</v>
       </c>
-      <c r="EN5" t="n">
+      <c r="EN5">
         <v>103799.736905</v>
       </c>
-      <c r="EO5" t="n">
+      <c r="EO5">
         <v>105848.486643</v>
       </c>
-      <c r="EP5" t="n">
+      <c r="EP5">
         <v>121533.085786</v>
       </c>
-      <c r="EQ5" t="n">
+      <c r="EQ5">
         <v>153229.993709</v>
       </c>
-      <c r="ER5" t="n">
+      <c r="ER5">
         <v>112114.11015</v>
       </c>
-      <c r="ES5" t="n">
+      <c r="ES5">
         <v>118241.978296</v>
       </c>
-      <c r="ET5" t="n">
+      <c r="ET5">
         <v>135973.766782</v>
       </c>
-      <c r="EU5" t="n">
+      <c r="EU5">
         <v>164329.492089</v>
       </c>
-      <c r="EV5" t="n">
+      <c r="EV5">
         <v>123364.480745</v>
       </c>
-      <c r="EW5" t="n">
+      <c r="EW5">
         <v>133362.462302</v>
       </c>
-      <c r="EX5" t="n">
+      <c r="EX5">
         <v>148193.050966</v>
       </c>
-      <c r="EY5" t="n">
+      <c r="EY5">
         <v>187148.605386</v>
       </c>
-      <c r="EZ5" t="n">
+      <c r="EZ5">
         <v>132171.469189</v>
       </c>
-      <c r="FA5" t="n">
+      <c r="FA5">
         <v>140368.357459</v>
       </c>
-      <c r="FB5" t="n">
+      <c r="FB5">
         <v>154737.365264</v>
       </c>
-      <c r="FC5" t="n">
+      <c r="FC5">
         <v>182834.487366</v>
       </c>
-      <c r="FD5" t="n">
+      <c r="FD5">
         <v>134159.403822</v>
       </c>
-      <c r="FE5" t="n">
+      <c r="FE5">
         <v>139320.090371</v>
       </c>
-      <c r="FF5" t="n">
+      <c r="FF5">
         <v>154628.852383</v>
       </c>
-      <c r="FG5" t="n">
+      <c r="FG5">
         <v>205180.62072</v>
       </c>
-      <c r="FH5" t="n">
+      <c r="FH5">
         <v>142538.548423</v>
       </c>
-      <c r="FI5" t="n">
+      <c r="FI5">
         <v>148528.366199</v>
       </c>
-      <c r="FJ5" t="n">
+      <c r="FJ5">
         <v>181251.160189</v>
       </c>
-      <c r="FK5" t="inlineStr">
-        <is>
-          <t>..</t>
-        </is>
-      </c>
-      <c r="FL5" t="inlineStr">
-        <is>
-          <t>..</t>
-        </is>
-      </c>
-      <c r="FM5" t="inlineStr">
-        <is>
-          <t>..</t>
-        </is>
+      <c r="FK5" t="s">
+        <v>178</v>
+      </c>
+      <c r="FL5" t="s">
+        <v>178</v>
+      </c>
+      <c r="FM5" t="s">
+        <v>178</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>Construction</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+    <row r="6" spans="1:169">
+      <c r="A6" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B6">
         <v>6577</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>6577</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>7508</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>6642</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>7635</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>7461</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
         <v>8801</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6">
         <v>7932</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J6">
         <v>7893</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K6">
         <v>8991</v>
       </c>
-      <c r="L6" t="n">
+      <c r="L6">
         <v>11764</v>
       </c>
-      <c r="M6" t="n">
+      <c r="M6">
         <v>8079</v>
       </c>
-      <c r="N6" t="n">
+      <c r="N6">
         <v>11358</v>
       </c>
-      <c r="O6" t="n">
+      <c r="O6">
         <v>13770</v>
       </c>
-      <c r="P6" t="n">
+      <c r="P6">
         <v>13992</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="Q6">
         <v>10384</v>
       </c>
-      <c r="R6" t="n">
+      <c r="R6">
         <v>10581</v>
       </c>
-      <c r="S6" t="n">
+      <c r="S6">
         <v>7572</v>
       </c>
-      <c r="T6" t="n">
+      <c r="T6">
         <v>8412</v>
       </c>
-      <c r="U6" t="n">
+      <c r="U6">
         <v>6964</v>
       </c>
-      <c r="V6" t="n">
+      <c r="V6">
         <v>6089</v>
       </c>
-      <c r="W6" t="n">
+      <c r="W6">
         <v>6067</v>
       </c>
-      <c r="X6" t="n">
+      <c r="X6">
         <v>8457</v>
       </c>
-      <c r="Y6" t="n">
+      <c r="Y6">
         <v>9348</v>
       </c>
-      <c r="Z6" t="n">
+      <c r="Z6">
         <v>5912</v>
       </c>
-      <c r="AA6" t="n">
+      <c r="AA6">
         <v>5427</v>
       </c>
-      <c r="AB6" t="n">
+      <c r="AB6">
         <v>9246</v>
       </c>
-      <c r="AC6" t="n">
+      <c r="AC6">
         <v>14775</v>
       </c>
-      <c r="AD6" t="n">
+      <c r="AD6">
         <v>7656</v>
       </c>
-      <c r="AE6" t="n">
+      <c r="AE6">
         <v>9220</v>
       </c>
-      <c r="AF6" t="n">
+      <c r="AF6">
         <v>9479</v>
       </c>
-      <c r="AG6" t="n">
+      <c r="AG6">
         <v>10123</v>
       </c>
-      <c r="AH6" t="n">
+      <c r="AH6">
         <v>13992</v>
       </c>
-      <c r="AI6" t="n">
+      <c r="AI6">
         <v>9558</v>
       </c>
-      <c r="AJ6" t="n">
+      <c r="AJ6">
         <v>12525</v>
       </c>
-      <c r="AK6" t="n">
+      <c r="AK6">
         <v>12068</v>
       </c>
-      <c r="AL6" t="n">
+      <c r="AL6">
         <v>23130</v>
       </c>
-      <c r="AM6" t="n">
+      <c r="AM6">
         <v>14228</v>
       </c>
-      <c r="AN6" t="n">
+      <c r="AN6">
         <v>15389</v>
       </c>
-      <c r="AO6" t="n">
+      <c r="AO6">
         <v>14363</v>
       </c>
-      <c r="AP6" t="n">
+      <c r="AP6">
         <v>20923</v>
       </c>
-      <c r="AQ6" t="n">
+      <c r="AQ6">
         <v>11416</v>
       </c>
-      <c r="AR6" t="n">
+      <c r="AR6">
         <v>14845</v>
       </c>
-      <c r="AS6" t="n">
+      <c r="AS6">
         <v>14697</v>
       </c>
-      <c r="AT6" t="n">
+      <c r="AT6">
         <v>21004</v>
       </c>
-      <c r="AU6" t="n">
+      <c r="AU6">
         <v>15079</v>
       </c>
-      <c r="AV6" t="n">
+      <c r="AV6">
         <v>17246</v>
       </c>
-      <c r="AW6" t="n">
+      <c r="AW6">
         <v>17489</v>
       </c>
-      <c r="AX6" t="n">
+      <c r="AX6">
         <v>18154</v>
       </c>
-      <c r="AY6" t="n">
+      <c r="AY6">
         <v>17589</v>
       </c>
-      <c r="AZ6" t="n">
+      <c r="AZ6">
         <v>20677</v>
       </c>
-      <c r="BA6" t="n">
+      <c r="BA6">
         <v>20862</v>
       </c>
-      <c r="BB6" t="n">
+      <c r="BB6">
         <v>20139</v>
       </c>
-      <c r="BC6" t="n">
+      <c r="BC6">
         <v>21666</v>
       </c>
-      <c r="BD6" t="n">
+      <c r="BD6">
         <v>23301</v>
       </c>
-      <c r="BE6" t="n">
+      <c r="BE6">
         <v>23719</v>
       </c>
-      <c r="BF6" t="n">
+      <c r="BF6">
         <v>26809</v>
       </c>
-      <c r="BG6" t="n">
+      <c r="BG6">
         <v>25118</v>
       </c>
-      <c r="BH6" t="n">
+      <c r="BH6">
         <v>25485</v>
       </c>
-      <c r="BI6" t="n">
+      <c r="BI6">
         <v>26680</v>
       </c>
-      <c r="BJ6" t="n">
+      <c r="BJ6">
         <v>29356</v>
       </c>
-      <c r="BK6" t="n">
+      <c r="BK6">
         <v>29054</v>
       </c>
-      <c r="BL6" t="n">
+      <c r="BL6">
         <v>30226</v>
       </c>
-      <c r="BM6" t="n">
+      <c r="BM6">
         <v>32610</v>
       </c>
-      <c r="BN6" t="n">
+      <c r="BN6">
         <v>37361</v>
       </c>
-      <c r="BO6" t="n">
+      <c r="BO6">
         <v>37486</v>
       </c>
-      <c r="BP6" t="n">
+      <c r="BP6">
         <v>40347</v>
       </c>
-      <c r="BQ6" t="n">
+      <c r="BQ6">
         <v>40922</v>
       </c>
-      <c r="BR6" t="n">
+      <c r="BR6">
         <v>50929.4415599248</v>
       </c>
-      <c r="BS6" t="n">
+      <c r="BS6">
         <v>47200.9522750547</v>
       </c>
-      <c r="BT6" t="n">
+      <c r="BT6">
         <v>44689.3532330525</v>
       </c>
-      <c r="BU6" t="n">
+      <c r="BU6">
         <v>44943.4970660002</v>
       </c>
-      <c r="BV6" t="n">
+      <c r="BV6">
         <v>42098.0828661255</v>
       </c>
-      <c r="BW6" t="n">
+      <c r="BW6">
         <v>43818.9125760709</v>
       </c>
-      <c r="BX6" t="n">
+      <c r="BX6">
         <v>44004.385224315</v>
       </c>
-      <c r="BY6" t="n">
+      <c r="BY6">
         <v>42849.6169846775</v>
       </c>
-      <c r="BZ6" t="n">
+      <c r="BZ6">
         <v>50177.463979</v>
       </c>
-      <c r="CA6" t="n">
+      <c r="CA6">
         <v>48096.021168</v>
       </c>
-      <c r="CB6" t="n">
+      <c r="CB6">
         <v>51337.038846</v>
       </c>
-      <c r="CC6" t="n">
+      <c r="CC6">
         <v>51483.147171</v>
       </c>
-      <c r="CD6" t="n">
+      <c r="CD6">
         <v>48441.401515</v>
       </c>
-      <c r="CE6" t="n">
+      <c r="CE6">
         <v>51494.0043</v>
       </c>
-      <c r="CF6" t="n">
+      <c r="CF6">
         <v>50829.314908</v>
       </c>
-      <c r="CG6" t="n">
+      <c r="CG6">
         <v>52237.274799</v>
       </c>
-      <c r="CH6" t="n">
+      <c r="CH6">
         <v>48177.2404</v>
       </c>
-      <c r="CI6" t="n">
+      <c r="CI6">
         <v>60399.733137</v>
       </c>
-      <c r="CJ6" t="n">
+      <c r="CJ6">
         <v>50746.078264</v>
       </c>
-      <c r="CK6" t="n">
+      <c r="CK6">
         <v>53713.637715</v>
       </c>
-      <c r="CL6" t="n">
+      <c r="CL6">
         <v>53836.632811</v>
       </c>
-      <c r="CM6" t="n">
+      <c r="CM6">
         <v>58078.020675</v>
       </c>
-      <c r="CN6" t="n">
+      <c r="CN6">
         <v>58846.35609</v>
       </c>
-      <c r="CO6" t="n">
+      <c r="CO6">
         <v>59462.093084</v>
       </c>
-      <c r="CP6" t="n">
+      <c r="CP6">
         <v>56727.146477</v>
       </c>
-      <c r="CQ6" t="n">
+      <c r="CQ6">
         <v>70974.087296</v>
       </c>
-      <c r="CR6" t="n">
+      <c r="CR6">
         <v>63325.590743</v>
       </c>
-      <c r="CS6" t="n">
+      <c r="CS6">
         <v>69326.908001</v>
       </c>
-      <c r="CT6" t="n">
+      <c r="CT6">
         <v>59203.773517</v>
       </c>
-      <c r="CU6" t="n">
+      <c r="CU6">
         <v>81150.71872600001</v>
       </c>
-      <c r="CV6" t="n">
+      <c r="CV6">
         <v>64495.197764</v>
       </c>
-      <c r="CW6" t="n">
+      <c r="CW6">
         <v>67854.250319</v>
       </c>
-      <c r="CX6" t="n">
+      <c r="CX6">
         <v>66629.591017</v>
       </c>
-      <c r="CY6" t="n">
+      <c r="CY6">
         <v>93374.30889</v>
       </c>
-      <c r="CZ6" t="n">
+      <c r="CZ6">
         <v>74956.848235</v>
       </c>
-      <c r="DA6" t="n">
+      <c r="DA6">
         <v>78084.25014</v>
       </c>
-      <c r="DB6" t="n">
+      <c r="DB6">
         <v>82368.35975</v>
       </c>
-      <c r="DC6" t="n">
+      <c r="DC6">
         <v>109603.464503</v>
       </c>
-      <c r="DD6" t="n">
+      <c r="DD6">
         <v>79928.671524</v>
       </c>
-      <c r="DE6" t="n">
+      <c r="DE6">
         <v>83617.528603</v>
       </c>
-      <c r="DF6" t="n">
+      <c r="DF6">
         <v>78181.539147</v>
       </c>
-      <c r="DG6" t="n">
+      <c r="DG6">
         <v>107965.949826</v>
       </c>
-      <c r="DH6" t="n">
+      <c r="DH6">
         <v>105717.897693</v>
       </c>
-      <c r="DI6" t="n">
+      <c r="DI6">
         <v>107361.322663</v>
       </c>
-      <c r="DJ6" t="n">
+      <c r="DJ6">
         <v>94451.246337</v>
       </c>
-      <c r="DK6" t="n">
+      <c r="DK6">
         <v>131070.547198</v>
       </c>
-      <c r="DL6" t="n">
+      <c r="DL6">
         <v>103620.424855</v>
       </c>
-      <c r="DM6" t="n">
+      <c r="DM6">
         <v>105310.662397</v>
       </c>
-      <c r="DN6" t="n">
+      <c r="DN6">
         <v>107840.581027</v>
       </c>
-      <c r="DO6" t="n">
+      <c r="DO6">
         <v>171625.483303</v>
       </c>
-      <c r="DP6" t="n">
+      <c r="DP6">
         <v>123085.859039</v>
       </c>
-      <c r="DQ6" t="n">
+      <c r="DQ6">
         <v>115369.793292</v>
       </c>
-      <c r="DR6" t="n">
+      <c r="DR6">
         <v>114252.616389</v>
       </c>
-      <c r="DS6" t="n">
+      <c r="DS6">
         <v>133495.616963</v>
       </c>
-      <c r="DT6" t="n">
+      <c r="DT6">
         <v>116439.496061</v>
       </c>
-      <c r="DU6" t="n">
+      <c r="DU6">
         <v>126363.193124</v>
       </c>
-      <c r="DV6" t="n">
+      <c r="DV6">
         <v>120523.712722</v>
       </c>
-      <c r="DW6" t="n">
+      <c r="DW6">
         <v>155451.763211</v>
       </c>
-      <c r="DX6" t="n">
+      <c r="DX6">
         <v>148517.25019</v>
       </c>
-      <c r="DY6" t="n">
+      <c r="DY6">
         <v>177897.110174</v>
       </c>
-      <c r="DZ6" t="n">
+      <c r="DZ6">
         <v>174847.531404</v>
       </c>
-      <c r="EA6" t="n">
+      <c r="EA6">
         <v>200984.20194</v>
       </c>
-      <c r="EB6" t="n">
+      <c r="EB6">
         <v>162874.941716</v>
       </c>
-      <c r="EC6" t="n">
+      <c r="EC6">
         <v>179602.854031</v>
       </c>
-      <c r="ED6" t="n">
+      <c r="ED6">
         <v>178454.205372</v>
       </c>
-      <c r="EE6" t="n">
+      <c r="EE6">
         <v>221435.061317</v>
       </c>
-      <c r="EF6" t="n">
+      <c r="EF6">
         <v>193431.505211</v>
       </c>
-      <c r="EG6" t="n">
+      <c r="EG6">
         <v>219802.176471</v>
       </c>
-      <c r="EH6" t="n">
+      <c r="EH6">
         <v>189968.07643</v>
       </c>
-      <c r="EI6" t="n">
+      <c r="EI6">
         <v>263714.657293</v>
       </c>
-      <c r="EJ6" t="n">
+      <c r="EJ6">
         <v>212502.637561</v>
       </c>
-      <c r="EK6" t="n">
+      <c r="EK6">
         <v>242565.428975</v>
       </c>
-      <c r="EL6" t="n">
+      <c r="EL6">
         <v>212973.696321</v>
       </c>
-      <c r="EM6" t="n">
+      <c r="EM6">
         <v>295933.784822</v>
       </c>
-      <c r="EN6" t="n">
+      <c r="EN6">
         <v>248238.752305</v>
       </c>
-      <c r="EO6" t="n">
+      <c r="EO6">
         <v>269235.608221</v>
       </c>
-      <c r="EP6" t="n">
+      <c r="EP6">
         <v>232252.40236</v>
       </c>
-      <c r="EQ6" t="n">
+      <c r="EQ6">
         <v>313471.664174</v>
       </c>
-      <c r="ER6" t="n">
+      <c r="ER6">
         <v>268639.616492</v>
       </c>
-      <c r="ES6" t="n">
+      <c r="ES6">
         <v>291790.71408</v>
       </c>
-      <c r="ET6" t="n">
+      <c r="ET6">
         <v>274868.633006</v>
       </c>
-      <c r="EU6" t="n">
+      <c r="EU6">
         <v>383668.174218</v>
       </c>
-      <c r="EV6" t="n">
+      <c r="EV6">
         <v>340129.153252</v>
       </c>
-      <c r="EW6" t="n">
+      <c r="EW6">
         <v>375175.457312</v>
       </c>
-      <c r="EX6" t="n">
+      <c r="EX6">
         <v>301929.448769</v>
       </c>
-      <c r="EY6" t="n">
+      <c r="EY6">
         <v>402555.553632</v>
       </c>
-      <c r="EZ6" t="n">
+      <c r="EZ6">
         <v>403901.2538</v>
       </c>
-      <c r="FA6" t="n">
+      <c r="FA6">
         <v>427341.144927</v>
       </c>
-      <c r="FB6" t="n">
+      <c r="FB6">
         <v>306719.555372</v>
       </c>
-      <c r="FC6" t="n">
+      <c r="FC6">
         <v>308552.586886</v>
       </c>
-      <c r="FD6" t="n">
+      <c r="FD6">
         <v>241903.953843</v>
       </c>
-      <c r="FE6" t="n">
+      <c r="FE6">
         <v>323023.337997</v>
       </c>
-      <c r="FF6" t="n">
+      <c r="FF6">
         <v>235371.216438</v>
       </c>
-      <c r="FG6" t="n">
+      <c r="FG6">
         <v>408131.253818</v>
       </c>
-      <c r="FH6" t="n">
+      <c r="FH6">
         <v>304180.688941</v>
       </c>
-      <c r="FI6" t="n">
+      <c r="FI6">
         <v>399763.104531</v>
       </c>
-      <c r="FJ6" t="n">
+      <c r="FJ6">
         <v>288048.195154</v>
       </c>
-      <c r="FK6" t="inlineStr">
-        <is>
-          <t>..</t>
-        </is>
-      </c>
-      <c r="FL6" t="inlineStr">
-        <is>
-          <t>..</t>
-        </is>
-      </c>
-      <c r="FM6" t="inlineStr">
-        <is>
-          <t>..</t>
-        </is>
+      <c r="FK6" t="s">
+        <v>178</v>
+      </c>
+      <c r="FL6" t="s">
+        <v>178</v>
+      </c>
+      <c r="FM6" t="s">
+        <v>178</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>Services</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
+    <row r="7" spans="1:169">
+      <c r="A7" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B7">
         <v>26727.3315466882</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>27950.3435247518</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>28039.4279572721</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>29510.618581288</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>31392.7790828373</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>32222.3629640888</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7">
         <v>33507.029175707</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7">
         <v>35794.204277367</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J7">
         <v>36116.2394084178</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K7">
         <v>37710.9053993518</v>
       </c>
-      <c r="L7" t="n">
+      <c r="L7">
         <v>38831.0514609725</v>
       </c>
-      <c r="M7" t="n">
+      <c r="M7">
         <v>44189.8616112579</v>
       </c>
-      <c r="N7" t="n">
+      <c r="N7">
         <v>46166.123683265</v>
       </c>
-      <c r="O7" t="n">
+      <c r="O7">
         <v>51774.0914206</v>
       </c>
-      <c r="P7" t="n">
+      <c r="P7">
         <v>55447.5181222469</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="Q7">
         <v>64331.9268438883</v>
       </c>
-      <c r="R7" t="n">
+      <c r="R7">
         <v>60380.1352701514</v>
       </c>
-      <c r="S7" t="n">
+      <c r="S7">
         <v>63987.2713816953</v>
       </c>
-      <c r="T7" t="n">
+      <c r="T7">
         <v>61363.0059088587</v>
       </c>
-      <c r="U7" t="n">
+      <c r="U7">
         <v>71678.7276192948</v>
       </c>
-      <c r="V7" t="n">
+      <c r="V7">
         <v>63802.5608192798</v>
       </c>
-      <c r="W7" t="n">
+      <c r="W7">
         <v>69174.9688549328</v>
       </c>
-      <c r="X7" t="n">
+      <c r="X7">
         <v>68974.1421581803</v>
       </c>
-      <c r="Y7" t="n">
+      <c r="Y7">
         <v>79801.3878776076</v>
       </c>
-      <c r="Z7" t="n">
+      <c r="Z7">
         <v>71060.8693970374</v>
       </c>
-      <c r="AA7" t="n">
+      <c r="AA7">
         <v>77341.7015965896</v>
       </c>
-      <c r="AB7" t="n">
+      <c r="AB7">
         <v>77538.53655256949</v>
       </c>
-      <c r="AC7" t="n">
+      <c r="AC7">
         <v>90811.2498738037</v>
       </c>
-      <c r="AD7" t="n">
+      <c r="AD7">
         <v>83068.41774998209</v>
       </c>
-      <c r="AE7" t="n">
+      <c r="AE7">
         <v>91359.4214724366</v>
       </c>
-      <c r="AF7" t="n">
+      <c r="AF7">
         <v>91451.65149420009</v>
       </c>
-      <c r="AG7" t="n">
+      <c r="AG7">
         <v>107180.910613382</v>
       </c>
-      <c r="AH7" t="n">
+      <c r="AH7">
         <v>95775.74458650401</v>
       </c>
-      <c r="AI7" t="n">
+      <c r="AI7">
         <v>105347.112189193</v>
       </c>
-      <c r="AJ7" t="n">
+      <c r="AJ7">
         <v>107913.630417089</v>
       </c>
-      <c r="AK7" t="n">
+      <c r="AK7">
         <v>128567.995007215</v>
       </c>
-      <c r="AL7" t="n">
+      <c r="AL7">
         <v>116119.547122836</v>
       </c>
-      <c r="AM7" t="n">
+      <c r="AM7">
         <v>125982.66058482</v>
       </c>
-      <c r="AN7" t="n">
+      <c r="AN7">
         <v>128035.036379241</v>
       </c>
-      <c r="AO7" t="n">
+      <c r="AO7">
         <v>153818.751103103</v>
       </c>
-      <c r="AP7" t="n">
+      <c r="AP7">
         <v>141386.789344009</v>
       </c>
-      <c r="AQ7" t="n">
+      <c r="AQ7">
         <v>152483.052693386</v>
       </c>
-      <c r="AR7" t="n">
+      <c r="AR7">
         <v>153475.655290605</v>
       </c>
-      <c r="AS7" t="n">
+      <c r="AS7">
         <v>178760.571642</v>
       </c>
-      <c r="AT7" t="n">
+      <c r="AT7">
         <v>156430.00286051</v>
       </c>
-      <c r="AU7" t="n">
+      <c r="AU7">
         <v>167235.217299156</v>
       </c>
-      <c r="AV7" t="n">
+      <c r="AV7">
         <v>166359.954457794</v>
       </c>
-      <c r="AW7" t="n">
+      <c r="AW7">
         <v>194949.390142541</v>
       </c>
-      <c r="AX7" t="n">
+      <c r="AX7">
         <v>172065.207549159</v>
       </c>
-      <c r="AY7" t="n">
+      <c r="AY7">
         <v>182208.693720596</v>
       </c>
-      <c r="AZ7" t="n">
+      <c r="AZ7">
         <v>184289.725230242</v>
       </c>
-      <c r="BA7" t="n">
+      <c r="BA7">
         <v>215047.128640004</v>
       </c>
-      <c r="BB7" t="n">
+      <c r="BB7">
         <v>196041.309685617</v>
       </c>
-      <c r="BC7" t="n">
+      <c r="BC7">
         <v>209909.460600814</v>
       </c>
-      <c r="BD7" t="n">
+      <c r="BD7">
         <v>211453.026601205</v>
       </c>
-      <c r="BE7" t="n">
+      <c r="BE7">
         <v>244104.667562364</v>
       </c>
-      <c r="BF7" t="n">
+      <c r="BF7">
         <v>221559.412919098</v>
       </c>
-      <c r="BG7" t="n">
+      <c r="BG7">
         <v>238831.160752308</v>
       </c>
-      <c r="BH7" t="n">
+      <c r="BH7">
         <v>243167.562417584</v>
       </c>
-      <c r="BI7" t="n">
+      <c r="BI7">
         <v>284834.09898101</v>
       </c>
-      <c r="BJ7" t="n">
+      <c r="BJ7">
         <v>258828.312693065</v>
       </c>
-      <c r="BK7" t="n">
+      <c r="BK7">
         <v>279650.780301008</v>
       </c>
-      <c r="BL7" t="n">
+      <c r="BL7">
         <v>282898.180751931</v>
       </c>
-      <c r="BM7" t="n">
+      <c r="BM7">
         <v>328020.273093997</v>
       </c>
-      <c r="BN7" t="n">
+      <c r="BN7">
         <v>300750.876942357</v>
       </c>
-      <c r="BO7" t="n">
+      <c r="BO7">
         <v>324468.136167283</v>
       </c>
-      <c r="BP7" t="n">
+      <c r="BP7">
         <v>324455.315109304</v>
       </c>
-      <c r="BQ7" t="n">
+      <c r="BQ7">
         <v>378501.376991058</v>
       </c>
-      <c r="BR7" t="n">
+      <c r="BR7">
         <v>342396.100235961</v>
       </c>
-      <c r="BS7" t="n">
+      <c r="BS7">
         <v>377394.291611633</v>
       </c>
-      <c r="BT7" t="n">
+      <c r="BT7">
         <v>376673.77179339</v>
       </c>
-      <c r="BU7" t="n">
+      <c r="BU7">
         <v>437922.833899016</v>
       </c>
-      <c r="BV7" t="n">
+      <c r="BV7">
         <v>384953.756194613</v>
       </c>
-      <c r="BW7" t="n">
+      <c r="BW7">
         <v>423844.935688863</v>
       </c>
-      <c r="BX7" t="n">
+      <c r="BX7">
         <v>420529.632054162</v>
       </c>
-      <c r="BY7" t="n">
+      <c r="BY7">
         <v>486475.359052363</v>
       </c>
-      <c r="BZ7" t="n">
+      <c r="BZ7">
         <v>424573.425687</v>
       </c>
-      <c r="CA7" t="n">
+      <c r="CA7">
         <v>470516.360363</v>
       </c>
-      <c r="CB7" t="n">
+      <c r="CB7">
         <v>464977.802333</v>
       </c>
-      <c r="CC7" t="n">
+      <c r="CC7">
         <v>528777.973625</v>
       </c>
-      <c r="CD7" t="n">
+      <c r="CD7">
         <v>471819.675178</v>
       </c>
-      <c r="CE7" t="n">
+      <c r="CE7">
         <v>519858.034012</v>
       </c>
-      <c r="CF7" t="n">
+      <c r="CF7">
         <v>514301.600199</v>
       </c>
-      <c r="CG7" t="n">
+      <c r="CG7">
         <v>578642.255569</v>
       </c>
-      <c r="CH7" t="n">
+      <c r="CH7">
         <v>513243.425565</v>
       </c>
-      <c r="CI7" t="n">
+      <c r="CI7">
         <v>561235.418017</v>
       </c>
-      <c r="CJ7" t="n">
+      <c r="CJ7">
         <v>553169.851795</v>
       </c>
-      <c r="CK7" t="n">
+      <c r="CK7">
         <v>624555.670821</v>
       </c>
-      <c r="CL7" t="n">
+      <c r="CL7">
         <v>552452.58372</v>
       </c>
-      <c r="CM7" t="n">
+      <c r="CM7">
         <v>612671.7328239999</v>
       </c>
-      <c r="CN7" t="n">
+      <c r="CN7">
         <v>606554.5233680001</v>
       </c>
-      <c r="CO7" t="n">
+      <c r="CO7">
         <v>696135.698059</v>
       </c>
-      <c r="CP7" t="n">
+      <c r="CP7">
         <v>623255.776811</v>
       </c>
-      <c r="CQ7" t="n">
+      <c r="CQ7">
         <v>701307.204843</v>
       </c>
-      <c r="CR7" t="n">
+      <c r="CR7">
         <v>690528.1475889999</v>
       </c>
-      <c r="CS7" t="n">
+      <c r="CS7">
         <v>774469.624055</v>
       </c>
-      <c r="CT7" t="n">
+      <c r="CT7">
         <v>704079.660226</v>
       </c>
-      <c r="CU7" t="n">
+      <c r="CU7">
         <v>786345.182531</v>
       </c>
-      <c r="CV7" t="n">
+      <c r="CV7">
         <v>767878.944767</v>
       </c>
-      <c r="CW7" t="n">
+      <c r="CW7">
         <v>858256.4138259999</v>
       </c>
-      <c r="CX7" t="n">
+      <c r="CX7">
         <v>781234.623943</v>
       </c>
-      <c r="CY7" t="n">
+      <c r="CY7">
         <v>888399.865029</v>
       </c>
-      <c r="CZ7" t="n">
+      <c r="CZ7">
         <v>845284.469258</v>
       </c>
-      <c r="DA7" t="n">
+      <c r="DA7">
         <v>968341.690789</v>
       </c>
-      <c r="DB7" t="n">
+      <c r="DB7">
         <v>867645.245114</v>
       </c>
-      <c r="DC7" t="n">
+      <c r="DC7">
         <v>964352.252324</v>
       </c>
-      <c r="DD7" t="n">
+      <c r="DD7">
         <v>938042.249501</v>
       </c>
-      <c r="DE7" t="n">
+      <c r="DE7">
         <v>1073292.616808</v>
       </c>
-      <c r="DF7" t="n">
+      <c r="DF7">
         <v>948186.466947</v>
       </c>
-      <c r="DG7" t="n">
+      <c r="DG7">
         <v>1080586.075765</v>
       </c>
-      <c r="DH7" t="n">
+      <c r="DH7">
         <v>1052754.181433</v>
       </c>
-      <c r="DI7" t="n">
+      <c r="DI7">
         <v>1162429.305192</v>
       </c>
-      <c r="DJ7" t="n">
+      <c r="DJ7">
         <v>1010348.881469</v>
       </c>
-      <c r="DK7" t="n">
+      <c r="DK7">
         <v>1145331.818052</v>
       </c>
-      <c r="DL7" t="n">
+      <c r="DL7">
         <v>1127203.433717</v>
       </c>
-      <c r="DM7" t="n">
+      <c r="DM7">
         <v>1242677.960539</v>
       </c>
-      <c r="DN7" t="n">
+      <c r="DN7">
         <v>1132730.696623</v>
       </c>
-      <c r="DO7" t="n">
+      <c r="DO7">
         <v>1289269.589311</v>
       </c>
-      <c r="DP7" t="n">
+      <c r="DP7">
         <v>1268437.254629</v>
       </c>
-      <c r="DQ7" t="n">
+      <c r="DQ7">
         <v>1376954.771215</v>
       </c>
-      <c r="DR7" t="n">
+      <c r="DR7">
         <v>1219315.106971</v>
       </c>
-      <c r="DS7" t="n">
+      <c r="DS7">
         <v>1414584.715866</v>
       </c>
-      <c r="DT7" t="n">
+      <c r="DT7">
         <v>1386825.9356</v>
       </c>
-      <c r="DU7" t="n">
+      <c r="DU7">
         <v>1514767.743125</v>
       </c>
-      <c r="DV7" t="n">
+      <c r="DV7">
         <v>1353837.012425</v>
       </c>
-      <c r="DW7" t="n">
+      <c r="DW7">
         <v>1564031.75942</v>
       </c>
-      <c r="DX7" t="n">
+      <c r="DX7">
         <v>1549184.71252</v>
       </c>
-      <c r="DY7" t="n">
+      <c r="DY7">
         <v>1672093.122861</v>
       </c>
-      <c r="DZ7" t="n">
+      <c r="DZ7">
         <v>1501523.124924</v>
       </c>
-      <c r="EA7" t="n">
+      <c r="EA7">
         <v>1745127.503698</v>
       </c>
-      <c r="EB7" t="n">
+      <c r="EB7">
         <v>1739327.61115</v>
       </c>
-      <c r="EC7" t="n">
+      <c r="EC7">
         <v>1852868.673801</v>
       </c>
-      <c r="ED7" t="n">
+      <c r="ED7">
         <v>1666515.724841</v>
       </c>
-      <c r="EE7" t="n">
+      <c r="EE7">
         <v>1910870.693683</v>
       </c>
-      <c r="EF7" t="n">
+      <c r="EF7">
         <v>1891099.32648</v>
       </c>
-      <c r="EG7" t="n">
+      <c r="EG7">
         <v>2017259.923069</v>
       </c>
-      <c r="EH7" t="n">
+      <c r="EH7">
         <v>1808019.541077</v>
       </c>
-      <c r="EI7" t="n">
+      <c r="EI7">
         <v>2082607.823781</v>
       </c>
-      <c r="EJ7" t="n">
+      <c r="EJ7">
         <v>2060709.678517</v>
       </c>
-      <c r="EK7" t="n">
+      <c r="EK7">
         <v>2209000.010152</v>
       </c>
-      <c r="EL7" t="n">
+      <c r="EL7">
         <v>1996278.512551</v>
       </c>
-      <c r="EM7" t="n">
+      <c r="EM7">
         <v>2310053.844372</v>
       </c>
-      <c r="EN7" t="n">
+      <c r="EN7">
         <v>2258776.175256</v>
       </c>
-      <c r="EO7" t="n">
+      <c r="EO7">
         <v>2440013.895427</v>
       </c>
-      <c r="EP7" t="n">
+      <c r="EP7">
         <v>2188932.658764</v>
       </c>
-      <c r="EQ7" t="n">
+      <c r="EQ7">
         <v>2527704.850672</v>
       </c>
-      <c r="ER7" t="n">
+      <c r="ER7">
         <v>2496171.010829</v>
       </c>
-      <c r="ES7" t="n">
+      <c r="ES7">
         <v>2669938.514988</v>
       </c>
-      <c r="ET7" t="n">
+      <c r="ET7">
         <v>2395874.727265</v>
       </c>
-      <c r="EU7" t="n">
+      <c r="EU7">
         <v>2781345.716659</v>
       </c>
-      <c r="EV7" t="n">
+      <c r="EV7">
         <v>2769870.27682</v>
       </c>
-      <c r="EW7" t="n">
+      <c r="EW7">
         <v>2972957.751523</v>
       </c>
-      <c r="EX7" t="n">
+      <c r="EX7">
         <v>2633389.61528</v>
       </c>
-      <c r="EY7" t="n">
+      <c r="EY7">
         <v>3028680.046431</v>
       </c>
-      <c r="EZ7" t="n">
+      <c r="EZ7">
         <v>2992038.105108</v>
       </c>
-      <c r="FA7" t="n">
+      <c r="FA7">
         <v>3222935.193299</v>
       </c>
-      <c r="FB7" t="n">
+      <c r="FB7">
         <v>2688863.562478</v>
       </c>
-      <c r="FC7" t="n">
+      <c r="FC7">
         <v>2568227.768339</v>
       </c>
-      <c r="FD7" t="n">
+      <c r="FD7">
         <v>2741745.548359</v>
       </c>
-      <c r="FE7" t="n">
+      <c r="FE7">
         <v>3026080.988506</v>
       </c>
-      <c r="FF7" t="n">
+      <c r="FF7">
         <v>2643548.273616</v>
       </c>
-      <c r="FG7" t="n">
+      <c r="FG7">
         <v>2885261.153362</v>
       </c>
-      <c r="FH7" t="n">
+      <c r="FH7">
         <v>2998886.916416</v>
       </c>
-      <c r="FI7" t="n">
+      <c r="FI7">
         <v>3321516.5359</v>
       </c>
-      <c r="FJ7" t="n">
+      <c r="FJ7">
         <v>2948249.393729</v>
       </c>
-      <c r="FK7" t="inlineStr">
-        <is>
-          <t>..</t>
-        </is>
-      </c>
-      <c r="FL7" t="inlineStr">
-        <is>
-          <t>..</t>
-        </is>
-      </c>
-      <c r="FM7" t="inlineStr">
-        <is>
-          <t>..</t>
-        </is>
+      <c r="FK7" t="s">
+        <v>178</v>
+      </c>
+      <c r="FL7" t="s">
+        <v>178</v>
+      </c>
+      <c r="FM7" t="s">
+        <v>178</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Wholesale and retail trade; repair of motor vehicles and motorcycles</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="n">
+    <row r="8" spans="1:169">
+      <c r="A8" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D8">
         <v>7948</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>8269</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>8428</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>8654</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8">
         <v>9654</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I8">
         <v>9772</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J8">
         <v>9957</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K8">
         <v>10300</v>
       </c>
-      <c r="L8" t="n">
+      <c r="L8">
         <v>10484</v>
       </c>
-      <c r="M8" t="n">
+      <c r="M8">
         <v>10974</v>
       </c>
-      <c r="N8" t="n">
+      <c r="N8">
         <v>11676</v>
       </c>
-      <c r="O8" t="n">
+      <c r="O8">
         <v>13609</v>
       </c>
-      <c r="P8" t="n">
+      <c r="P8">
         <v>13792</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="Q8">
         <v>16837</v>
       </c>
-      <c r="R8" t="n">
+      <c r="R8">
         <v>18122</v>
       </c>
-      <c r="S8" t="n">
+      <c r="S8">
         <v>22071</v>
       </c>
-      <c r="T8" t="n">
+      <c r="T8">
         <v>18720</v>
       </c>
-      <c r="U8" t="n">
+      <c r="U8">
         <v>21012</v>
       </c>
-      <c r="V8" t="n">
+      <c r="V8">
         <v>19008</v>
       </c>
-      <c r="W8" t="n">
+      <c r="W8">
         <v>24095</v>
       </c>
-      <c r="X8" t="n">
+      <c r="X8">
         <v>19676</v>
       </c>
-      <c r="Y8" t="n">
+      <c r="Y8">
         <v>22253</v>
       </c>
-      <c r="Z8" t="n">
+      <c r="Z8">
         <v>20388</v>
       </c>
-      <c r="AA8" t="n">
+      <c r="AA8">
         <v>25508</v>
       </c>
-      <c r="AB8" t="n">
+      <c r="AB8">
         <v>20572</v>
       </c>
-      <c r="AC8" t="n">
+      <c r="AC8">
         <v>23605</v>
       </c>
-      <c r="AD8" t="n">
+      <c r="AD8">
         <v>23632</v>
       </c>
-      <c r="AE8" t="n">
+      <c r="AE8">
         <v>28709</v>
       </c>
-      <c r="AF8" t="n">
+      <c r="AF8">
         <v>24401</v>
       </c>
-      <c r="AG8" t="n">
+      <c r="AG8">
         <v>27883</v>
       </c>
-      <c r="AH8" t="n">
+      <c r="AH8">
         <v>27797</v>
       </c>
-      <c r="AI8" t="n">
+      <c r="AI8">
         <v>34004</v>
       </c>
-      <c r="AJ8" t="n">
+      <c r="AJ8">
         <v>27485</v>
       </c>
-      <c r="AK8" t="n">
+      <c r="AK8">
         <v>31896</v>
       </c>
-      <c r="AL8" t="n">
+      <c r="AL8">
         <v>32968</v>
       </c>
-      <c r="AM8" t="n">
+      <c r="AM8">
         <v>40875</v>
       </c>
-      <c r="AN8" t="n">
+      <c r="AN8">
         <v>31609</v>
       </c>
-      <c r="AO8" t="n">
+      <c r="AO8">
         <v>36006</v>
       </c>
-      <c r="AP8" t="n">
+      <c r="AP8">
         <v>38306</v>
       </c>
-      <c r="AQ8" t="n">
+      <c r="AQ8">
         <v>48671</v>
       </c>
-      <c r="AR8" t="n">
+      <c r="AR8">
         <v>38544</v>
       </c>
-      <c r="AS8" t="n">
+      <c r="AS8">
         <v>42893</v>
       </c>
-      <c r="AT8" t="n">
+      <c r="AT8">
         <v>44607</v>
       </c>
-      <c r="AU8" t="n">
+      <c r="AU8">
         <v>54442</v>
       </c>
-      <c r="AV8" t="n">
+      <c r="AV8">
         <v>41673</v>
       </c>
-      <c r="AW8" t="n">
+      <c r="AW8">
         <v>46120</v>
       </c>
-      <c r="AX8" t="n">
+      <c r="AX8">
         <v>47370</v>
       </c>
-      <c r="AY8" t="n">
+      <c r="AY8">
         <v>58410</v>
       </c>
-      <c r="AZ8" t="n">
+      <c r="AZ8">
         <v>44244</v>
       </c>
-      <c r="BA8" t="n">
+      <c r="BA8">
         <v>49117</v>
       </c>
-      <c r="BB8" t="n">
+      <c r="BB8">
         <v>51238</v>
       </c>
-      <c r="BC8" t="n">
+      <c r="BC8">
         <v>62964</v>
       </c>
-      <c r="BD8" t="n">
+      <c r="BD8">
         <v>49288</v>
       </c>
-      <c r="BE8" t="n">
+      <c r="BE8">
         <v>55520</v>
       </c>
-      <c r="BF8" t="n">
+      <c r="BF8">
         <v>57168</v>
       </c>
-      <c r="BG8" t="n">
+      <c r="BG8">
         <v>68823</v>
       </c>
-      <c r="BH8" t="n">
+      <c r="BH8">
         <v>54493</v>
       </c>
-      <c r="BI8" t="n">
+      <c r="BI8">
         <v>61799</v>
       </c>
-      <c r="BJ8" t="n">
+      <c r="BJ8">
         <v>64874</v>
       </c>
-      <c r="BK8" t="n">
+      <c r="BK8">
         <v>80696</v>
       </c>
-      <c r="BL8" t="n">
+      <c r="BL8">
         <v>63048</v>
       </c>
-      <c r="BM8" t="n">
+      <c r="BM8">
         <v>70461</v>
       </c>
-      <c r="BN8" t="n">
+      <c r="BN8">
         <v>68822</v>
       </c>
-      <c r="BO8" t="n">
+      <c r="BO8">
         <v>76091</v>
       </c>
-      <c r="BP8" t="n">
+      <c r="BP8">
         <v>78177</v>
       </c>
-      <c r="BQ8" t="n">
+      <c r="BQ8">
         <v>94080</v>
       </c>
-      <c r="BR8" t="n">
+      <c r="BR8">
         <v>89557.3983138997</v>
       </c>
-      <c r="BS8" t="n">
+      <c r="BS8">
         <v>101177.063477744</v>
       </c>
-      <c r="BT8" t="n">
+      <c r="BT8">
         <v>106479.126798357</v>
       </c>
-      <c r="BU8" t="n">
+      <c r="BU8">
         <v>135390.711417872</v>
       </c>
-      <c r="BV8" t="n">
+      <c r="BV8">
         <v>107362.050658131</v>
       </c>
-      <c r="BW8" t="n">
+      <c r="BW8">
         <v>119171.886972173</v>
       </c>
-      <c r="BX8" t="n">
+      <c r="BX8">
         <v>125498.441529401</v>
       </c>
-      <c r="BY8" t="n">
+      <c r="BY8">
         <v>153804.534546735</v>
       </c>
-      <c r="BZ8" t="n">
+      <c r="BZ8">
         <v>122725.064125</v>
       </c>
-      <c r="CA8" t="n">
+      <c r="CA8">
         <v>140519.16028</v>
       </c>
-      <c r="CB8" t="n">
+      <c r="CB8">
         <v>144407.375225</v>
       </c>
-      <c r="CC8" t="n">
+      <c r="CC8">
         <v>169084.567517</v>
       </c>
-      <c r="CD8" t="n">
+      <c r="CD8">
         <v>135926.977412</v>
       </c>
-      <c r="CE8" t="n">
+      <c r="CE8">
         <v>154007.866137</v>
       </c>
-      <c r="CF8" t="n">
+      <c r="CF8">
         <v>160021.297177</v>
       </c>
-      <c r="CG8" t="n">
+      <c r="CG8">
         <v>182107.791714</v>
       </c>
-      <c r="CH8" t="n">
+      <c r="CH8">
         <v>145783.3096</v>
       </c>
-      <c r="CI8" t="n">
+      <c r="CI8">
         <v>165642.747992</v>
       </c>
-      <c r="CJ8" t="n">
+      <c r="CJ8">
         <v>170026.45344</v>
       </c>
-      <c r="CK8" t="n">
+      <c r="CK8">
         <v>194801.084108</v>
       </c>
-      <c r="CL8" t="n">
+      <c r="CL8">
         <v>156274.295515</v>
       </c>
-      <c r="CM8" t="n">
+      <c r="CM8">
         <v>178536.543901</v>
       </c>
-      <c r="CN8" t="n">
+      <c r="CN8">
         <v>182793.427214</v>
       </c>
-      <c r="CO8" t="n">
+      <c r="CO8">
         <v>216464.666767</v>
       </c>
-      <c r="CP8" t="n">
+      <c r="CP8">
         <v>175882.308385</v>
       </c>
-      <c r="CQ8" t="n">
+      <c r="CQ8">
         <v>200515.20185</v>
       </c>
-      <c r="CR8" t="n">
+      <c r="CR8">
         <v>207979.431116</v>
       </c>
-      <c r="CS8" t="n">
+      <c r="CS8">
         <v>244299.082112</v>
       </c>
-      <c r="CT8" t="n">
+      <c r="CT8">
         <v>198743.504243</v>
       </c>
-      <c r="CU8" t="n">
+      <c r="CU8">
         <v>227946.692853</v>
       </c>
-      <c r="CV8" t="n">
+      <c r="CV8">
         <v>234833.903654</v>
       </c>
-      <c r="CW8" t="n">
+      <c r="CW8">
         <v>277893.654622</v>
       </c>
-      <c r="CX8" t="n">
+      <c r="CX8">
         <v>224628.7497</v>
       </c>
-      <c r="CY8" t="n">
+      <c r="CY8">
         <v>258709.32225</v>
       </c>
-      <c r="CZ8" t="n">
+      <c r="CZ8">
         <v>263785.037049</v>
       </c>
-      <c r="DA8" t="n">
+      <c r="DA8">
         <v>314938.202919</v>
       </c>
-      <c r="DB8" t="n">
+      <c r="DB8">
         <v>252111.628294</v>
       </c>
-      <c r="DC8" t="n">
+      <c r="DC8">
         <v>282438.639894</v>
       </c>
-      <c r="DD8" t="n">
+      <c r="DD8">
         <v>296177.277006</v>
       </c>
-      <c r="DE8" t="n">
+      <c r="DE8">
         <v>355656.383273</v>
       </c>
-      <c r="DF8" t="n">
+      <c r="DF8">
         <v>268843.226348</v>
       </c>
-      <c r="DG8" t="n">
+      <c r="DG8">
         <v>324756.915337</v>
       </c>
-      <c r="DH8" t="n">
+      <c r="DH8">
         <v>335703.645042</v>
       </c>
-      <c r="DI8" t="n">
+      <c r="DI8">
         <v>390237.894755</v>
       </c>
-      <c r="DJ8" t="n">
+      <c r="DJ8">
         <v>276399.216838</v>
       </c>
-      <c r="DK8" t="n">
+      <c r="DK8">
         <v>331842.048399</v>
       </c>
-      <c r="DL8" t="n">
+      <c r="DL8">
         <v>344461.275251</v>
       </c>
-      <c r="DM8" t="n">
+      <c r="DM8">
         <v>413409.431534</v>
       </c>
-      <c r="DN8" t="n">
+      <c r="DN8">
         <v>327798.507446</v>
       </c>
-      <c r="DO8" t="n">
+      <c r="DO8">
         <v>380533.737583</v>
       </c>
-      <c r="DP8" t="n">
+      <c r="DP8">
         <v>405714.867694</v>
       </c>
-      <c r="DQ8" t="n">
+      <c r="DQ8">
         <v>457200.655574</v>
       </c>
-      <c r="DR8" t="n">
+      <c r="DR8">
         <v>354236.478619</v>
       </c>
-      <c r="DS8" t="n">
+      <c r="DS8">
         <v>411157.693121</v>
       </c>
-      <c r="DT8" t="n">
+      <c r="DT8">
         <v>445381.1644</v>
       </c>
-      <c r="DU8" t="n">
+      <c r="DU8">
         <v>493888.113935</v>
       </c>
-      <c r="DV8" t="n">
+      <c r="DV8">
         <v>387781.321711</v>
       </c>
-      <c r="DW8" t="n">
+      <c r="DW8">
         <v>450082.486565</v>
       </c>
-      <c r="DX8" t="n">
+      <c r="DX8">
         <v>501297.857252</v>
       </c>
-      <c r="DY8" t="n">
+      <c r="DY8">
         <v>539421.564104</v>
       </c>
-      <c r="DZ8" t="n">
+      <c r="DZ8">
         <v>423616.653058</v>
       </c>
-      <c r="EA8" t="n">
+      <c r="EA8">
         <v>501043.914018</v>
       </c>
-      <c r="EB8" t="n">
+      <c r="EB8">
         <v>556475.497831</v>
       </c>
-      <c r="EC8" t="n">
+      <c r="EC8">
         <v>596991.333813</v>
       </c>
-      <c r="ED8" t="n">
+      <c r="ED8">
         <v>467008.087301</v>
       </c>
-      <c r="EE8" t="n">
+      <c r="EE8">
         <v>550437.553355</v>
       </c>
-      <c r="EF8" t="n">
+      <c r="EF8">
         <v>605789.786539</v>
       </c>
-      <c r="EG8" t="n">
+      <c r="EG8">
         <v>629088.269341</v>
       </c>
-      <c r="EH8" t="n">
+      <c r="EH8">
         <v>499358.420785</v>
       </c>
-      <c r="EI8" t="n">
+      <c r="EI8">
         <v>592321.628927</v>
       </c>
-      <c r="EJ8" t="n">
+      <c r="EJ8">
         <v>657424.680831</v>
       </c>
-      <c r="EK8" t="n">
+      <c r="EK8">
         <v>678054.881402</v>
       </c>
-      <c r="EL8" t="n">
+      <c r="EL8">
         <v>543912.90724</v>
       </c>
-      <c r="EM8" t="n">
+      <c r="EM8">
         <v>659133.897522</v>
       </c>
-      <c r="EN8" t="n">
+      <c r="EN8">
         <v>717021.963241</v>
       </c>
-      <c r="EO8" t="n">
+      <c r="EO8">
         <v>748526.8031359999</v>
       </c>
-      <c r="EP8" t="n">
+      <c r="EP8">
         <v>598752.390925</v>
       </c>
-      <c r="EQ8" t="n">
+      <c r="EQ8">
         <v>717143.794212</v>
       </c>
-      <c r="ER8" t="n">
+      <c r="ER8">
         <v>786232.569191</v>
       </c>
-      <c r="ES8" t="n">
+      <c r="ES8">
         <v>824372.750443</v>
       </c>
-      <c r="ET8" t="n">
+      <c r="ET8">
         <v>655519.003628</v>
       </c>
-      <c r="EU8" t="n">
+      <c r="EU8">
         <v>794491.340282</v>
       </c>
-      <c r="EV8" t="n">
+      <c r="EV8">
         <v>866978.334674</v>
       </c>
-      <c r="EW8" t="n">
+      <c r="EW8">
         <v>920315.820531</v>
       </c>
-      <c r="EX8" t="n">
+      <c r="EX8">
         <v>718306.52788</v>
       </c>
-      <c r="EY8" t="n">
+      <c r="EY8">
         <v>871509.1183579999</v>
       </c>
-      <c r="EZ8" t="n">
+      <c r="EZ8">
         <v>943029.854149</v>
       </c>
-      <c r="FA8" t="n">
+      <c r="FA8">
         <v>984807.582469</v>
       </c>
-      <c r="FB8" t="n">
+      <c r="FB8">
         <v>725214.667277</v>
       </c>
-      <c r="FC8" t="n">
+      <c r="FC8">
         <v>752323.837879</v>
       </c>
-      <c r="FD8" t="n">
+      <c r="FD8">
         <v>897658.246174</v>
       </c>
-      <c r="FE8" t="n">
+      <c r="FE8">
         <v>942173.9295279999</v>
       </c>
-      <c r="FF8" t="n">
+      <c r="FF8">
         <v>704474.523365</v>
       </c>
-      <c r="FG8" t="n">
+      <c r="FG8">
         <v>806132.286947</v>
       </c>
-      <c r="FH8" t="n">
+      <c r="FH8">
         <v>966385.298282</v>
       </c>
-      <c r="FI8" t="n">
+      <c r="FI8">
         <v>1026244.370955</v>
       </c>
-      <c r="FJ8" t="n">
+      <c r="FJ8">
         <v>780687.173819</v>
       </c>
-      <c r="FK8" t="inlineStr">
-        <is>
-          <t>..</t>
-        </is>
-      </c>
-      <c r="FL8" t="inlineStr">
-        <is>
-          <t>..</t>
-        </is>
-      </c>
-      <c r="FM8" t="inlineStr">
-        <is>
-          <t>..</t>
-        </is>
+      <c r="FK8" t="s">
+        <v>178</v>
+      </c>
+      <c r="FL8" t="s">
+        <v>178</v>
+      </c>
+      <c r="FM8" t="s">
+        <v>178</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>Financial and insurance activities</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="n">
+    <row r="9" spans="1:169">
+      <c r="A9" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E9">
         <v>2377</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>2476</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>2146</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9">
         <v>2254</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I9">
         <v>2443</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J9">
         <v>2518</v>
       </c>
-      <c r="K9" t="n">
+      <c r="K9">
         <v>2825</v>
       </c>
-      <c r="L9" t="n">
+      <c r="L9">
         <v>2976</v>
       </c>
-      <c r="M9" t="n">
+      <c r="M9">
         <v>3140</v>
       </c>
-      <c r="N9" t="n">
+      <c r="N9">
         <v>3347</v>
       </c>
-      <c r="O9" t="n">
+      <c r="O9">
         <v>3419</v>
       </c>
-      <c r="P9" t="n">
+      <c r="P9">
         <v>3578</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="Q9">
         <v>4016</v>
       </c>
-      <c r="R9" t="n">
+      <c r="R9">
         <v>4158</v>
       </c>
-      <c r="S9" t="n">
+      <c r="S9">
         <v>4053</v>
       </c>
-      <c r="T9" t="n">
+      <c r="T9">
         <v>4108</v>
       </c>
-      <c r="U9" t="n">
+      <c r="U9">
         <v>3921</v>
       </c>
-      <c r="V9" t="n">
+      <c r="V9">
         <v>4104</v>
       </c>
-      <c r="W9" t="n">
+      <c r="W9">
         <v>4521</v>
       </c>
-      <c r="X9" t="n">
+      <c r="X9">
         <v>4577</v>
       </c>
-      <c r="Y9" t="n">
+      <c r="Y9">
         <v>4376</v>
       </c>
-      <c r="Z9" t="n">
+      <c r="Z9">
         <v>4539</v>
       </c>
-      <c r="AA9" t="n">
+      <c r="AA9">
         <v>4742</v>
       </c>
-      <c r="AB9" t="n">
+      <c r="AB9">
         <v>5001</v>
       </c>
-      <c r="AC9" t="n">
+      <c r="AC9">
         <v>4859</v>
       </c>
-      <c r="AD9" t="n">
+      <c r="AD9">
         <v>5186</v>
       </c>
-      <c r="AE9" t="n">
+      <c r="AE9">
         <v>5815</v>
       </c>
-      <c r="AF9" t="n">
+      <c r="AF9">
         <v>6586</v>
       </c>
-      <c r="AG9" t="n">
+      <c r="AG9">
         <v>6381</v>
       </c>
-      <c r="AH9" t="n">
+      <c r="AH9">
         <v>6593</v>
       </c>
-      <c r="AI9" t="n">
+      <c r="AI9">
         <v>6446</v>
       </c>
-      <c r="AJ9" t="n">
+      <c r="AJ9">
         <v>7705</v>
       </c>
-      <c r="AK9" t="n">
+      <c r="AK9">
         <v>7633</v>
       </c>
-      <c r="AL9" t="n">
+      <c r="AL9">
         <v>8738</v>
       </c>
-      <c r="AM9" t="n">
+      <c r="AM9">
         <v>8178</v>
       </c>
-      <c r="AN9" t="n">
+      <c r="AN9">
         <v>9785</v>
       </c>
-      <c r="AO9" t="n">
+      <c r="AO9">
         <v>9317</v>
       </c>
-      <c r="AP9" t="n">
+      <c r="AP9">
         <v>10801</v>
       </c>
-      <c r="AQ9" t="n">
+      <c r="AQ9">
         <v>10619</v>
       </c>
-      <c r="AR9" t="n">
+      <c r="AR9">
         <v>11794</v>
       </c>
-      <c r="AS9" t="n">
+      <c r="AS9">
         <v>11483</v>
       </c>
-      <c r="AT9" t="n">
+      <c r="AT9">
         <v>12338</v>
       </c>
-      <c r="AU9" t="n">
+      <c r="AU9">
         <v>11917</v>
       </c>
-      <c r="AV9" t="n">
+      <c r="AV9">
         <v>12834</v>
       </c>
-      <c r="AW9" t="n">
+      <c r="AW9">
         <v>12687</v>
       </c>
-      <c r="AX9" t="n">
+      <c r="AX9">
         <v>13404</v>
       </c>
-      <c r="AY9" t="n">
+      <c r="AY9">
         <v>13017</v>
       </c>
-      <c r="AZ9" t="n">
+      <c r="AZ9">
         <v>14058</v>
       </c>
-      <c r="BA9" t="n">
+      <c r="BA9">
         <v>13834</v>
       </c>
-      <c r="BB9" t="n">
+      <c r="BB9">
         <v>14574</v>
       </c>
-      <c r="BC9" t="n">
+      <c r="BC9">
         <v>14427</v>
       </c>
-      <c r="BD9" t="n">
+      <c r="BD9">
         <v>15722</v>
       </c>
-      <c r="BE9" t="n">
+      <c r="BE9">
         <v>15950</v>
       </c>
-      <c r="BF9" t="n">
+      <c r="BF9">
         <v>16879</v>
       </c>
-      <c r="BG9" t="n">
+      <c r="BG9">
         <v>16607</v>
       </c>
-      <c r="BH9" t="n">
+      <c r="BH9">
         <v>17932</v>
       </c>
-      <c r="BI9" t="n">
+      <c r="BI9">
         <v>17885</v>
       </c>
-      <c r="BJ9" t="n">
+      <c r="BJ9">
         <v>19310</v>
       </c>
-      <c r="BK9" t="n">
+      <c r="BK9">
         <v>19492</v>
       </c>
-      <c r="BL9" t="n">
+      <c r="BL9">
         <v>21545</v>
       </c>
-      <c r="BM9" t="n">
+      <c r="BM9">
         <v>22296</v>
       </c>
-      <c r="BN9" t="n">
+      <c r="BN9">
         <v>27018</v>
       </c>
-      <c r="BO9" t="n">
+      <c r="BO9">
         <v>28276</v>
       </c>
-      <c r="BP9" t="n">
+      <c r="BP9">
         <v>28280</v>
       </c>
-      <c r="BQ9" t="n">
+      <c r="BQ9">
         <v>30885</v>
       </c>
-      <c r="BR9" t="n">
+      <c r="BR9">
         <v>37482.904626</v>
       </c>
-      <c r="BS9" t="n">
+      <c r="BS9">
         <v>39633.314522</v>
       </c>
-      <c r="BT9" t="n">
+      <c r="BT9">
         <v>40426.233958</v>
       </c>
-      <c r="BU9" t="n">
+      <c r="BU9">
         <v>43197.246894</v>
       </c>
-      <c r="BV9" t="n">
+      <c r="BV9">
         <v>42251.981588</v>
       </c>
-      <c r="BW9" t="n">
+      <c r="BW9">
         <v>43731.947185</v>
       </c>
-      <c r="BX9" t="n">
+      <c r="BX9">
         <v>44061.277019</v>
       </c>
-      <c r="BY9" t="n">
+      <c r="BY9">
         <v>46724.794209</v>
       </c>
-      <c r="BZ9" t="n">
+      <c r="BZ9">
         <v>43999.812621</v>
       </c>
-      <c r="CA9" t="n">
+      <c r="CA9">
         <v>47426.039538</v>
       </c>
-      <c r="CB9" t="n">
+      <c r="CB9">
         <v>48213.365995</v>
       </c>
-      <c r="CC9" t="n">
+      <c r="CC9">
         <v>51766.066219</v>
       </c>
-      <c r="CD9" t="n">
+      <c r="CD9">
         <v>50499.987919</v>
       </c>
-      <c r="CE9" t="n">
+      <c r="CE9">
         <v>54581.544175</v>
       </c>
-      <c r="CF9" t="n">
+      <c r="CF9">
         <v>53182.808848</v>
       </c>
-      <c r="CG9" t="n">
+      <c r="CG9">
         <v>57243.619037</v>
       </c>
-      <c r="CH9" t="n">
+      <c r="CH9">
         <v>54857.968132</v>
       </c>
-      <c r="CI9" t="n">
+      <c r="CI9">
         <v>59989.486413</v>
       </c>
-      <c r="CJ9" t="n">
+      <c r="CJ9">
         <v>57624.42563</v>
       </c>
-      <c r="CK9" t="n">
+      <c r="CK9">
         <v>62335.992366</v>
       </c>
-      <c r="CL9" t="n">
+      <c r="CL9">
         <v>59405.394764</v>
       </c>
-      <c r="CM9" t="n">
+      <c r="CM9">
         <v>67307.858438</v>
       </c>
-      <c r="CN9" t="n">
+      <c r="CN9">
         <v>64110.172797</v>
       </c>
-      <c r="CO9" t="n">
+      <c r="CO9">
         <v>69207.784881</v>
       </c>
-      <c r="CP9" t="n">
+      <c r="CP9">
         <v>66519.77115099999</v>
       </c>
-      <c r="CQ9" t="n">
+      <c r="CQ9">
         <v>76424.97975100001</v>
       </c>
-      <c r="CR9" t="n">
+      <c r="CR9">
         <v>74701.36019199999</v>
       </c>
-      <c r="CS9" t="n">
+      <c r="CS9">
         <v>80640.948783</v>
       </c>
-      <c r="CT9" t="n">
+      <c r="CT9">
         <v>80816.26085999999</v>
       </c>
-      <c r="CU9" t="n">
+      <c r="CU9">
         <v>89559.989344</v>
       </c>
-      <c r="CV9" t="n">
+      <c r="CV9">
         <v>92470.532829</v>
       </c>
-      <c r="CW9" t="n">
+      <c r="CW9">
         <v>89713.303144</v>
       </c>
-      <c r="CX9" t="n">
+      <c r="CX9">
         <v>92175.170497</v>
       </c>
-      <c r="CY9" t="n">
+      <c r="CY9">
         <v>118663.676788</v>
       </c>
-      <c r="CZ9" t="n">
+      <c r="CZ9">
         <v>95495.32188</v>
       </c>
-      <c r="DA9" t="n">
+      <c r="DA9">
         <v>112648.143059</v>
       </c>
-      <c r="DB9" t="n">
+      <c r="DB9">
         <v>105865.407728</v>
       </c>
-      <c r="DC9" t="n">
+      <c r="DC9">
         <v>129256.033913</v>
       </c>
-      <c r="DD9" t="n">
+      <c r="DD9">
         <v>105712.999602</v>
       </c>
-      <c r="DE9" t="n">
+      <c r="DE9">
         <v>128148.988713</v>
       </c>
-      <c r="DF9" t="n">
+      <c r="DF9">
         <v>122547.894953</v>
       </c>
-      <c r="DG9" t="n">
+      <c r="DG9">
         <v>144697.388053</v>
       </c>
-      <c r="DH9" t="n">
+      <c r="DH9">
         <v>118417.526788</v>
       </c>
-      <c r="DI9" t="n">
+      <c r="DI9">
         <v>132386.454391</v>
       </c>
-      <c r="DJ9" t="n">
+      <c r="DJ9">
         <v>131556.408431</v>
       </c>
-      <c r="DK9" t="n">
+      <c r="DK9">
         <v>151649.898099</v>
       </c>
-      <c r="DL9" t="n">
+      <c r="DL9">
         <v>135750.797316</v>
       </c>
-      <c r="DM9" t="n">
+      <c r="DM9">
         <v>141991.241272</v>
       </c>
-      <c r="DN9" t="n">
+      <c r="DN9">
         <v>147232.667152</v>
       </c>
-      <c r="DO9" t="n">
+      <c r="DO9">
         <v>166405.548121</v>
       </c>
-      <c r="DP9" t="n">
+      <c r="DP9">
         <v>157831.359028</v>
       </c>
-      <c r="DQ9" t="n">
+      <c r="DQ9">
         <v>164813.513578</v>
       </c>
-      <c r="DR9" t="n">
+      <c r="DR9">
         <v>161144.33956</v>
       </c>
-      <c r="DS9" t="n">
+      <c r="DS9">
         <v>192200.981234</v>
       </c>
-      <c r="DT9" t="n">
+      <c r="DT9">
         <v>165457.901611</v>
       </c>
-      <c r="DU9" t="n">
+      <c r="DU9">
         <v>174086.159793</v>
       </c>
-      <c r="DV9" t="n">
+      <c r="DV9">
         <v>179699.34942</v>
       </c>
-      <c r="DW9" t="n">
+      <c r="DW9">
         <v>210841.268376</v>
       </c>
-      <c r="DX9" t="n">
+      <c r="DX9">
         <v>184648.072557</v>
       </c>
-      <c r="DY9" t="n">
+      <c r="DY9">
         <v>194614.990958</v>
       </c>
-      <c r="DZ9" t="n">
+      <c r="DZ9">
         <v>217904.967409</v>
       </c>
-      <c r="EA9" t="n">
+      <c r="EA9">
         <v>237710.661225</v>
       </c>
-      <c r="EB9" t="n">
+      <c r="EB9">
         <v>213418.429963</v>
       </c>
-      <c r="EC9" t="n">
+      <c r="EC9">
         <v>223623.780377</v>
       </c>
-      <c r="ED9" t="n">
+      <c r="ED9">
         <v>241520.832304</v>
       </c>
-      <c r="EE9" t="n">
+      <c r="EE9">
         <v>265320.919686</v>
       </c>
-      <c r="EF9" t="n">
+      <c r="EF9">
         <v>244286.411127</v>
       </c>
-      <c r="EG9" t="n">
+      <c r="EG9">
         <v>254610.481107</v>
       </c>
-      <c r="EH9" t="n">
+      <c r="EH9">
         <v>260016.899418</v>
       </c>
-      <c r="EI9" t="n">
+      <c r="EI9">
         <v>287087.305117</v>
       </c>
-      <c r="EJ9" t="n">
+      <c r="EJ9">
         <v>260391.463653</v>
       </c>
-      <c r="EK9" t="n">
+      <c r="EK9">
         <v>280484.839445</v>
       </c>
-      <c r="EL9" t="n">
+      <c r="EL9">
         <v>288272.546937</v>
       </c>
-      <c r="EM9" t="n">
+      <c r="EM9">
         <v>311315.337648</v>
       </c>
-      <c r="EN9" t="n">
+      <c r="EN9">
         <v>287625.883944</v>
       </c>
-      <c r="EO9" t="n">
+      <c r="EO9">
         <v>306437.712994</v>
       </c>
-      <c r="EP9" t="n">
+      <c r="EP9">
         <v>317915.769028</v>
       </c>
-      <c r="EQ9" t="n">
+      <c r="EQ9">
         <v>351415.037801</v>
       </c>
-      <c r="ER9" t="n">
+      <c r="ER9">
         <v>323253.089197</v>
       </c>
-      <c r="ES9" t="n">
+      <c r="ES9">
         <v>333998.624477</v>
       </c>
-      <c r="ET9" t="n">
+      <c r="ET9">
         <v>356829.264565</v>
       </c>
-      <c r="EU9" t="n">
+      <c r="EU9">
         <v>398133.148757</v>
       </c>
-      <c r="EV9" t="n">
+      <c r="EV9">
         <v>366576.375615</v>
       </c>
-      <c r="EW9" t="n">
+      <c r="EW9">
         <v>376607.918675</v>
       </c>
-      <c r="EX9" t="n">
+      <c r="EX9">
         <v>406790.435705</v>
       </c>
-      <c r="EY9" t="n">
+      <c r="EY9">
         <v>443281.141952</v>
       </c>
-      <c r="EZ9" t="n">
+      <c r="EZ9">
         <v>411256.558826</v>
       </c>
-      <c r="FA9" t="n">
+      <c r="FA9">
         <v>420541.961603</v>
       </c>
-      <c r="FB9" t="n">
+      <c r="FB9">
         <v>456127.877092</v>
       </c>
-      <c r="FC9" t="n">
+      <c r="FC9">
         <v>476894.759648</v>
       </c>
-      <c r="FD9" t="n">
+      <c r="FD9">
         <v>441066.02434</v>
       </c>
-      <c r="FE9" t="n">
+      <c r="FE9">
         <v>449890.060567</v>
       </c>
-      <c r="FF9" t="n">
+      <c r="FF9">
         <v>493984.646882</v>
       </c>
-      <c r="FG9" t="n">
+      <c r="FG9">
         <v>515833.00126</v>
       </c>
-      <c r="FH9" t="n">
+      <c r="FH9">
         <v>467026.453945</v>
       </c>
-      <c r="FI9" t="n">
+      <c r="FI9">
         <v>485077.420089</v>
       </c>
-      <c r="FJ9" t="n">
+      <c r="FJ9">
         <v>548600.8850379999</v>
       </c>
-      <c r="FK9" t="inlineStr">
-        <is>
-          <t>..</t>
-        </is>
-      </c>
-      <c r="FL9" t="inlineStr">
-        <is>
-          <t>..</t>
-        </is>
-      </c>
-      <c r="FM9" t="inlineStr">
-        <is>
-          <t>..</t>
-        </is>
+      <c r="FK9" t="s">
+        <v>178</v>
+      </c>
+      <c r="FL9" t="s">
+        <v>178</v>
+      </c>
+      <c r="FM9" t="s">
+        <v>178</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Public administration and defense; compulsory social activities</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="n">
+    <row r="10" spans="1:169">
+      <c r="A10" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E10">
         <v>3356</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>3565</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>3785</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10">
         <v>3916</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I10">
         <v>4004</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J10">
         <v>4104</v>
       </c>
-      <c r="K10" t="n">
+      <c r="K10">
         <v>4275</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L10">
         <v>4338</v>
       </c>
-      <c r="M10" t="n">
+      <c r="M10">
         <v>4385</v>
       </c>
-      <c r="N10" t="n">
+      <c r="N10">
         <v>4381</v>
       </c>
-      <c r="O10" t="n">
+      <c r="O10">
         <v>4602</v>
       </c>
-      <c r="P10" t="n">
+      <c r="P10">
         <v>4630</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="Q10">
         <v>5425</v>
       </c>
-      <c r="R10" t="n">
+      <c r="R10">
         <v>5439</v>
       </c>
-      <c r="S10" t="n">
+      <c r="S10">
         <v>5450</v>
       </c>
-      <c r="T10" t="n">
+      <c r="T10">
         <v>6551</v>
       </c>
-      <c r="U10" t="n">
+      <c r="U10">
         <v>6374</v>
       </c>
-      <c r="V10" t="n">
+      <c r="V10">
         <v>6194</v>
       </c>
-      <c r="W10" t="n">
+      <c r="W10">
         <v>6604</v>
       </c>
-      <c r="X10" t="n">
+      <c r="X10">
         <v>8732</v>
       </c>
-      <c r="Y10" t="n">
+      <c r="Y10">
         <v>7008</v>
       </c>
-      <c r="Z10" t="n">
+      <c r="Z10">
         <v>7411</v>
       </c>
-      <c r="AA10" t="n">
+      <c r="AA10">
         <v>7607</v>
       </c>
-      <c r="AB10" t="n">
+      <c r="AB10">
         <v>10694</v>
       </c>
-      <c r="AC10" t="n">
+      <c r="AC10">
         <v>8418</v>
       </c>
-      <c r="AD10" t="n">
+      <c r="AD10">
         <v>8631</v>
       </c>
-      <c r="AE10" t="n">
+      <c r="AE10">
         <v>9413</v>
       </c>
-      <c r="AF10" t="n">
+      <c r="AF10">
         <v>12337</v>
       </c>
-      <c r="AG10" t="n">
+      <c r="AG10">
         <v>10426</v>
       </c>
-      <c r="AH10" t="n">
+      <c r="AH10">
         <v>11415</v>
       </c>
-      <c r="AI10" t="n">
+      <c r="AI10">
         <v>12450</v>
       </c>
-      <c r="AJ10" t="n">
+      <c r="AJ10">
         <v>16280</v>
       </c>
-      <c r="AK10" t="n">
+      <c r="AK10">
         <v>13165</v>
       </c>
-      <c r="AL10" t="n">
+      <c r="AL10">
         <v>13237</v>
       </c>
-      <c r="AM10" t="n">
+      <c r="AM10">
         <v>14295</v>
       </c>
-      <c r="AN10" t="n">
+      <c r="AN10">
         <v>20212</v>
       </c>
-      <c r="AO10" t="n">
+      <c r="AO10">
         <v>17738</v>
       </c>
-      <c r="AP10" t="n">
+      <c r="AP10">
         <v>17707</v>
       </c>
-      <c r="AQ10" t="n">
+      <c r="AQ10">
         <v>17940</v>
       </c>
-      <c r="AR10" t="n">
+      <c r="AR10">
         <v>23646</v>
       </c>
-      <c r="AS10" t="n">
+      <c r="AS10">
         <v>20508</v>
       </c>
-      <c r="AT10" t="n">
+      <c r="AT10">
         <v>20403</v>
       </c>
-      <c r="AU10" t="n">
+      <c r="AU10">
         <v>20952</v>
       </c>
-      <c r="AV10" t="n">
+      <c r="AV10">
         <v>27184</v>
       </c>
-      <c r="AW10" t="n">
+      <c r="AW10">
         <v>21532</v>
       </c>
-      <c r="AX10" t="n">
+      <c r="AX10">
         <v>21783</v>
       </c>
-      <c r="AY10" t="n">
+      <c r="AY10">
         <v>21280</v>
       </c>
-      <c r="AZ10" t="n">
+      <c r="AZ10">
         <v>29029</v>
       </c>
-      <c r="BA10" t="n">
+      <c r="BA10">
         <v>23971</v>
       </c>
-      <c r="BB10" t="n">
+      <c r="BB10">
         <v>23635</v>
       </c>
-      <c r="BC10" t="n">
+      <c r="BC10">
         <v>24305</v>
       </c>
-      <c r="BD10" t="n">
+      <c r="BD10">
         <v>31636</v>
       </c>
-      <c r="BE10" t="n">
+      <c r="BE10">
         <v>28687</v>
       </c>
-      <c r="BF10" t="n">
+      <c r="BF10">
         <v>28903</v>
       </c>
-      <c r="BG10" t="n">
+      <c r="BG10">
         <v>30266</v>
       </c>
-      <c r="BH10" t="n">
+      <c r="BH10">
         <v>39418</v>
       </c>
-      <c r="BI10" t="n">
+      <c r="BI10">
         <v>34708</v>
       </c>
-      <c r="BJ10" t="n">
+      <c r="BJ10">
         <v>35296</v>
       </c>
-      <c r="BK10" t="n">
+      <c r="BK10">
         <v>36098</v>
       </c>
-      <c r="BL10" t="n">
+      <c r="BL10">
         <v>47751</v>
       </c>
-      <c r="BM10" t="n">
+      <c r="BM10">
         <v>41343</v>
       </c>
-      <c r="BN10" t="n">
+      <c r="BN10">
         <v>51491</v>
       </c>
-      <c r="BO10" t="n">
+      <c r="BO10">
         <v>56540</v>
       </c>
-      <c r="BP10" t="n">
+      <c r="BP10">
         <v>54895</v>
       </c>
-      <c r="BQ10" t="n">
+      <c r="BQ10">
         <v>73783</v>
       </c>
-      <c r="BR10" t="n">
+      <c r="BR10">
         <v>36516.615344</v>
       </c>
-      <c r="BS10" t="n">
+      <c r="BS10">
         <v>42125.488619</v>
       </c>
-      <c r="BT10" t="n">
+      <c r="BT10">
         <v>38808.049534</v>
       </c>
-      <c r="BU10" t="n">
+      <c r="BU10">
         <v>48815.985499</v>
       </c>
-      <c r="BV10" t="n">
+      <c r="BV10">
         <v>37400.404623</v>
       </c>
-      <c r="BW10" t="n">
+      <c r="BW10">
         <v>44430.285276</v>
       </c>
-      <c r="BX10" t="n">
+      <c r="BX10">
         <v>38949.764558</v>
       </c>
-      <c r="BY10" t="n">
+      <c r="BY10">
         <v>49592.5447915662</v>
       </c>
-      <c r="BZ10" t="n">
+      <c r="BZ10">
         <v>40908.795794</v>
       </c>
-      <c r="CA10" t="n">
+      <c r="CA10">
         <v>47472.275723</v>
       </c>
-      <c r="CB10" t="n">
+      <c r="CB10">
         <v>42942.756096</v>
       </c>
-      <c r="CC10" t="n">
+      <c r="CC10">
         <v>53214.908488</v>
       </c>
-      <c r="CD10" t="n">
+      <c r="CD10">
         <v>44200.09197</v>
       </c>
-      <c r="CE10" t="n">
+      <c r="CE10">
         <v>50798.896409</v>
       </c>
-      <c r="CF10" t="n">
+      <c r="CF10">
         <v>45838.075908</v>
       </c>
-      <c r="CG10" t="n">
+      <c r="CG10">
         <v>56643.621176</v>
       </c>
-      <c r="CH10" t="n">
+      <c r="CH10">
         <v>45422.527357</v>
       </c>
-      <c r="CI10" t="n">
+      <c r="CI10">
         <v>51459.567149</v>
       </c>
-      <c r="CJ10" t="n">
+      <c r="CJ10">
         <v>46817.438027</v>
       </c>
-      <c r="CK10" t="n">
+      <c r="CK10">
         <v>58413.869702</v>
       </c>
-      <c r="CL10" t="n">
+      <c r="CL10">
         <v>45507.618682</v>
       </c>
-      <c r="CM10" t="n">
+      <c r="CM10">
         <v>52302.962917</v>
       </c>
-      <c r="CN10" t="n">
+      <c r="CN10">
         <v>49806.438249</v>
       </c>
-      <c r="CO10" t="n">
+      <c r="CO10">
         <v>62697.948632</v>
       </c>
-      <c r="CP10" t="n">
+      <c r="CP10">
         <v>50363.847244</v>
       </c>
-      <c r="CQ10" t="n">
+      <c r="CQ10">
         <v>59121.464721</v>
       </c>
-      <c r="CR10" t="n">
+      <c r="CR10">
         <v>55351.209024</v>
       </c>
-      <c r="CS10" t="n">
+      <c r="CS10">
         <v>64040.17539</v>
       </c>
-      <c r="CT10" t="n">
+      <c r="CT10">
         <v>55056.893261</v>
       </c>
-      <c r="CU10" t="n">
+      <c r="CU10">
         <v>61491.169166</v>
       </c>
-      <c r="CV10" t="n">
+      <c r="CV10">
         <v>55679.896572</v>
       </c>
-      <c r="CW10" t="n">
+      <c r="CW10">
         <v>65065.824708</v>
       </c>
-      <c r="CX10" t="n">
+      <c r="CX10">
         <v>59899.654056</v>
       </c>
-      <c r="CY10" t="n">
+      <c r="CY10">
         <v>68878.899707</v>
       </c>
-      <c r="CZ10" t="n">
+      <c r="CZ10">
         <v>62454.796263</v>
       </c>
-      <c r="DA10" t="n">
+      <c r="DA10">
         <v>72787.61088599999</v>
       </c>
-      <c r="DB10" t="n">
+      <c r="DB10">
         <v>61639.89094</v>
       </c>
-      <c r="DC10" t="n">
+      <c r="DC10">
         <v>70163.045815</v>
       </c>
-      <c r="DD10" t="n">
+      <c r="DD10">
         <v>65553.824897</v>
       </c>
-      <c r="DE10" t="n">
+      <c r="DE10">
         <v>74811.492411</v>
       </c>
-      <c r="DF10" t="n">
+      <c r="DF10">
         <v>64278.092772</v>
       </c>
-      <c r="DG10" t="n">
+      <c r="DG10">
         <v>72864.85593400001</v>
       </c>
-      <c r="DH10" t="n">
+      <c r="DH10">
         <v>69809.894679</v>
       </c>
-      <c r="DI10" t="n">
+      <c r="DI10">
         <v>80833.579729</v>
       </c>
-      <c r="DJ10" t="n">
+      <c r="DJ10">
         <v>65730.52130199999</v>
       </c>
-      <c r="DK10" t="n">
+      <c r="DK10">
         <v>83262.28225</v>
       </c>
-      <c r="DL10" t="n">
+      <c r="DL10">
         <v>83352.39870400001</v>
       </c>
-      <c r="DM10" t="n">
+      <c r="DM10">
         <v>92146.71558400001</v>
       </c>
-      <c r="DN10" t="n">
+      <c r="DN10">
         <v>77083.211085</v>
       </c>
-      <c r="DO10" t="n">
+      <c r="DO10">
         <v>100559.807943</v>
       </c>
-      <c r="DP10" t="n">
+      <c r="DP10">
         <v>94980.06215500001</v>
       </c>
-      <c r="DQ10" t="n">
+      <c r="DQ10">
         <v>99206.028895</v>
       </c>
-      <c r="DR10" t="n">
+      <c r="DR10">
         <v>77728.211652</v>
       </c>
-      <c r="DS10" t="n">
+      <c r="DS10">
         <v>111357.632131</v>
       </c>
-      <c r="DT10" t="n">
+      <c r="DT10">
         <v>104014.74509</v>
       </c>
-      <c r="DU10" t="n">
+      <c r="DU10">
         <v>109072.472597</v>
       </c>
-      <c r="DV10" t="n">
+      <c r="DV10">
         <v>85801.572653</v>
       </c>
-      <c r="DW10" t="n">
+      <c r="DW10">
         <v>123021.914167</v>
       </c>
-      <c r="DX10" t="n">
+      <c r="DX10">
         <v>118408.740757</v>
       </c>
-      <c r="DY10" t="n">
+      <c r="DY10">
         <v>126121.436663</v>
       </c>
-      <c r="DZ10" t="n">
+      <c r="DZ10">
         <v>94869.091879</v>
       </c>
-      <c r="EA10" t="n">
+      <c r="EA10">
         <v>133867.348228</v>
       </c>
-      <c r="EB10" t="n">
+      <c r="EB10">
         <v>125208.122748</v>
       </c>
-      <c r="EC10" t="n">
+      <c r="EC10">
         <v>125571.387685</v>
       </c>
-      <c r="ED10" t="n">
+      <c r="ED10">
         <v>99560.42374100001</v>
       </c>
-      <c r="EE10" t="n">
+      <c r="EE10">
         <v>134124.127295</v>
       </c>
-      <c r="EF10" t="n">
+      <c r="EF10">
         <v>120083.241728</v>
       </c>
-      <c r="EG10" t="n">
+      <c r="EG10">
         <v>138318.249288</v>
       </c>
-      <c r="EH10" t="n">
+      <c r="EH10">
         <v>96067.033318</v>
       </c>
-      <c r="EI10" t="n">
+      <c r="EI10">
         <v>134070.726277</v>
       </c>
-      <c r="EJ10" t="n">
+      <c r="EJ10">
         <v>123943.53519</v>
       </c>
-      <c r="EK10" t="n">
+      <c r="EK10">
         <v>149119.569856</v>
       </c>
-      <c r="EL10" t="n">
+      <c r="EL10">
         <v>106850.484925</v>
       </c>
-      <c r="EM10" t="n">
+      <c r="EM10">
         <v>148881.732998</v>
       </c>
-      <c r="EN10" t="n">
+      <c r="EN10">
         <v>130755.086573</v>
       </c>
-      <c r="EO10" t="n">
+      <c r="EO10">
         <v>175766.359622</v>
       </c>
-      <c r="EP10" t="n">
+      <c r="EP10">
         <v>119754.789706</v>
       </c>
-      <c r="EQ10" t="n">
+      <c r="EQ10">
         <v>171762.492388</v>
       </c>
-      <c r="ER10" t="n">
+      <c r="ER10">
         <v>150515.941272</v>
       </c>
-      <c r="ES10" t="n">
+      <c r="ES10">
         <v>200093.73631</v>
       </c>
-      <c r="ET10" t="n">
+      <c r="ET10">
         <v>137740.306463</v>
       </c>
-      <c r="EU10" t="n">
+      <c r="EU10">
         <v>202293.730704</v>
       </c>
-      <c r="EV10" t="n">
+      <c r="EV10">
         <v>186185.32943</v>
       </c>
-      <c r="EW10" t="n">
+      <c r="EW10">
         <v>241486.744427</v>
       </c>
-      <c r="EX10" t="n">
+      <c r="EX10">
         <v>158525.336098</v>
       </c>
-      <c r="EY10" t="n">
+      <c r="EY10">
         <v>229503.894149</v>
       </c>
-      <c r="EZ10" t="n">
+      <c r="EZ10">
         <v>205683.222325</v>
       </c>
-      <c r="FA10" t="n">
+      <c r="FA10">
         <v>296975.271675</v>
       </c>
-      <c r="FB10" t="n">
+      <c r="FB10">
         <v>173620.984836</v>
       </c>
-      <c r="FC10" t="n">
+      <c r="FC10">
         <v>250684.070383</v>
       </c>
-      <c r="FD10" t="n">
+      <c r="FD10">
         <v>219958.398869</v>
       </c>
-      <c r="FE10" t="n">
+      <c r="FE10">
         <v>306326.68018</v>
       </c>
-      <c r="FF10" t="n">
+      <c r="FF10">
         <v>194526.014765</v>
       </c>
-      <c r="FG10" t="n">
+      <c r="FG10">
         <v>267426.627978</v>
       </c>
-      <c r="FH10" t="n">
+      <c r="FH10">
         <v>237922.93017</v>
       </c>
-      <c r="FI10" t="n">
+      <c r="FI10">
         <v>330562.887828</v>
       </c>
-      <c r="FJ10" t="n">
+      <c r="FJ10">
         <v>205662.367761</v>
       </c>
-      <c r="FK10" t="inlineStr">
-        <is>
-          <t>..</t>
-        </is>
-      </c>
-      <c r="FL10" t="inlineStr">
-        <is>
-          <t>..</t>
-        </is>
-      </c>
-      <c r="FM10" t="inlineStr">
-        <is>
-          <t>..</t>
-        </is>
+      <c r="FK10" t="s">
+        <v>178</v>
+      </c>
+      <c r="FL10" t="s">
+        <v>178</v>
+      </c>
+      <c r="FM10" t="s">
+        <v>178</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>Other services</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr"/>
-      <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr"/>
-      <c r="V11" t="inlineStr"/>
-      <c r="W11" t="inlineStr"/>
-      <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="inlineStr"/>
-      <c r="Z11" t="inlineStr"/>
-      <c r="AA11" t="inlineStr"/>
-      <c r="AB11" t="inlineStr"/>
-      <c r="AC11" t="inlineStr"/>
-      <c r="AD11" t="inlineStr"/>
-      <c r="AE11" t="inlineStr"/>
-      <c r="AF11" t="inlineStr"/>
-      <c r="AG11" t="inlineStr"/>
-      <c r="AH11" t="inlineStr"/>
-      <c r="AI11" t="inlineStr"/>
-      <c r="AJ11" t="inlineStr"/>
-      <c r="AK11" t="inlineStr"/>
-      <c r="AL11" t="inlineStr"/>
-      <c r="AM11" t="inlineStr"/>
-      <c r="AN11" t="inlineStr"/>
-      <c r="AO11" t="inlineStr"/>
-      <c r="AP11" t="inlineStr"/>
-      <c r="AQ11" t="inlineStr"/>
-      <c r="AR11" t="inlineStr"/>
-      <c r="AS11" t="inlineStr"/>
-      <c r="AT11" t="inlineStr"/>
-      <c r="AU11" t="inlineStr"/>
-      <c r="AV11" t="inlineStr"/>
-      <c r="AW11" t="inlineStr"/>
-      <c r="AX11" t="inlineStr"/>
-      <c r="AY11" t="inlineStr"/>
-      <c r="AZ11" t="inlineStr"/>
-      <c r="BA11" t="inlineStr"/>
-      <c r="BB11" t="inlineStr"/>
-      <c r="BC11" t="inlineStr"/>
-      <c r="BD11" t="inlineStr"/>
-      <c r="BE11" t="inlineStr"/>
-      <c r="BF11" t="inlineStr"/>
-      <c r="BG11" t="inlineStr"/>
-      <c r="BH11" t="inlineStr"/>
-      <c r="BI11" t="inlineStr"/>
-      <c r="BJ11" t="inlineStr"/>
-      <c r="BK11" t="inlineStr"/>
-      <c r="BL11" t="inlineStr"/>
-      <c r="BM11" t="inlineStr"/>
-      <c r="BN11" t="inlineStr"/>
-      <c r="BO11" t="inlineStr"/>
-      <c r="BP11" t="inlineStr"/>
-      <c r="BQ11" t="inlineStr"/>
-      <c r="BR11" t="inlineStr"/>
-      <c r="BS11" t="inlineStr"/>
-      <c r="BT11" t="inlineStr"/>
-      <c r="BU11" t="inlineStr"/>
-      <c r="BV11" t="inlineStr"/>
-      <c r="BW11" t="inlineStr"/>
-      <c r="BX11" t="inlineStr"/>
-      <c r="BY11" t="inlineStr"/>
-      <c r="BZ11" t="n">
+    <row r="11" spans="1:169">
+      <c r="A11" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="BZ11">
         <v>16991.755862</v>
       </c>
-      <c r="CA11" t="n">
+      <c r="CA11">
         <v>18164.768067</v>
       </c>
-      <c r="CB11" t="n">
+      <c r="CB11">
         <v>18206.893478</v>
       </c>
-      <c r="CC11" t="n">
+      <c r="CC11">
         <v>19272.542284</v>
       </c>
-      <c r="CD11" t="n">
+      <c r="CD11">
         <v>18294.623289</v>
       </c>
-      <c r="CE11" t="n">
+      <c r="CE11">
         <v>19461.381834</v>
       </c>
-      <c r="CF11" t="n">
+      <c r="CF11">
         <v>19879.758479</v>
       </c>
-      <c r="CG11" t="n">
+      <c r="CG11">
         <v>20808.970073</v>
       </c>
-      <c r="CH11" t="n">
+      <c r="CH11">
         <v>19521.304822</v>
       </c>
-      <c r="CI11" t="n">
+      <c r="CI11">
         <v>20660.828854</v>
       </c>
-      <c r="CJ11" t="n">
+      <c r="CJ11">
         <v>21432.214524</v>
       </c>
-      <c r="CK11" t="n">
+      <c r="CK11">
         <v>22437.717608</v>
       </c>
-      <c r="CL11" t="n">
+      <c r="CL11">
         <v>21211.659784</v>
       </c>
-      <c r="CM11" t="n">
+      <c r="CM11">
         <v>22577.827063</v>
       </c>
-      <c r="CN11" t="n">
+      <c r="CN11">
         <v>23306.671493</v>
       </c>
-      <c r="CO11" t="n">
+      <c r="CO11">
         <v>24618.322393</v>
       </c>
-      <c r="CP11" t="n">
+      <c r="CP11">
         <v>24372.102739</v>
       </c>
-      <c r="CQ11" t="n">
+      <c r="CQ11">
         <v>25897.305268</v>
       </c>
-      <c r="CR11" t="n">
+      <c r="CR11">
         <v>26366.062887</v>
       </c>
-      <c r="CS11" t="n">
+      <c r="CS11">
         <v>27924.066352</v>
       </c>
-      <c r="CT11" t="n">
+      <c r="CT11">
         <v>26519.818524</v>
       </c>
-      <c r="CU11" t="n">
+      <c r="CU11">
         <v>27828.463367</v>
       </c>
-      <c r="CV11" t="n">
+      <c r="CV11">
         <v>27831.892707</v>
       </c>
-      <c r="CW11" t="n">
+      <c r="CW11">
         <v>29518.546945</v>
       </c>
-      <c r="CX11" t="n">
+      <c r="CX11">
         <v>28957.47756</v>
       </c>
-      <c r="CY11" t="n">
+      <c r="CY11">
         <v>29528.557016</v>
       </c>
-      <c r="CZ11" t="n">
+      <c r="CZ11">
         <v>29874.212356</v>
       </c>
-      <c r="DA11" t="n">
+      <c r="DA11">
         <v>33901.598207</v>
       </c>
-      <c r="DB11" t="n">
+      <c r="DB11">
         <v>31971.419504</v>
       </c>
-      <c r="DC11" t="n">
+      <c r="DC11">
         <v>33641.463513</v>
       </c>
-      <c r="DD11" t="n">
+      <c r="DD11">
         <v>33812.401552</v>
       </c>
-      <c r="DE11" t="n">
+      <c r="DE11">
         <v>39014.85062</v>
       </c>
-      <c r="DF11" t="n">
+      <c r="DF11">
         <v>35487.225393</v>
       </c>
-      <c r="DG11" t="n">
+      <c r="DG11">
         <v>37322.635203</v>
       </c>
-      <c r="DH11" t="n">
+      <c r="DH11">
         <v>36350.511722</v>
       </c>
-      <c r="DI11" t="n">
+      <c r="DI11">
         <v>42303.498001</v>
       </c>
-      <c r="DJ11" t="n">
+      <c r="DJ11">
         <v>38159.873005</v>
       </c>
-      <c r="DK11" t="n">
+      <c r="DK11">
         <v>40945.266704</v>
       </c>
-      <c r="DL11" t="n">
+      <c r="DL11">
         <v>41843.430071</v>
       </c>
-      <c r="DM11" t="n">
+      <c r="DM11">
         <v>50340.063865</v>
       </c>
-      <c r="DN11" t="n">
+      <c r="DN11">
         <v>47009.703466</v>
       </c>
-      <c r="DO11" t="n">
+      <c r="DO11">
         <v>49649.741784</v>
       </c>
-      <c r="DP11" t="n">
+      <c r="DP11">
         <v>49892.271906</v>
       </c>
-      <c r="DQ11" t="n">
+      <c r="DQ11">
         <v>67091.246185</v>
       </c>
-      <c r="DR11" t="n">
+      <c r="DR11">
         <v>49095.758246</v>
       </c>
-      <c r="DS11" t="n">
+      <c r="DS11">
         <v>53084.610947</v>
       </c>
-      <c r="DT11" t="n">
+      <c r="DT11">
         <v>55418.208153</v>
       </c>
-      <c r="DU11" t="n">
+      <c r="DU11">
         <v>73721.37695799999</v>
       </c>
-      <c r="DV11" t="n">
+      <c r="DV11">
         <v>65648.592303</v>
       </c>
-      <c r="DW11" t="n">
+      <c r="DW11">
         <v>65854.15227599999</v>
       </c>
-      <c r="DX11" t="n">
+      <c r="DX11">
         <v>63506.074068</v>
       </c>
-      <c r="DY11" t="n">
+      <c r="DY11">
         <v>84521.866628</v>
       </c>
-      <c r="DZ11" t="n">
+      <c r="DZ11">
         <v>76781.998634</v>
       </c>
-      <c r="EA11" t="n">
+      <c r="EA11">
         <v>75491.14714299999</v>
       </c>
-      <c r="EB11" t="n">
+      <c r="EB11">
         <v>67561.12399199999</v>
       </c>
-      <c r="EC11" t="n">
+      <c r="EC11">
         <v>90877.5963</v>
       </c>
-      <c r="ED11" t="n">
+      <c r="ED11">
         <v>84286.111322</v>
       </c>
-      <c r="EE11" t="n">
+      <c r="EE11">
         <v>75515.957157</v>
       </c>
-      <c r="EF11" t="n">
+      <c r="EF11">
         <v>69734.889549</v>
       </c>
-      <c r="EG11" t="n">
+      <c r="EG11">
         <v>88985.656265</v>
       </c>
-      <c r="EH11" t="n">
+      <c r="EH11">
         <v>88573.605045</v>
       </c>
-      <c r="EI11" t="n">
+      <c r="EI11">
         <v>90304.13961699999</v>
       </c>
-      <c r="EJ11" t="n">
+      <c r="EJ11">
         <v>74508.637582</v>
       </c>
-      <c r="EK11" t="n">
+      <c r="EK11">
         <v>97547.743179</v>
       </c>
-      <c r="EL11" t="n">
+      <c r="EL11">
         <v>94830.65586499999</v>
       </c>
-      <c r="EM11" t="n">
+      <c r="EM11">
         <v>100891.343569</v>
       </c>
-      <c r="EN11" t="n">
+      <c r="EN11">
         <v>77883.528987</v>
       </c>
-      <c r="EO11" t="n">
+      <c r="EO11">
         <v>100739.422765</v>
       </c>
-      <c r="EP11" t="n">
+      <c r="EP11">
         <v>99647.702712</v>
       </c>
-      <c r="EQ11" t="n">
+      <c r="EQ11">
         <v>102240.392569</v>
       </c>
-      <c r="ER11" t="n">
+      <c r="ER11">
         <v>79638.56362</v>
       </c>
-      <c r="ES11" t="n">
+      <c r="ES11">
         <v>107152.704538</v>
       </c>
-      <c r="ET11" t="n">
+      <c r="ET11">
         <v>105852.972239</v>
       </c>
-      <c r="EU11" t="n">
+      <c r="EU11">
         <v>108130.827823</v>
       </c>
-      <c r="EV11" t="n">
+      <c r="EV11">
         <v>83450.912742</v>
       </c>
-      <c r="EW11" t="n">
+      <c r="EW11">
         <v>113590.281448</v>
       </c>
-      <c r="EX11" t="n">
+      <c r="EX11">
         <v>115709.84832</v>
       </c>
-      <c r="EY11" t="n">
+      <c r="EY11">
         <v>118807.957854</v>
       </c>
-      <c r="EZ11" t="n">
+      <c r="EZ11">
         <v>90236.733939</v>
       </c>
-      <c r="FA11" t="n">
+      <c r="FA11">
         <v>125674.566717</v>
       </c>
-      <c r="FB11" t="n">
+      <c r="FB11">
         <v>107395.023986</v>
       </c>
-      <c r="FC11" t="n">
+      <c r="FC11">
         <v>44480.88941</v>
       </c>
-      <c r="FD11" t="n">
+      <c r="FD11">
         <v>47490.986662</v>
       </c>
-      <c r="FE11" t="n">
+      <c r="FE11">
         <v>72590.410259</v>
       </c>
-      <c r="FF11" t="n">
+      <c r="FF11">
         <v>67175.61339499999</v>
       </c>
-      <c r="FG11" t="n">
+      <c r="FG11">
         <v>61699.814068</v>
       </c>
-      <c r="FH11" t="n">
+      <c r="FH11">
         <v>57250.132402</v>
       </c>
-      <c r="FI11" t="n">
+      <c r="FI11">
         <v>94884.586672</v>
       </c>
-      <c r="FJ11" t="n">
+      <c r="FJ11">
         <v>82927.290009</v>
       </c>
-      <c r="FK11" t="inlineStr">
-        <is>
-          <t>..</t>
-        </is>
-      </c>
-      <c r="FL11" t="inlineStr">
-        <is>
-          <t>..</t>
-        </is>
-      </c>
-      <c r="FM11" t="inlineStr">
-        <is>
-          <t>..</t>
-        </is>
+      <c r="FK11" t="s">
+        <v>178</v>
+      </c>
+      <c r="FL11" t="s">
+        <v>178</v>
+      </c>
+      <c r="FM11" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/INTLINE/data/566/PHSA/Gross National Income and Gross Domestic Product by Industry At Current Prices Q_historical.xlsx
+++ b/INTLINE/data/566/PHSA/Gross National Income and Gross Domestic Product by Industry At Current Prices Q_historical.xlsx
@@ -1,582 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Gross National Income and Gros" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Gross National Income and Gros" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="179">
-  <si>
-    <t>1981-Q1</t>
-  </si>
-  <si>
-    <t>1981-Q2</t>
-  </si>
-  <si>
-    <t>1981-Q3</t>
-  </si>
-  <si>
-    <t>1981-Q4</t>
-  </si>
-  <si>
-    <t>1982-Q1</t>
-  </si>
-  <si>
-    <t>1982-Q2</t>
-  </si>
-  <si>
-    <t>1982-Q3</t>
-  </si>
-  <si>
-    <t>1982-Q4</t>
-  </si>
-  <si>
-    <t>1983-Q1</t>
-  </si>
-  <si>
-    <t>1983-Q2</t>
-  </si>
-  <si>
-    <t>1983-Q3</t>
-  </si>
-  <si>
-    <t>1983-Q4</t>
-  </si>
-  <si>
-    <t>1984-Q1</t>
-  </si>
-  <si>
-    <t>1984-Q2</t>
-  </si>
-  <si>
-    <t>1984-Q3</t>
-  </si>
-  <si>
-    <t>1984-Q4</t>
-  </si>
-  <si>
-    <t>1985-Q1</t>
-  </si>
-  <si>
-    <t>1985-Q2</t>
-  </si>
-  <si>
-    <t>1985-Q3</t>
-  </si>
-  <si>
-    <t>1985-Q4</t>
-  </si>
-  <si>
-    <t>1986-Q1</t>
-  </si>
-  <si>
-    <t>1986-Q2</t>
-  </si>
-  <si>
-    <t>1986-Q3</t>
-  </si>
-  <si>
-    <t>1986-Q4</t>
-  </si>
-  <si>
-    <t>1987-Q1</t>
-  </si>
-  <si>
-    <t>1987-Q2</t>
-  </si>
-  <si>
-    <t>1987-Q3</t>
-  </si>
-  <si>
-    <t>1987-Q4</t>
-  </si>
-  <si>
-    <t>1988-Q1</t>
-  </si>
-  <si>
-    <t>1988-Q2</t>
-  </si>
-  <si>
-    <t>1988-Q3</t>
-  </si>
-  <si>
-    <t>1988-Q4</t>
-  </si>
-  <si>
-    <t>1989-Q1</t>
-  </si>
-  <si>
-    <t>1989-Q2</t>
-  </si>
-  <si>
-    <t>1989-Q3</t>
-  </si>
-  <si>
-    <t>1989-Q4</t>
-  </si>
-  <si>
-    <t>1990-Q1</t>
-  </si>
-  <si>
-    <t>1990-Q2</t>
-  </si>
-  <si>
-    <t>1990-Q3</t>
-  </si>
-  <si>
-    <t>1990-Q4</t>
-  </si>
-  <si>
-    <t>1991-Q1</t>
-  </si>
-  <si>
-    <t>1991-Q2</t>
-  </si>
-  <si>
-    <t>1991-Q3</t>
-  </si>
-  <si>
-    <t>1991-Q4</t>
-  </si>
-  <si>
-    <t>1992-Q1</t>
-  </si>
-  <si>
-    <t>1992-Q2</t>
-  </si>
-  <si>
-    <t>1992-Q3</t>
-  </si>
-  <si>
-    <t>1992-Q4</t>
-  </si>
-  <si>
-    <t>1993-Q1</t>
-  </si>
-  <si>
-    <t>1993-Q2</t>
-  </si>
-  <si>
-    <t>1993-Q3</t>
-  </si>
-  <si>
-    <t>1993-Q4</t>
-  </si>
-  <si>
-    <t>1994-Q1</t>
-  </si>
-  <si>
-    <t>1994-Q2</t>
-  </si>
-  <si>
-    <t>1994-Q3</t>
-  </si>
-  <si>
-    <t>1994-Q4</t>
-  </si>
-  <si>
-    <t>1995-Q1</t>
-  </si>
-  <si>
-    <t>1995-Q2</t>
-  </si>
-  <si>
-    <t>1995-Q3</t>
-  </si>
-  <si>
-    <t>1995-Q4</t>
-  </si>
-  <si>
-    <t>1996-Q1</t>
-  </si>
-  <si>
-    <t>1996-Q2</t>
-  </si>
-  <si>
-    <t>1996-Q3</t>
-  </si>
-  <si>
-    <t>1996-Q4</t>
-  </si>
-  <si>
-    <t>1997-Q1</t>
-  </si>
-  <si>
-    <t>1997-Q2</t>
-  </si>
-  <si>
-    <t>1997-Q3</t>
-  </si>
-  <si>
-    <t>1997-Q4</t>
-  </si>
-  <si>
-    <t>1998-Q1</t>
-  </si>
-  <si>
-    <t>1998-Q2</t>
-  </si>
-  <si>
-    <t>1998-Q3</t>
-  </si>
-  <si>
-    <t>1998-Q4</t>
-  </si>
-  <si>
-    <t>1999-Q1</t>
-  </si>
-  <si>
-    <t>1999-Q2</t>
-  </si>
-  <si>
-    <t>1999-Q3</t>
-  </si>
-  <si>
-    <t>1999-Q4</t>
-  </si>
-  <si>
-    <t>2000-Q1</t>
-  </si>
-  <si>
-    <t>2000-Q2</t>
-  </si>
-  <si>
-    <t>2000-Q3</t>
-  </si>
-  <si>
-    <t>2000-Q4</t>
-  </si>
-  <si>
-    <t>2001-Q1</t>
-  </si>
-  <si>
-    <t>2001-Q2</t>
-  </si>
-  <si>
-    <t>2001-Q3</t>
-  </si>
-  <si>
-    <t>2001-Q4</t>
-  </si>
-  <si>
-    <t>2002-Q1</t>
-  </si>
-  <si>
-    <t>2002-Q2</t>
-  </si>
-  <si>
-    <t>2002-Q3</t>
-  </si>
-  <si>
-    <t>2002-Q4</t>
-  </si>
-  <si>
-    <t>2003-Q1</t>
-  </si>
-  <si>
-    <t>2003-Q2</t>
-  </si>
-  <si>
-    <t>2003-Q3</t>
-  </si>
-  <si>
-    <t>2003-Q4</t>
-  </si>
-  <si>
-    <t>2004-Q1</t>
-  </si>
-  <si>
-    <t>2004-Q2</t>
-  </si>
-  <si>
-    <t>2004-Q3</t>
-  </si>
-  <si>
-    <t>2004-Q4</t>
-  </si>
-  <si>
-    <t>2005-Q1</t>
-  </si>
-  <si>
-    <t>2005-Q2</t>
-  </si>
-  <si>
-    <t>2005-Q3</t>
-  </si>
-  <si>
-    <t>2005-Q4</t>
-  </si>
-  <si>
-    <t>2006-Q1</t>
-  </si>
-  <si>
-    <t>2006-Q2</t>
-  </si>
-  <si>
-    <t>2006-Q3</t>
-  </si>
-  <si>
-    <t>2006-Q4</t>
-  </si>
-  <si>
-    <t>2007-Q1</t>
-  </si>
-  <si>
-    <t>2007-Q2</t>
-  </si>
-  <si>
-    <t>2007-Q3</t>
-  </si>
-  <si>
-    <t>2007-Q4</t>
-  </si>
-  <si>
-    <t>2008-Q1</t>
-  </si>
-  <si>
-    <t>2008-Q2</t>
-  </si>
-  <si>
-    <t>2008-Q3</t>
-  </si>
-  <si>
-    <t>2008-Q4</t>
-  </si>
-  <si>
-    <t>2009-Q1</t>
-  </si>
-  <si>
-    <t>2009-Q2</t>
-  </si>
-  <si>
-    <t>2009-Q3</t>
-  </si>
-  <si>
-    <t>2009-Q4</t>
-  </si>
-  <si>
-    <t>2010-Q1</t>
-  </si>
-  <si>
-    <t>2010-Q2</t>
-  </si>
-  <si>
-    <t>2010-Q3</t>
-  </si>
-  <si>
-    <t>2010-Q4</t>
-  </si>
-  <si>
-    <t>2011-Q1</t>
-  </si>
-  <si>
-    <t>2011-Q2</t>
-  </si>
-  <si>
-    <t>2011-Q3</t>
-  </si>
-  <si>
-    <t>2011-Q4</t>
-  </si>
-  <si>
-    <t>2012-Q1</t>
-  </si>
-  <si>
-    <t>2012-Q2</t>
-  </si>
-  <si>
-    <t>2012-Q3</t>
-  </si>
-  <si>
-    <t>2012-Q4</t>
-  </si>
-  <si>
-    <t>2013-Q1</t>
-  </si>
-  <si>
-    <t>2013-Q2</t>
-  </si>
-  <si>
-    <t>2013-Q3</t>
-  </si>
-  <si>
-    <t>2013-Q4</t>
-  </si>
-  <si>
-    <t>2014-Q1</t>
-  </si>
-  <si>
-    <t>2014-Q2</t>
-  </si>
-  <si>
-    <t>2014-Q3</t>
-  </si>
-  <si>
-    <t>2014-Q4</t>
-  </si>
-  <si>
-    <t>2015-Q1</t>
-  </si>
-  <si>
-    <t>2015-Q2</t>
-  </si>
-  <si>
-    <t>2015-Q3</t>
-  </si>
-  <si>
-    <t>2015-Q4</t>
-  </si>
-  <si>
-    <t>2016-Q1</t>
-  </si>
-  <si>
-    <t>2016-Q2</t>
-  </si>
-  <si>
-    <t>2016-Q3</t>
-  </si>
-  <si>
-    <t>2016-Q4</t>
-  </si>
-  <si>
-    <t>2017-Q1</t>
-  </si>
-  <si>
-    <t>2017-Q2</t>
-  </si>
-  <si>
-    <t>2017-Q3</t>
-  </si>
-  <si>
-    <t>2017-Q4</t>
-  </si>
-  <si>
-    <t>2018-Q1</t>
-  </si>
-  <si>
-    <t>2018-Q2</t>
-  </si>
-  <si>
-    <t>2018-Q3</t>
-  </si>
-  <si>
-    <t>2018-Q4</t>
-  </si>
-  <si>
-    <t>2019-Q1</t>
-  </si>
-  <si>
-    <t>2019-Q2</t>
-  </si>
-  <si>
-    <t>2019-Q3</t>
-  </si>
-  <si>
-    <t>2019-Q4</t>
-  </si>
-  <si>
-    <t>2020-Q1</t>
-  </si>
-  <si>
-    <t>2020-Q2</t>
-  </si>
-  <si>
-    <t>2020-Q3</t>
-  </si>
-  <si>
-    <t>2020-Q4</t>
-  </si>
-  <si>
-    <t>2021-Q1</t>
-  </si>
-  <si>
-    <t>2021-Q2</t>
-  </si>
-  <si>
-    <t>2021-Q3</t>
-  </si>
-  <si>
-    <t>2021-Q4</t>
-  </si>
-  <si>
-    <t>2022-Q1</t>
-  </si>
-  <si>
-    <t>2022-Q2</t>
-  </si>
-  <si>
-    <t>2022-Q3</t>
-  </si>
-  <si>
-    <t>2022-Q4</t>
-  </si>
-  <si>
-    <t>Industry</t>
-  </si>
-  <si>
-    <t>Mining and quarrying</t>
-  </si>
-  <si>
-    <t>Manufacturing</t>
-  </si>
-  <si>
-    <t>Electricity, steam, water and waste management</t>
-  </si>
-  <si>
-    <t>Construction</t>
-  </si>
-  <si>
-    <t>Services</t>
-  </si>
-  <si>
-    <t>Wholesale and retail trade; repair of motor vehicles and motorcycles</t>
-  </si>
-  <si>
-    <t>Financial and insurance activities</t>
-  </si>
-  <si>
-    <t>Public administration and defense; compulsory social activities</t>
-  </si>
-  <si>
-    <t>Other services</t>
-  </si>
-  <si>
-    <t>..</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -591,18 +46,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -610,15 +57,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -907,5349 +353,5858 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:FM11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:169">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="BH1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="BI1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="BK1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="BL1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BM1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="BN1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="BO1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="BP1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="BQ1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="BR1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="BS1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="BT1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BU1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="BV1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="BW1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="BX1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="BY1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="BZ1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="CA1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="CB1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CC1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="CD1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="CE1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="CF1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="CG1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="CH1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="CI1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="CJ1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="CK1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="CL1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="CM1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="CN1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="CO1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="CP1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="CQ1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="CR1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="CS1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="CT1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="CU1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="CV1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="CW1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="CX1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="CY1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="CZ1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="DA1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="DB1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="DC1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="DD1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="DE1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="DF1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="DG1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="DH1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="DI1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="DJ1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="DK1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="DL1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="DM1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="DN1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="DO1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="DP1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="DQ1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="DR1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="DS1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="DT1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="DU1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="DV1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="DW1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="DX1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="DY1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="DZ1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="EA1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="EB1" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="EC1" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="ED1" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="EE1" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="EF1" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="EG1" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="EH1" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="EI1" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="EJ1" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="EK1" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="EL1" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="EM1" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="EN1" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="EO1" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="EP1" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="EQ1" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="ER1" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="ES1" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="ET1" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="EU1" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="EV1" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="EW1" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="EX1" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="EY1" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="EZ1" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="FA1" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="FB1" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="FC1" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="FD1" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="FE1" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="FF1" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="FG1" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="FH1" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="FI1" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="FJ1" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="FK1" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="FL1" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="FM1" s="1" t="s">
-        <v>167</v>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>1981-Q1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>1981-Q2</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>1981-Q3</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>1981-Q4</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>1982-Q1</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>1982-Q2</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>1982-Q3</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>1982-Q4</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>1983-Q1</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>1983-Q2</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>1983-Q3</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>1983-Q4</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>1984-Q1</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>1984-Q2</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>1984-Q3</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>1984-Q4</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>1985-Q1</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>1985-Q2</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>1985-Q3</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>1985-Q4</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>1986-Q1</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>1986-Q2</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>1986-Q3</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>1986-Q4</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>1987-Q1</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>1987-Q2</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>1987-Q3</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>1987-Q4</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>1988-Q1</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>1988-Q2</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>1988-Q3</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>1988-Q4</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>1989-Q1</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>1989-Q2</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>1989-Q3</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>1989-Q4</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>1990-Q1</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>1990-Q2</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>1990-Q3</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>1990-Q4</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>1991-Q1</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>1991-Q2</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>1991-Q3</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>1991-Q4</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>1992-Q1</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>1992-Q2</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>1992-Q3</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>1992-Q4</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>1993-Q1</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>1993-Q2</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>1993-Q3</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>1993-Q4</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>1994-Q1</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>1994-Q2</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>1994-Q3</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>1994-Q4</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>1995-Q1</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>1995-Q2</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>1995-Q3</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>1995-Q4</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>1996-Q1</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>1996-Q2</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>1996-Q3</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>1996-Q4</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>1997-Q1</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>1997-Q2</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>1997-Q3</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>1997-Q4</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>1998-Q1</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>1998-Q2</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>1998-Q3</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>1998-Q4</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>1999-Q1</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>1999-Q2</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>1999-Q3</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
+          <t>1999-Q4</t>
+        </is>
+      </c>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>2000-Q1</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
+          <t>2000-Q2</t>
+        </is>
+      </c>
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
+          <t>2000-Q3</t>
+        </is>
+      </c>
+      <c r="CC1" s="1" t="inlineStr">
+        <is>
+          <t>2000-Q4</t>
+        </is>
+      </c>
+      <c r="CD1" s="1" t="inlineStr">
+        <is>
+          <t>2001-Q1</t>
+        </is>
+      </c>
+      <c r="CE1" s="1" t="inlineStr">
+        <is>
+          <t>2001-Q2</t>
+        </is>
+      </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>2001-Q3</t>
+        </is>
+      </c>
+      <c r="CG1" s="1" t="inlineStr">
+        <is>
+          <t>2001-Q4</t>
+        </is>
+      </c>
+      <c r="CH1" s="1" t="inlineStr">
+        <is>
+          <t>2002-Q1</t>
+        </is>
+      </c>
+      <c r="CI1" s="1" t="inlineStr">
+        <is>
+          <t>2002-Q2</t>
+        </is>
+      </c>
+      <c r="CJ1" s="1" t="inlineStr">
+        <is>
+          <t>2002-Q3</t>
+        </is>
+      </c>
+      <c r="CK1" s="1" t="inlineStr">
+        <is>
+          <t>2002-Q4</t>
+        </is>
+      </c>
+      <c r="CL1" s="1" t="inlineStr">
+        <is>
+          <t>2003-Q1</t>
+        </is>
+      </c>
+      <c r="CM1" s="1" t="inlineStr">
+        <is>
+          <t>2003-Q2</t>
+        </is>
+      </c>
+      <c r="CN1" s="1" t="inlineStr">
+        <is>
+          <t>2003-Q3</t>
+        </is>
+      </c>
+      <c r="CO1" s="1" t="inlineStr">
+        <is>
+          <t>2003-Q4</t>
+        </is>
+      </c>
+      <c r="CP1" s="1" t="inlineStr">
+        <is>
+          <t>2004-Q1</t>
+        </is>
+      </c>
+      <c r="CQ1" s="1" t="inlineStr">
+        <is>
+          <t>2004-Q2</t>
+        </is>
+      </c>
+      <c r="CR1" s="1" t="inlineStr">
+        <is>
+          <t>2004-Q3</t>
+        </is>
+      </c>
+      <c r="CS1" s="1" t="inlineStr">
+        <is>
+          <t>2004-Q4</t>
+        </is>
+      </c>
+      <c r="CT1" s="1" t="inlineStr">
+        <is>
+          <t>2005-Q1</t>
+        </is>
+      </c>
+      <c r="CU1" s="1" t="inlineStr">
+        <is>
+          <t>2005-Q2</t>
+        </is>
+      </c>
+      <c r="CV1" s="1" t="inlineStr">
+        <is>
+          <t>2005-Q3</t>
+        </is>
+      </c>
+      <c r="CW1" s="1" t="inlineStr">
+        <is>
+          <t>2005-Q4</t>
+        </is>
+      </c>
+      <c r="CX1" s="1" t="inlineStr">
+        <is>
+          <t>2006-Q1</t>
+        </is>
+      </c>
+      <c r="CY1" s="1" t="inlineStr">
+        <is>
+          <t>2006-Q2</t>
+        </is>
+      </c>
+      <c r="CZ1" s="1" t="inlineStr">
+        <is>
+          <t>2006-Q3</t>
+        </is>
+      </c>
+      <c r="DA1" s="1" t="inlineStr">
+        <is>
+          <t>2006-Q4</t>
+        </is>
+      </c>
+      <c r="DB1" s="1" t="inlineStr">
+        <is>
+          <t>2007-Q1</t>
+        </is>
+      </c>
+      <c r="DC1" s="1" t="inlineStr">
+        <is>
+          <t>2007-Q2</t>
+        </is>
+      </c>
+      <c r="DD1" s="1" t="inlineStr">
+        <is>
+          <t>2007-Q3</t>
+        </is>
+      </c>
+      <c r="DE1" s="1" t="inlineStr">
+        <is>
+          <t>2007-Q4</t>
+        </is>
+      </c>
+      <c r="DF1" s="1" t="inlineStr">
+        <is>
+          <t>2008-Q1</t>
+        </is>
+      </c>
+      <c r="DG1" s="1" t="inlineStr">
+        <is>
+          <t>2008-Q2</t>
+        </is>
+      </c>
+      <c r="DH1" s="1" t="inlineStr">
+        <is>
+          <t>2008-Q3</t>
+        </is>
+      </c>
+      <c r="DI1" s="1" t="inlineStr">
+        <is>
+          <t>2008-Q4</t>
+        </is>
+      </c>
+      <c r="DJ1" s="1" t="inlineStr">
+        <is>
+          <t>2009-Q1</t>
+        </is>
+      </c>
+      <c r="DK1" s="1" t="inlineStr">
+        <is>
+          <t>2009-Q2</t>
+        </is>
+      </c>
+      <c r="DL1" s="1" t="inlineStr">
+        <is>
+          <t>2009-Q3</t>
+        </is>
+      </c>
+      <c r="DM1" s="1" t="inlineStr">
+        <is>
+          <t>2009-Q4</t>
+        </is>
+      </c>
+      <c r="DN1" s="1" t="inlineStr">
+        <is>
+          <t>2010-Q1</t>
+        </is>
+      </c>
+      <c r="DO1" s="1" t="inlineStr">
+        <is>
+          <t>2010-Q2</t>
+        </is>
+      </c>
+      <c r="DP1" s="1" t="inlineStr">
+        <is>
+          <t>2010-Q3</t>
+        </is>
+      </c>
+      <c r="DQ1" s="1" t="inlineStr">
+        <is>
+          <t>2010-Q4</t>
+        </is>
+      </c>
+      <c r="DR1" s="1" t="inlineStr">
+        <is>
+          <t>2011-Q1</t>
+        </is>
+      </c>
+      <c r="DS1" s="1" t="inlineStr">
+        <is>
+          <t>2011-Q2</t>
+        </is>
+      </c>
+      <c r="DT1" s="1" t="inlineStr">
+        <is>
+          <t>2011-Q3</t>
+        </is>
+      </c>
+      <c r="DU1" s="1" t="inlineStr">
+        <is>
+          <t>2011-Q4</t>
+        </is>
+      </c>
+      <c r="DV1" s="1" t="inlineStr">
+        <is>
+          <t>2012-Q1</t>
+        </is>
+      </c>
+      <c r="DW1" s="1" t="inlineStr">
+        <is>
+          <t>2012-Q2</t>
+        </is>
+      </c>
+      <c r="DX1" s="1" t="inlineStr">
+        <is>
+          <t>2012-Q3</t>
+        </is>
+      </c>
+      <c r="DY1" s="1" t="inlineStr">
+        <is>
+          <t>2012-Q4</t>
+        </is>
+      </c>
+      <c r="DZ1" s="1" t="inlineStr">
+        <is>
+          <t>2013-Q1</t>
+        </is>
+      </c>
+      <c r="EA1" s="1" t="inlineStr">
+        <is>
+          <t>2013-Q2</t>
+        </is>
+      </c>
+      <c r="EB1" s="1" t="inlineStr">
+        <is>
+          <t>2013-Q3</t>
+        </is>
+      </c>
+      <c r="EC1" s="1" t="inlineStr">
+        <is>
+          <t>2013-Q4</t>
+        </is>
+      </c>
+      <c r="ED1" s="1" t="inlineStr">
+        <is>
+          <t>2014-Q1</t>
+        </is>
+      </c>
+      <c r="EE1" s="1" t="inlineStr">
+        <is>
+          <t>2014-Q2</t>
+        </is>
+      </c>
+      <c r="EF1" s="1" t="inlineStr">
+        <is>
+          <t>2014-Q3</t>
+        </is>
+      </c>
+      <c r="EG1" s="1" t="inlineStr">
+        <is>
+          <t>2014-Q4</t>
+        </is>
+      </c>
+      <c r="EH1" s="1" t="inlineStr">
+        <is>
+          <t>2015-Q1</t>
+        </is>
+      </c>
+      <c r="EI1" s="1" t="inlineStr">
+        <is>
+          <t>2015-Q2</t>
+        </is>
+      </c>
+      <c r="EJ1" s="1" t="inlineStr">
+        <is>
+          <t>2015-Q3</t>
+        </is>
+      </c>
+      <c r="EK1" s="1" t="inlineStr">
+        <is>
+          <t>2015-Q4</t>
+        </is>
+      </c>
+      <c r="EL1" s="1" t="inlineStr">
+        <is>
+          <t>2016-Q1</t>
+        </is>
+      </c>
+      <c r="EM1" s="1" t="inlineStr">
+        <is>
+          <t>2016-Q2</t>
+        </is>
+      </c>
+      <c r="EN1" s="1" t="inlineStr">
+        <is>
+          <t>2016-Q3</t>
+        </is>
+      </c>
+      <c r="EO1" s="1" t="inlineStr">
+        <is>
+          <t>2016-Q4</t>
+        </is>
+      </c>
+      <c r="EP1" s="1" t="inlineStr">
+        <is>
+          <t>2017-Q1</t>
+        </is>
+      </c>
+      <c r="EQ1" s="1" t="inlineStr">
+        <is>
+          <t>2017-Q2</t>
+        </is>
+      </c>
+      <c r="ER1" s="1" t="inlineStr">
+        <is>
+          <t>2017-Q3</t>
+        </is>
+      </c>
+      <c r="ES1" s="1" t="inlineStr">
+        <is>
+          <t>2017-Q4</t>
+        </is>
+      </c>
+      <c r="ET1" s="1" t="inlineStr">
+        <is>
+          <t>2018-Q1</t>
+        </is>
+      </c>
+      <c r="EU1" s="1" t="inlineStr">
+        <is>
+          <t>2018-Q2</t>
+        </is>
+      </c>
+      <c r="EV1" s="1" t="inlineStr">
+        <is>
+          <t>2018-Q3</t>
+        </is>
+      </c>
+      <c r="EW1" s="1" t="inlineStr">
+        <is>
+          <t>2018-Q4</t>
+        </is>
+      </c>
+      <c r="EX1" s="1" t="inlineStr">
+        <is>
+          <t>2019-Q1</t>
+        </is>
+      </c>
+      <c r="EY1" s="1" t="inlineStr">
+        <is>
+          <t>2019-Q2</t>
+        </is>
+      </c>
+      <c r="EZ1" s="1" t="inlineStr">
+        <is>
+          <t>2019-Q3</t>
+        </is>
+      </c>
+      <c r="FA1" s="1" t="inlineStr">
+        <is>
+          <t>2019-Q4</t>
+        </is>
+      </c>
+      <c r="FB1" s="1" t="inlineStr">
+        <is>
+          <t>2020-Q1</t>
+        </is>
+      </c>
+      <c r="FC1" s="1" t="inlineStr">
+        <is>
+          <t>2020-Q2</t>
+        </is>
+      </c>
+      <c r="FD1" s="1" t="inlineStr">
+        <is>
+          <t>2020-Q3</t>
+        </is>
+      </c>
+      <c r="FE1" s="1" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="FF1" s="1" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="FG1" s="1" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="FH1" s="1" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="FI1" s="1" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="FJ1" s="1" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="FK1" s="1" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="FL1" s="1" t="inlineStr">
+        <is>
+          <t>2022-Q3</t>
+        </is>
+      </c>
+      <c r="FM1" s="1" t="inlineStr">
+        <is>
+          <t>2022-Q4</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:169">
-      <c r="A2" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B2">
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Industry</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>32585.5350534093</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>34045.757419019</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>33733.2658792521</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>37567.9664983193</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="n">
         <v>36380.6400781725</v>
       </c>
-      <c r="G2">
+      <c r="G2" t="n">
         <v>38762.7168905191</v>
       </c>
-      <c r="H2">
+      <c r="H2" t="n">
         <v>37300.3173672574</v>
       </c>
-      <c r="I2">
+      <c r="I2" t="n">
         <v>41466.5858840506</v>
       </c>
-      <c r="J2">
+      <c r="J2" t="n">
         <v>40932.2664713195</v>
       </c>
-      <c r="K2">
+      <c r="K2" t="n">
         <v>46252.4780634588</v>
       </c>
-      <c r="L2">
+      <c r="L2" t="n">
         <v>42266.0461682928</v>
       </c>
-      <c r="M2">
+      <c r="M2" t="n">
         <v>51384.2252669285</v>
       </c>
-      <c r="N2">
+      <c r="N2" t="n">
         <v>58060.0942752413</v>
       </c>
-      <c r="O2">
+      <c r="O2" t="n">
         <v>63015.208164445</v>
       </c>
-      <c r="P2">
+      <c r="P2" t="n">
         <v>59889.1706133713</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" t="n">
         <v>68578.92671694209</v>
       </c>
-      <c r="R2">
+      <c r="R2" t="n">
         <v>61872.1229280251</v>
       </c>
-      <c r="S2">
+      <c r="S2" t="n">
         <v>64975.9387109214</v>
       </c>
-      <c r="T2">
+      <c r="T2" t="n">
         <v>60569.5670534654</v>
       </c>
-      <c r="U2">
+      <c r="U2" t="n">
         <v>65232.8596975877</v>
       </c>
-      <c r="V2">
+      <c r="V2" t="n">
         <v>62870.0333311735</v>
       </c>
-      <c r="W2">
+      <c r="W2" t="n">
         <v>67731.0338601547</v>
       </c>
-      <c r="X2">
+      <c r="X2" t="n">
         <v>66832.20955833291</v>
       </c>
-      <c r="Y2">
+      <c r="Y2" t="n">
         <v>67963.49926033799</v>
       </c>
-      <c r="Z2">
+      <c r="Z2" t="n">
         <v>64401.9720493194</v>
       </c>
-      <c r="AA2">
+      <c r="AA2" t="n">
         <v>72609.81233502099</v>
       </c>
-      <c r="AB2">
+      <c r="AB2" t="n">
         <v>80640.2067322581</v>
       </c>
-      <c r="AC2">
+      <c r="AC2" t="n">
         <v>79031.8286634008</v>
       </c>
-      <c r="AD2">
+      <c r="AD2" t="n">
         <v>79632.81854859579</v>
       </c>
-      <c r="AE2">
+      <c r="AE2" t="n">
         <v>83005.1510722622</v>
       </c>
-      <c r="AF2">
+      <c r="AF2" t="n">
         <v>87758.24743662419</v>
       </c>
-      <c r="AG2">
+      <c r="AG2" t="n">
         <v>103762.044972517</v>
       </c>
-      <c r="AH2">
+      <c r="AH2" t="n">
         <v>87852.96216110339</v>
       </c>
-      <c r="AI2">
+      <c r="AI2" t="n">
         <v>93844.0059729926</v>
       </c>
-      <c r="AJ2">
+      <c r="AJ2" t="n">
         <v>99061.6040965826</v>
       </c>
-      <c r="AK2">
+      <c r="AK2" t="n">
         <v>126682.21434932</v>
       </c>
-      <c r="AL2">
+      <c r="AL2" t="n">
         <v>105514.788516964</v>
       </c>
-      <c r="AM2">
+      <c r="AM2" t="n">
         <v>108161.030422496</v>
       </c>
-      <c r="AN2">
+      <c r="AN2" t="n">
         <v>114680.592514075</v>
       </c>
-      <c r="AO2">
+      <c r="AO2" t="n">
         <v>140309.090766464</v>
       </c>
-      <c r="AP2">
+      <c r="AP2" t="n">
         <v>120413.906012448</v>
       </c>
-      <c r="AQ2">
+      <c r="AQ2" t="n">
         <v>126633.856846532</v>
       </c>
-      <c r="AR2">
+      <c r="AR2" t="n">
         <v>135561.706562185</v>
       </c>
-      <c r="AS2">
+      <c r="AS2" t="n">
         <v>153293.460258835</v>
       </c>
-      <c r="AT2">
+      <c r="AT2" t="n">
         <v>134230.866173026</v>
       </c>
-      <c r="AU2">
+      <c r="AU2" t="n">
         <v>133105.888093941</v>
       </c>
-      <c r="AV2">
+      <c r="AV2" t="n">
         <v>142964.16653883</v>
       </c>
-      <c r="AW2">
+      <c r="AW2" t="n">
         <v>151704.698514202</v>
       </c>
-      <c r="AX2">
+      <c r="AX2" t="n">
         <v>136651.933131843</v>
       </c>
-      <c r="AY2">
+      <c r="AY2" t="n">
         <v>143557.374127968</v>
       </c>
-      <c r="AZ2">
+      <c r="AZ2" t="n">
         <v>160783.717937592</v>
       </c>
-      <c r="BA2">
+      <c r="BA2" t="n">
         <v>169705.732892595</v>
       </c>
-      <c r="BB2">
+      <c r="BB2" t="n">
         <v>158297.253934867</v>
       </c>
-      <c r="BC2">
+      <c r="BC2" t="n">
         <v>164731.687464923</v>
       </c>
-      <c r="BD2">
+      <c r="BD2" t="n">
         <v>179284.052966456</v>
       </c>
-      <c r="BE2">
+      <c r="BE2" t="n">
         <v>196609.486873752</v>
       </c>
-      <c r="BF2">
+      <c r="BF2" t="n">
         <v>175902.283666344</v>
       </c>
-      <c r="BG2">
+      <c r="BG2" t="n">
         <v>183451.476088143</v>
       </c>
-      <c r="BH2">
+      <c r="BH2" t="n">
         <v>199573.538828481</v>
       </c>
-      <c r="BI2">
+      <c r="BI2" t="n">
         <v>217342.605297031</v>
       </c>
-      <c r="BJ2">
+      <c r="BJ2" t="n">
         <v>203143.896108222</v>
       </c>
-      <c r="BK2">
+      <c r="BK2" t="n">
         <v>209748.463144641</v>
       </c>
-      <c r="BL2">
+      <c r="BL2" t="n">
         <v>228036.016440876</v>
       </c>
-      <c r="BM2">
+      <c r="BM2" t="n">
         <v>244004.483426257</v>
       </c>
-      <c r="BN2">
+      <c r="BN2" t="n">
         <v>222510.34489605</v>
       </c>
-      <c r="BO2">
+      <c r="BO2" t="n">
         <v>234498.388233899</v>
       </c>
-      <c r="BP2">
+      <c r="BP2" t="n">
         <v>254107.904424462</v>
       </c>
-      <c r="BQ2">
+      <c r="BQ2" t="n">
         <v>277887.456845587</v>
       </c>
-      <c r="BR2">
+      <c r="BR2" t="n">
         <v>250858.703588419</v>
       </c>
-      <c r="BS2">
+      <c r="BS2" t="n">
         <v>256837.12170314</v>
       </c>
-      <c r="BT2">
+      <c r="BT2" t="n">
         <v>270663.501557063</v>
       </c>
-      <c r="BU2">
+      <c r="BU2" t="n">
         <v>284259.358881376</v>
       </c>
-      <c r="BV2">
+      <c r="BV2" t="n">
         <v>253359.735273989</v>
       </c>
-      <c r="BW2">
+      <c r="BW2" t="n">
         <v>269391.955454857</v>
       </c>
-      <c r="BX2">
+      <c r="BX2" t="n">
         <v>291679.294065415</v>
       </c>
-      <c r="BY2">
+      <c r="BY2" t="n">
         <v>308708.226685737</v>
       </c>
-      <c r="BZ2">
+      <c r="BZ2" t="n">
         <v>300292.026211</v>
       </c>
-      <c r="CA2">
+      <c r="CA2" t="n">
         <v>309328.314065</v>
       </c>
-      <c r="CB2">
+      <c r="CB2" t="n">
         <v>335168.647315</v>
       </c>
-      <c r="CC2">
+      <c r="CC2" t="n">
         <v>348441.82473</v>
       </c>
-      <c r="CD2">
+      <c r="CD2" t="n">
         <v>331235.330932</v>
       </c>
-      <c r="CE2">
+      <c r="CE2" t="n">
         <v>344364.998509</v>
       </c>
-      <c r="CF2">
+      <c r="CF2" t="n">
         <v>360535.011324</v>
       </c>
-      <c r="CG2">
+      <c r="CG2" t="n">
         <v>368283.917831</v>
       </c>
-      <c r="CH2">
+      <c r="CH2" t="n">
         <v>354214.147095</v>
       </c>
-      <c r="CI2">
+      <c r="CI2" t="n">
         <v>379154.930833</v>
       </c>
-      <c r="CJ2">
+      <c r="CJ2" t="n">
         <v>374921.696654</v>
       </c>
-      <c r="CK2">
+      <c r="CK2" t="n">
         <v>404983.367324</v>
       </c>
-      <c r="CL2">
+      <c r="CL2" t="n">
         <v>390009.564193</v>
       </c>
-      <c r="CM2">
+      <c r="CM2" t="n">
         <v>394203.842565</v>
       </c>
-      <c r="CN2">
+      <c r="CN2" t="n">
         <v>406599.962367</v>
       </c>
-      <c r="CO2">
+      <c r="CO2" t="n">
         <v>438744.448813</v>
       </c>
-      <c r="CP2">
+      <c r="CP2" t="n">
         <v>425101.855728</v>
       </c>
-      <c r="CQ2">
+      <c r="CQ2" t="n">
         <v>433020.413733</v>
       </c>
-      <c r="CR2">
+      <c r="CR2" t="n">
         <v>434185.159444</v>
       </c>
-      <c r="CS2">
+      <c r="CS2" t="n">
         <v>497519.742746</v>
       </c>
-      <c r="CT2">
+      <c r="CT2" t="n">
         <v>461941.294894</v>
       </c>
-      <c r="CU2">
+      <c r="CU2" t="n">
         <v>489655.488979</v>
       </c>
-      <c r="CV2">
+      <c r="CV2" t="n">
         <v>489238.404741</v>
       </c>
-      <c r="CW2">
+      <c r="CW2" t="n">
         <v>560015.494801</v>
       </c>
-      <c r="CX2">
+      <c r="CX2" t="n">
         <v>504968.340806</v>
       </c>
-      <c r="CY2">
+      <c r="CY2" t="n">
         <v>535150.2965769999</v>
       </c>
-      <c r="CZ2">
+      <c r="CZ2" t="n">
         <v>539872.509586</v>
       </c>
-      <c r="DA2">
+      <c r="DA2" t="n">
         <v>611947.7689190001</v>
       </c>
-      <c r="DB2">
+      <c r="DB2" t="n">
         <v>558338.700129</v>
       </c>
-      <c r="DC2">
+      <c r="DC2" t="n">
         <v>592799.298451</v>
       </c>
-      <c r="DD2">
+      <c r="DD2" t="n">
         <v>572735.419175</v>
       </c>
-      <c r="DE2">
+      <c r="DE2" t="n">
         <v>651609.367274</v>
       </c>
-      <c r="DF2">
+      <c r="DF2" t="n">
         <v>580476.047803</v>
       </c>
-      <c r="DG2">
+      <c r="DG2" t="n">
         <v>646197.206482</v>
       </c>
-      <c r="DH2">
+      <c r="DH2" t="n">
         <v>670920.572697</v>
       </c>
-      <c r="DI2">
+      <c r="DI2" t="n">
         <v>740077.624003</v>
       </c>
-      <c r="DJ2">
+      <c r="DJ2" t="n">
         <v>592715.907983</v>
       </c>
-      <c r="DK2">
+      <c r="DK2" t="n">
         <v>642507.14113</v>
       </c>
-      <c r="DL2">
+      <c r="DL2" t="n">
         <v>635073.4804229999</v>
       </c>
-      <c r="DM2">
+      <c r="DM2" t="n">
         <v>774577.655177</v>
       </c>
-      <c r="DN2">
+      <c r="DN2" t="n">
         <v>706382.096134</v>
       </c>
-      <c r="DO2">
+      <c r="DO2" t="n">
         <v>771272.9085350001</v>
       </c>
-      <c r="DP2">
+      <c r="DP2" t="n">
         <v>708172.040702</v>
       </c>
-      <c r="DQ2">
+      <c r="DQ2" t="n">
         <v>853913.600517</v>
       </c>
-      <c r="DR2">
+      <c r="DR2" t="n">
         <v>777912.034737</v>
       </c>
-      <c r="DS2">
+      <c r="DS2" t="n">
         <v>789832.930931</v>
       </c>
-      <c r="DT2">
+      <c r="DT2" t="n">
         <v>720849.782304</v>
       </c>
-      <c r="DU2">
+      <c r="DU2" t="n">
         <v>890608.484606</v>
       </c>
-      <c r="DV2">
+      <c r="DV2" t="n">
         <v>838650.469159</v>
       </c>
-      <c r="DW2">
+      <c r="DW2" t="n">
         <v>851319.856102</v>
       </c>
-      <c r="DX2">
+      <c r="DX2" t="n">
         <v>788776.641879</v>
       </c>
-      <c r="DY2">
+      <c r="DY2" t="n">
         <v>994221.888666</v>
       </c>
-      <c r="DZ2">
+      <c r="DZ2" t="n">
         <v>915358.1770960001</v>
       </c>
-      <c r="EA2">
+      <c r="EA2" t="n">
         <v>910317.809491</v>
       </c>
-      <c r="EB2">
+      <c r="EB2" t="n">
         <v>830453.996152</v>
       </c>
-      <c r="EC2">
+      <c r="EC2" t="n">
         <v>1052493.522174</v>
       </c>
-      <c r="ED2">
+      <c r="ED2" t="n">
         <v>975512.287228</v>
       </c>
-      <c r="EE2">
+      <c r="EE2" t="n">
         <v>1011588.178739</v>
       </c>
-      <c r="EF2">
+      <c r="EF2" t="n">
         <v>926095.981771</v>
       </c>
-      <c r="EG2">
+      <c r="EG2" t="n">
         <v>1187186.220617</v>
       </c>
-      <c r="EH2">
+      <c r="EH2" t="n">
         <v>1016199.851833</v>
       </c>
-      <c r="EI2">
+      <c r="EI2" t="n">
         <v>1060893.605481</v>
       </c>
-      <c r="EJ2">
+      <c r="EJ2" t="n">
         <v>930320.793961</v>
       </c>
-      <c r="EK2">
+      <c r="EK2" t="n">
         <v>1243036.987045</v>
       </c>
-      <c r="EL2">
+      <c r="EL2" t="n">
         <v>1073676.996095</v>
       </c>
-      <c r="EM2">
+      <c r="EM2" t="n">
         <v>1132468.604269</v>
       </c>
-      <c r="EN2">
+      <c r="EN2" t="n">
         <v>1027087.566552</v>
       </c>
-      <c r="EO2">
+      <c r="EO2" t="n">
         <v>1349747.350568</v>
       </c>
-      <c r="EP2">
+      <c r="EP2" t="n">
         <v>1156906.457908</v>
       </c>
-      <c r="EQ2">
+      <c r="EQ2" t="n">
         <v>1234692.453956</v>
       </c>
-      <c r="ER2">
+      <c r="ER2" t="n">
         <v>1139951.327825</v>
       </c>
-      <c r="ES2">
+      <c r="ES2" t="n">
         <v>1456397.62274</v>
       </c>
-      <c r="ET2">
+      <c r="ET2" t="n">
         <v>1275597.543561</v>
       </c>
-      <c r="EU2">
+      <c r="EU2" t="n">
         <v>1381005.349029</v>
       </c>
-      <c r="EV2">
+      <c r="EV2" t="n">
         <v>1283471.429576</v>
       </c>
-      <c r="EW2">
+      <c r="EW2" t="n">
         <v>1642450.967151</v>
       </c>
-      <c r="EX2">
+      <c r="EX2" t="n">
         <v>1371767.500472</v>
       </c>
-      <c r="EY2">
+      <c r="EY2" t="n">
         <v>1441554.317329</v>
       </c>
-      <c r="EZ2">
+      <c r="EZ2" t="n">
         <v>1342483.712753</v>
       </c>
-      <c r="FA2">
+      <c r="FA2" t="n">
         <v>1763475.960751</v>
       </c>
-      <c r="FB2">
+      <c r="FB2" t="n">
         <v>1317902.358293</v>
       </c>
-      <c r="FC2">
+      <c r="FC2" t="n">
         <v>1146187.203699</v>
       </c>
-      <c r="FD2">
+      <c r="FD2" t="n">
         <v>1053048.792534</v>
       </c>
-      <c r="FE2">
+      <c r="FE2" t="n">
         <v>1581093.744576</v>
       </c>
-      <c r="FF2">
+      <c r="FF2" t="n">
         <v>1241803.439311</v>
       </c>
-      <c r="FG2">
+      <c r="FG2" t="n">
         <v>1432448.383122</v>
       </c>
-      <c r="FH2">
+      <c r="FH2" t="n">
         <v>1171955.402909</v>
       </c>
-      <c r="FI2">
+      <c r="FI2" t="n">
         <v>1760803.306591</v>
       </c>
-      <c r="FJ2">
+      <c r="FJ2" t="n">
         <v>1482187.906581</v>
       </c>
-      <c r="FK2" t="s">
-        <v>178</v>
-      </c>
-      <c r="FL2" t="s">
-        <v>178</v>
-      </c>
-      <c r="FM2" t="s">
-        <v>178</v>
+      <c r="FK2" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+      <c r="FL2" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+      <c r="FM2" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:169">
-      <c r="A3" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C3">
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Mining and quarrying</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="n">
         <v>1297</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>1305</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>1335</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="n">
         <v>1236</v>
       </c>
-      <c r="G3">
+      <c r="G3" t="n">
         <v>1231</v>
       </c>
-      <c r="H3">
+      <c r="H3" t="n">
         <v>1064</v>
       </c>
-      <c r="I3">
+      <c r="I3" t="n">
         <v>1205</v>
       </c>
-      <c r="J3">
+      <c r="J3" t="n">
         <v>1382</v>
       </c>
-      <c r="K3">
+      <c r="K3" t="n">
         <v>1499</v>
       </c>
-      <c r="L3">
+      <c r="L3" t="n">
         <v>1540</v>
       </c>
-      <c r="M3">
+      <c r="M3" t="n">
         <v>1633</v>
       </c>
-      <c r="N3">
+      <c r="N3" t="n">
         <v>1510</v>
       </c>
-      <c r="O3">
+      <c r="O3" t="n">
         <v>1810</v>
       </c>
-      <c r="P3">
+      <c r="P3" t="n">
         <v>1915</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" t="n">
         <v>2109</v>
       </c>
-      <c r="R3">
+      <c r="R3" t="n">
         <v>2308</v>
       </c>
-      <c r="S3">
+      <c r="S3" t="n">
         <v>3014</v>
       </c>
-      <c r="T3">
+      <c r="T3" t="n">
         <v>3061</v>
       </c>
-      <c r="U3">
+      <c r="U3" t="n">
         <v>3002</v>
       </c>
-      <c r="V3">
+      <c r="V3" t="n">
         <v>2816</v>
       </c>
-      <c r="W3">
+      <c r="W3" t="n">
         <v>3721</v>
       </c>
-      <c r="X3">
+      <c r="X3" t="n">
         <v>3640</v>
       </c>
-      <c r="Y3">
+      <c r="Y3" t="n">
         <v>3411</v>
       </c>
-      <c r="Z3">
+      <c r="Z3" t="n">
         <v>3372</v>
       </c>
-      <c r="AA3">
+      <c r="AA3" t="n">
         <v>3283</v>
       </c>
-      <c r="AB3">
+      <c r="AB3" t="n">
         <v>3853</v>
       </c>
-      <c r="AC3">
+      <c r="AC3" t="n">
         <v>3655</v>
       </c>
-      <c r="AD3">
+      <c r="AD3" t="n">
         <v>3563</v>
       </c>
-      <c r="AE3">
+      <c r="AE3" t="n">
         <v>3475</v>
       </c>
-      <c r="AF3">
+      <c r="AF3" t="n">
         <v>4117</v>
       </c>
-      <c r="AG3">
+      <c r="AG3" t="n">
         <v>3826</v>
       </c>
-      <c r="AH3">
+      <c r="AH3" t="n">
         <v>3857</v>
       </c>
-      <c r="AI3">
+      <c r="AI3" t="n">
         <v>3822</v>
       </c>
-      <c r="AJ3">
+      <c r="AJ3" t="n">
         <v>3721</v>
       </c>
-      <c r="AK3">
+      <c r="AK3" t="n">
         <v>3624</v>
       </c>
-      <c r="AL3">
+      <c r="AL3" t="n">
         <v>4279</v>
       </c>
-      <c r="AM3">
+      <c r="AM3" t="n">
         <v>4177</v>
       </c>
-      <c r="AN3">
+      <c r="AN3" t="n">
         <v>4055</v>
       </c>
-      <c r="AO3">
+      <c r="AO3" t="n">
         <v>3771</v>
       </c>
-      <c r="AP3">
+      <c r="AP3" t="n">
         <v>4656</v>
       </c>
-      <c r="AQ3">
+      <c r="AQ3" t="n">
         <v>3800</v>
       </c>
-      <c r="AR3">
+      <c r="AR3" t="n">
         <v>4555</v>
       </c>
-      <c r="AS3">
+      <c r="AS3" t="n">
         <v>4438</v>
       </c>
-      <c r="AT3">
+      <c r="AT3" t="n">
         <v>4711</v>
       </c>
-      <c r="AU3">
+      <c r="AU3" t="n">
         <v>3891</v>
       </c>
-      <c r="AV3">
+      <c r="AV3" t="n">
         <v>3999</v>
       </c>
-      <c r="AW3">
+      <c r="AW3" t="n">
         <v>4556</v>
       </c>
-      <c r="AX3">
+      <c r="AX3" t="n">
         <v>3817</v>
       </c>
-      <c r="AY3">
+      <c r="AY3" t="n">
         <v>3669</v>
       </c>
-      <c r="AZ3">
+      <c r="AZ3" t="n">
         <v>4044</v>
       </c>
-      <c r="BA3">
+      <c r="BA3" t="n">
         <v>5163</v>
       </c>
-      <c r="BB3">
+      <c r="BB3" t="n">
         <v>3745</v>
       </c>
-      <c r="BC3">
+      <c r="BC3" t="n">
         <v>3979</v>
       </c>
-      <c r="BD3">
+      <c r="BD3" t="n">
         <v>4212</v>
       </c>
-      <c r="BE3">
+      <c r="BE3" t="n">
         <v>4892</v>
       </c>
-      <c r="BF3">
+      <c r="BF3" t="n">
         <v>3426</v>
       </c>
-      <c r="BG3">
+      <c r="BG3" t="n">
         <v>3791</v>
       </c>
-      <c r="BH3">
+      <c r="BH3" t="n">
         <v>3964</v>
       </c>
-      <c r="BI3">
+      <c r="BI3" t="n">
         <v>4767</v>
       </c>
-      <c r="BJ3">
+      <c r="BJ3" t="n">
         <v>4279</v>
       </c>
-      <c r="BK3">
+      <c r="BK3" t="n">
         <v>4441</v>
       </c>
-      <c r="BL3">
+      <c r="BL3" t="n">
         <v>4266</v>
       </c>
-      <c r="BM3">
+      <c r="BM3" t="n">
         <v>4679</v>
       </c>
-      <c r="BN3">
+      <c r="BN3" t="n">
         <v>3672</v>
       </c>
-      <c r="BO3">
+      <c r="BO3" t="n">
         <v>4019</v>
       </c>
-      <c r="BP3">
+      <c r="BP3" t="n">
         <v>4707</v>
       </c>
-      <c r="BQ3">
+      <c r="BQ3" t="n">
         <v>4913</v>
       </c>
-      <c r="BR3">
+      <c r="BR3" t="n">
         <v>6315.056778</v>
       </c>
-      <c r="BS3">
+      <c r="BS3" t="n">
         <v>6406.95104766454</v>
       </c>
-      <c r="BT3">
+      <c r="BT3" t="n">
         <v>7193.36663916773</v>
       </c>
-      <c r="BU3">
+      <c r="BU3" t="n">
         <v>5122.52553716773</v>
       </c>
-      <c r="BV3">
+      <c r="BV3" t="n">
         <v>5109.623237</v>
       </c>
-      <c r="BW3">
+      <c r="BW3" t="n">
         <v>5023.108399</v>
       </c>
-      <c r="BX3">
+      <c r="BX3" t="n">
         <v>5511.126138</v>
       </c>
-      <c r="BY3">
+      <c r="BY3" t="n">
         <v>5478.142225</v>
       </c>
-      <c r="BZ3">
+      <c r="BZ3" t="n">
         <v>5773.333565</v>
       </c>
-      <c r="CA3">
+      <c r="CA3" t="n">
         <v>5486.513652</v>
       </c>
-      <c r="CB3">
+      <c r="CB3" t="n">
         <v>5592.898898</v>
       </c>
-      <c r="CC3">
+      <c r="CC3" t="n">
         <v>6058.485761</v>
       </c>
-      <c r="CD3">
+      <c r="CD3" t="n">
         <v>5412.897826</v>
       </c>
-      <c r="CE3">
+      <c r="CE3" t="n">
         <v>6613.820179</v>
       </c>
-      <c r="CF3">
+      <c r="CF3" t="n">
         <v>5380.384671</v>
       </c>
-      <c r="CG3">
+      <c r="CG3" t="n">
         <v>5372.916929</v>
       </c>
-      <c r="CH3">
+      <c r="CH3" t="n">
         <v>14110.736858</v>
       </c>
-      <c r="CI3">
+      <c r="CI3" t="n">
         <v>10607.619422</v>
       </c>
-      <c r="CJ3">
+      <c r="CJ3" t="n">
         <v>8847.738308</v>
       </c>
-      <c r="CK3">
+      <c r="CK3" t="n">
         <v>7771.054432</v>
       </c>
-      <c r="CL3">
+      <c r="CL3" t="n">
         <v>11639.959053</v>
       </c>
-      <c r="CM3">
+      <c r="CM3" t="n">
         <v>12279.204593</v>
       </c>
-      <c r="CN3">
+      <c r="CN3" t="n">
         <v>13917.011576</v>
       </c>
-      <c r="CO3">
+      <c r="CO3" t="n">
         <v>14549.722911</v>
       </c>
-      <c r="CP3">
+      <c r="CP3" t="n">
         <v>14460.19994</v>
       </c>
-      <c r="CQ3">
+      <c r="CQ3" t="n">
         <v>12647.227292</v>
       </c>
-      <c r="CR3">
+      <c r="CR3" t="n">
         <v>14816.88352</v>
       </c>
-      <c r="CS3">
+      <c r="CS3" t="n">
         <v>13550.286878</v>
       </c>
-      <c r="CT3">
+      <c r="CT3" t="n">
         <v>15723.714654</v>
       </c>
-      <c r="CU3">
+      <c r="CU3" t="n">
         <v>18213.719884</v>
       </c>
-      <c r="CV3">
+      <c r="CV3" t="n">
         <v>19373.470104</v>
       </c>
-      <c r="CW3">
+      <c r="CW3" t="n">
         <v>18146.764869</v>
       </c>
-      <c r="CX3">
+      <c r="CX3" t="n">
         <v>18663.718786</v>
       </c>
-      <c r="CY3">
+      <c r="CY3" t="n">
         <v>21800.922896</v>
       </c>
-      <c r="CZ3">
+      <c r="CZ3" t="n">
         <v>21850.67975</v>
       </c>
-      <c r="DA3">
+      <c r="DA3" t="n">
         <v>17164.959644</v>
       </c>
-      <c r="DB3">
+      <c r="DB3" t="n">
         <v>24524.90556</v>
       </c>
-      <c r="DC3">
+      <c r="DC3" t="n">
         <v>31559.801328</v>
       </c>
-      <c r="DD3">
+      <c r="DD3" t="n">
         <v>23026.134339</v>
       </c>
-      <c r="DE3">
+      <c r="DE3" t="n">
         <v>19099.331534</v>
       </c>
-      <c r="DF3">
+      <c r="DF3" t="n">
         <v>23690.392973</v>
       </c>
-      <c r="DG3">
+      <c r="DG3" t="n">
         <v>26074.194834</v>
       </c>
-      <c r="DH3">
+      <c r="DH3" t="n">
         <v>26428.780494</v>
       </c>
-      <c r="DI3">
+      <c r="DI3" t="n">
         <v>22374.558058</v>
       </c>
-      <c r="DJ3">
+      <c r="DJ3" t="n">
         <v>24127.347289</v>
       </c>
-      <c r="DK3">
+      <c r="DK3" t="n">
         <v>24278.571478</v>
       </c>
-      <c r="DL3">
+      <c r="DL3" t="n">
         <v>30426.835996</v>
       </c>
-      <c r="DM3">
+      <c r="DM3" t="n">
         <v>31842.962265</v>
       </c>
-      <c r="DN3">
+      <c r="DN3" t="n">
         <v>27401.560023</v>
       </c>
-      <c r="DO3">
+      <c r="DO3" t="n">
         <v>36983.186797</v>
       </c>
-      <c r="DP3">
+      <c r="DP3" t="n">
         <v>34541.018829</v>
       </c>
-      <c r="DQ3">
+      <c r="DQ3" t="n">
         <v>36475.981023</v>
       </c>
-      <c r="DR3">
+      <c r="DR3" t="n">
         <v>40709.771657</v>
       </c>
-      <c r="DS3">
+      <c r="DS3" t="n">
         <v>46874.832733</v>
       </c>
-      <c r="DT3">
+      <c r="DT3" t="n">
         <v>34743.732295</v>
       </c>
-      <c r="DU3">
+      <c r="DU3" t="n">
         <v>29159.068383</v>
       </c>
-      <c r="DV3">
+      <c r="DV3" t="n">
         <v>33451.427982</v>
       </c>
-      <c r="DW3">
+      <c r="DW3" t="n">
         <v>42164.550998</v>
       </c>
-      <c r="DX3">
+      <c r="DX3" t="n">
         <v>29227.770904</v>
       </c>
-      <c r="DY3">
+      <c r="DY3" t="n">
         <v>26922.776882</v>
       </c>
-      <c r="DZ3">
+      <c r="DZ3" t="n">
         <v>30673.743886</v>
       </c>
-      <c r="EA3">
+      <c r="EA3" t="n">
         <v>37313.197446</v>
       </c>
-      <c r="EB3">
+      <c r="EB3" t="n">
         <v>31127.917166</v>
       </c>
-      <c r="EC3">
+      <c r="EC3" t="n">
         <v>27338.630795</v>
       </c>
-      <c r="ED3">
+      <c r="ED3" t="n">
         <v>37147.47951</v>
       </c>
-      <c r="EE3">
+      <c r="EE3" t="n">
         <v>44753.613131</v>
       </c>
-      <c r="EF3">
+      <c r="EF3" t="n">
         <v>33547.190031</v>
       </c>
-      <c r="EG3">
+      <c r="EG3" t="n">
         <v>28432.170957</v>
       </c>
-      <c r="EH3">
+      <c r="EH3" t="n">
         <v>31983.86326</v>
       </c>
-      <c r="EI3">
+      <c r="EI3" t="n">
         <v>33088.27518</v>
       </c>
-      <c r="EJ3">
+      <c r="EJ3" t="n">
         <v>27534.603748</v>
       </c>
-      <c r="EK3">
+      <c r="EK3" t="n">
         <v>27019.727305</v>
       </c>
-      <c r="EL3">
+      <c r="EL3" t="n">
         <v>32862.799463</v>
       </c>
-      <c r="EM3">
+      <c r="EM3" t="n">
         <v>30657.450395</v>
       </c>
-      <c r="EN3">
+      <c r="EN3" t="n">
         <v>32583.79223</v>
       </c>
-      <c r="EO3">
+      <c r="EO3" t="n">
         <v>29793.483863</v>
       </c>
-      <c r="EP3">
+      <c r="EP3" t="n">
         <v>34468.231488</v>
       </c>
-      <c r="EQ3">
+      <c r="EQ3" t="n">
         <v>38890.139191</v>
       </c>
-      <c r="ER3">
+      <c r="ER3" t="n">
         <v>39470.391542</v>
       </c>
-      <c r="ES3">
+      <c r="ES3" t="n">
         <v>35265.120304</v>
       </c>
-      <c r="ET3">
+      <c r="ET3" t="n">
         <v>40943.905601</v>
       </c>
-      <c r="EU3">
+      <c r="EU3" t="n">
         <v>43539.126178</v>
       </c>
-      <c r="EV3">
+      <c r="EV3" t="n">
         <v>40309.793121</v>
       </c>
-      <c r="EW3">
+      <c r="EW3" t="n">
         <v>38529.663686</v>
       </c>
-      <c r="EX3">
+      <c r="EX3" t="n">
         <v>42686.895182</v>
       </c>
-      <c r="EY3">
+      <c r="EY3" t="n">
         <v>45186.863496</v>
       </c>
-      <c r="EZ3">
+      <c r="EZ3" t="n">
         <v>37188.626399</v>
       </c>
-      <c r="FA3">
+      <c r="FA3" t="n">
         <v>36593.987995</v>
       </c>
-      <c r="FB3">
+      <c r="FB3" t="n">
         <v>33537.444408</v>
       </c>
-      <c r="FC3">
+      <c r="FC3" t="n">
         <v>32447.196612</v>
       </c>
-      <c r="FD3">
+      <c r="FD3" t="n">
         <v>34029.794544</v>
       </c>
-      <c r="FE3">
+      <c r="FE3" t="n">
         <v>37045.879761</v>
       </c>
-      <c r="FF3">
+      <c r="FF3" t="n">
         <v>42358.938017</v>
       </c>
-      <c r="FG3">
+      <c r="FG3" t="n">
         <v>48530.758339</v>
       </c>
-      <c r="FH3">
+      <c r="FH3" t="n">
         <v>47508.309366</v>
       </c>
-      <c r="FI3">
+      <c r="FI3" t="n">
         <v>46886.013877</v>
       </c>
-      <c r="FJ3">
+      <c r="FJ3" t="n">
         <v>67801.168509</v>
       </c>
-      <c r="FK3" t="s">
-        <v>178</v>
-      </c>
-      <c r="FL3" t="s">
-        <v>178</v>
-      </c>
-      <c r="FM3" t="s">
-        <v>178</v>
+      <c r="FK3" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+      <c r="FL3" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+      <c r="FM3" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
       </c>
     </row>
-    <row r="4" spans="1:169">
-      <c r="A4" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C4">
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Manufacturing</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="n">
         <v>17160</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>17115</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>17854</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="n">
         <v>19700</v>
       </c>
-      <c r="G4">
+      <c r="G4" t="n">
         <v>19056</v>
       </c>
-      <c r="H4">
+      <c r="H4" t="n">
         <v>19445</v>
       </c>
-      <c r="I4">
+      <c r="I4" t="n">
         <v>19306</v>
       </c>
-      <c r="J4">
+      <c r="J4" t="n">
         <v>21801</v>
       </c>
-      <c r="K4">
+      <c r="K4" t="n">
         <v>20199</v>
       </c>
-      <c r="L4">
+      <c r="L4" t="n">
         <v>21495</v>
       </c>
-      <c r="M4">
+      <c r="M4" t="n">
         <v>21924</v>
       </c>
-      <c r="N4">
+      <c r="N4" t="n">
         <v>25854</v>
       </c>
-      <c r="O4">
+      <c r="O4" t="n">
         <v>27932</v>
       </c>
-      <c r="P4">
+      <c r="P4" t="n">
         <v>31090</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" t="n">
         <v>32045</v>
       </c>
-      <c r="R4">
+      <c r="R4" t="n">
         <v>38104</v>
       </c>
-      <c r="S4">
+      <c r="S4" t="n">
         <v>35049</v>
       </c>
-      <c r="T4">
+      <c r="T4" t="n">
         <v>36093</v>
       </c>
-      <c r="U4">
+      <c r="U4" t="n">
         <v>34299</v>
       </c>
-      <c r="V4">
+      <c r="V4" t="n">
         <v>38410</v>
       </c>
-      <c r="W4">
+      <c r="W4" t="n">
         <v>35793</v>
       </c>
-      <c r="X4">
+      <c r="X4" t="n">
         <v>37612</v>
       </c>
-      <c r="Y4">
+      <c r="Y4" t="n">
         <v>36546</v>
       </c>
-      <c r="Z4">
+      <c r="Z4" t="n">
         <v>40007</v>
       </c>
-      <c r="AA4">
+      <c r="AA4" t="n">
         <v>38074</v>
       </c>
-      <c r="AB4">
+      <c r="AB4" t="n">
         <v>41181</v>
       </c>
-      <c r="AC4">
+      <c r="AC4" t="n">
         <v>42284</v>
       </c>
-      <c r="AD4">
+      <c r="AD4" t="n">
         <v>48088</v>
       </c>
-      <c r="AE4">
+      <c r="AE4" t="n">
         <v>46111</v>
       </c>
-      <c r="AF4">
+      <c r="AF4" t="n">
         <v>47448</v>
       </c>
-      <c r="AG4">
+      <c r="AG4" t="n">
         <v>51349</v>
       </c>
-      <c r="AH4">
+      <c r="AH4" t="n">
         <v>59876</v>
       </c>
-      <c r="AI4">
+      <c r="AI4" t="n">
         <v>51470</v>
       </c>
-      <c r="AJ4">
+      <c r="AJ4" t="n">
         <v>52937</v>
       </c>
-      <c r="AK4">
+      <c r="AK4" t="n">
         <v>57842</v>
       </c>
-      <c r="AL4">
+      <c r="AL4" t="n">
         <v>67914</v>
       </c>
-      <c r="AM4">
+      <c r="AM4" t="n">
         <v>59826</v>
       </c>
-      <c r="AN4">
+      <c r="AN4" t="n">
         <v>60549</v>
       </c>
-      <c r="AO4">
+      <c r="AO4" t="n">
         <v>67249</v>
       </c>
-      <c r="AP4">
+      <c r="AP4" t="n">
         <v>79861</v>
       </c>
-      <c r="AQ4">
+      <c r="AQ4" t="n">
         <v>73046</v>
       </c>
-      <c r="AR4">
+      <c r="AR4" t="n">
         <v>73189</v>
       </c>
-      <c r="AS4">
+      <c r="AS4" t="n">
         <v>81262</v>
       </c>
-      <c r="AT4">
+      <c r="AT4" t="n">
         <v>88441</v>
       </c>
-      <c r="AU4">
+      <c r="AU4" t="n">
         <v>78969</v>
       </c>
-      <c r="AV4">
+      <c r="AV4" t="n">
         <v>75648</v>
       </c>
-      <c r="AW4">
+      <c r="AW4" t="n">
         <v>83006</v>
       </c>
-      <c r="AX4">
+      <c r="AX4" t="n">
         <v>89216</v>
       </c>
-      <c r="AY4">
+      <c r="AY4" t="n">
         <v>78130</v>
       </c>
-      <c r="AZ4">
+      <c r="AZ4" t="n">
         <v>79645</v>
       </c>
-      <c r="BA4">
+      <c r="BA4" t="n">
         <v>92257</v>
       </c>
-      <c r="BB4">
+      <c r="BB4" t="n">
         <v>99563</v>
       </c>
-      <c r="BC4">
+      <c r="BC4" t="n">
         <v>88462</v>
       </c>
-      <c r="BD4">
+      <c r="BD4" t="n">
         <v>90676</v>
       </c>
-      <c r="BE4">
+      <c r="BE4" t="n">
         <v>102019</v>
       </c>
-      <c r="BF4">
+      <c r="BF4" t="n">
         <v>112653</v>
       </c>
-      <c r="BG4">
+      <c r="BG4" t="n">
         <v>98159</v>
       </c>
-      <c r="BH4">
+      <c r="BH4" t="n">
         <v>102096</v>
       </c>
-      <c r="BI4">
+      <c r="BI4" t="n">
         <v>112965</v>
       </c>
-      <c r="BJ4">
+      <c r="BJ4" t="n">
         <v>125027</v>
       </c>
-      <c r="BK4">
+      <c r="BK4" t="n">
         <v>113491</v>
       </c>
-      <c r="BL4">
+      <c r="BL4" t="n">
         <v>116270</v>
       </c>
-      <c r="BM4">
+      <c r="BM4" t="n">
         <v>127505</v>
       </c>
-      <c r="BN4">
+      <c r="BN4" t="n">
         <v>118701</v>
       </c>
-      <c r="BO4">
+      <c r="BO4" t="n">
         <v>126169</v>
       </c>
-      <c r="BP4">
+      <c r="BP4" t="n">
         <v>139050</v>
       </c>
-      <c r="BQ4">
+      <c r="BQ4" t="n">
         <v>156385</v>
       </c>
-      <c r="BR4">
+      <c r="BR4" t="n">
         <v>157449.511</v>
       </c>
-      <c r="BS4">
+      <c r="BS4" t="n">
         <v>162145.18</v>
       </c>
-      <c r="BT4">
+      <c r="BT4" t="n">
         <v>177938.034</v>
       </c>
-      <c r="BU4">
+      <c r="BU4" t="n">
         <v>195064.3442849</v>
       </c>
-      <c r="BV4">
+      <c r="BV4" t="n">
         <v>166845.277</v>
       </c>
-      <c r="BW4">
+      <c r="BW4" t="n">
         <v>176298.335</v>
       </c>
-      <c r="BX4">
+      <c r="BX4" t="n">
         <v>197987.699</v>
       </c>
-      <c r="BY4">
+      <c r="BY4" t="n">
         <v>220194.223915009</v>
       </c>
-      <c r="BZ4">
+      <c r="BZ4" t="n">
         <v>212973.010281</v>
       </c>
-      <c r="CA4">
+      <c r="CA4" t="n">
         <v>221099.577423</v>
       </c>
-      <c r="CB4">
+      <c r="CB4" t="n">
         <v>243288.471868</v>
       </c>
-      <c r="CC4">
+      <c r="CC4" t="n">
         <v>257365.074042</v>
       </c>
-      <c r="CD4">
+      <c r="CD4" t="n">
         <v>239903.944046</v>
       </c>
-      <c r="CE4">
+      <c r="CE4" t="n">
         <v>243285.598661</v>
       </c>
-      <c r="CF4">
+      <c r="CF4" t="n">
         <v>261975.212045</v>
       </c>
-      <c r="CG4">
+      <c r="CG4" t="n">
         <v>273472.829976</v>
       </c>
-      <c r="CH4">
+      <c r="CH4" t="n">
         <v>249642.309808</v>
       </c>
-      <c r="CI4">
+      <c r="CI4" t="n">
         <v>261649.366484</v>
       </c>
-      <c r="CJ4">
+      <c r="CJ4" t="n">
         <v>277280.828088</v>
       </c>
-      <c r="CK4">
+      <c r="CK4" t="n">
         <v>304958.474112</v>
       </c>
-      <c r="CL4">
+      <c r="CL4" t="n">
         <v>281363.169567</v>
       </c>
-      <c r="CM4">
+      <c r="CM4" t="n">
         <v>275369.297903</v>
       </c>
-      <c r="CN4">
+      <c r="CN4" t="n">
         <v>291785.895704</v>
       </c>
-      <c r="CO4">
+      <c r="CO4" t="n">
         <v>323237.835018</v>
       </c>
-      <c r="CP4">
+      <c r="CP4" t="n">
         <v>306684.034218</v>
       </c>
-      <c r="CQ4">
+      <c r="CQ4" t="n">
         <v>297778.044346</v>
       </c>
-      <c r="CR4">
+      <c r="CR4" t="n">
         <v>308665.457704</v>
       </c>
-      <c r="CS4">
+      <c r="CS4" t="n">
         <v>365248.22208</v>
       </c>
-      <c r="CT4">
+      <c r="CT4" t="n">
         <v>331317.078997</v>
       </c>
-      <c r="CU4">
+      <c r="CU4" t="n">
         <v>329830.601408</v>
       </c>
-      <c r="CV4">
+      <c r="CV4" t="n">
         <v>352725.215275</v>
       </c>
-      <c r="CW4">
+      <c r="CW4" t="n">
         <v>422245.670509</v>
       </c>
-      <c r="CX4">
+      <c r="CX4" t="n">
         <v>362336.896453</v>
       </c>
-      <c r="CY4">
+      <c r="CY4" t="n">
         <v>353738.008691</v>
       </c>
-      <c r="CZ4">
+      <c r="CZ4" t="n">
         <v>384249.172765</v>
       </c>
-      <c r="DA4">
+      <c r="DA4" t="n">
         <v>460586.960129</v>
       </c>
-      <c r="DB4">
+      <c r="DB4" t="n">
         <v>389577.294877</v>
       </c>
-      <c r="DC4">
+      <c r="DC4" t="n">
         <v>378589.1285</v>
       </c>
-      <c r="DD4">
+      <c r="DD4" t="n">
         <v>407388.143654</v>
       </c>
-      <c r="DE4">
+      <c r="DE4" t="n">
         <v>490904.743637</v>
       </c>
-      <c r="DF4">
+      <c r="DF4" t="n">
         <v>412889.694697</v>
       </c>
-      <c r="DG4">
+      <c r="DG4" t="n">
         <v>434455.853371</v>
       </c>
-      <c r="DH4">
+      <c r="DH4" t="n">
         <v>475283.665224</v>
       </c>
-      <c r="DI4">
+      <c r="DI4" t="n">
         <v>550545.2164949999</v>
       </c>
-      <c r="DJ4">
+      <c r="DJ4" t="n">
         <v>409040.439293</v>
       </c>
-      <c r="DK4">
+      <c r="DK4" t="n">
         <v>404256.795362</v>
       </c>
-      <c r="DL4">
+      <c r="DL4" t="n">
         <v>435335.006116</v>
       </c>
-      <c r="DM4">
+      <c r="DM4" t="n">
         <v>575329.1254660001</v>
       </c>
-      <c r="DN4">
+      <c r="DN4" t="n">
         <v>492383.368836</v>
       </c>
-      <c r="DO4">
+      <c r="DO4" t="n">
         <v>462901.715973</v>
       </c>
-      <c r="DP4">
+      <c r="DP4" t="n">
         <v>475001.990972</v>
       </c>
-      <c r="DQ4">
+      <c r="DQ4" t="n">
         <v>629997.4961540001</v>
       </c>
-      <c r="DR4">
+      <c r="DR4" t="n">
         <v>542361.877188</v>
       </c>
-      <c r="DS4">
+      <c r="DS4" t="n">
         <v>509005.158658</v>
       </c>
-      <c r="DT4">
+      <c r="DT4" t="n">
         <v>491717.14838</v>
       </c>
-      <c r="DU4">
+      <c r="DU4" t="n">
         <v>658746.278374</v>
       </c>
-      <c r="DV4">
+      <c r="DV4" t="n">
         <v>590471.4058140001</v>
       </c>
-      <c r="DW4">
+      <c r="DW4" t="n">
         <v>540752.780623</v>
       </c>
-      <c r="DX4">
+      <c r="DX4" t="n">
         <v>523248.035999</v>
       </c>
-      <c r="DY4">
+      <c r="DY4" t="n">
         <v>704593.34244</v>
       </c>
-      <c r="DZ4">
+      <c r="DZ4" t="n">
         <v>613570.04135</v>
       </c>
-      <c r="EA4">
+      <c r="EA4" t="n">
         <v>547903.135133</v>
       </c>
-      <c r="EB4">
+      <c r="EB4" t="n">
         <v>545052.496275</v>
       </c>
-      <c r="EC4">
+      <c r="EC4" t="n">
         <v>755952.397509</v>
       </c>
-      <c r="ED4">
+      <c r="ED4" t="n">
         <v>656219.036898</v>
       </c>
-      <c r="EE4">
+      <c r="EE4" t="n">
         <v>616392.625964</v>
       </c>
-      <c r="EF4">
+      <c r="EF4" t="n">
         <v>603565.956921</v>
       </c>
-      <c r="EG4">
+      <c r="EG4" t="n">
         <v>841138.385503</v>
       </c>
-      <c r="EH4">
+      <c r="EH4" t="n">
         <v>685149.0679500001</v>
       </c>
-      <c r="EI4">
+      <c r="EI4" t="n">
         <v>628126.893142</v>
       </c>
-      <c r="EJ4">
+      <c r="EJ4" t="n">
         <v>592308.023865</v>
       </c>
-      <c r="EK4">
+      <c r="EK4" t="n">
         <v>873210.831146</v>
       </c>
-      <c r="EL4">
+      <c r="EL4" t="n">
         <v>713257.291491</v>
       </c>
-      <c r="EM4">
+      <c r="EM4" t="n">
         <v>663887.0628590001</v>
       </c>
-      <c r="EN4">
+      <c r="EN4" t="n">
         <v>642465.2851109999</v>
       </c>
-      <c r="EO4">
+      <c r="EO4" t="n">
         <v>944869.7718399999</v>
       </c>
-      <c r="EP4">
+      <c r="EP4" t="n">
         <v>768652.738275</v>
       </c>
-      <c r="EQ4">
+      <c r="EQ4" t="n">
         <v>729100.656882</v>
       </c>
-      <c r="ER4">
+      <c r="ER4" t="n">
         <v>719727.20964</v>
       </c>
-      <c r="ES4">
+      <c r="ES4" t="n">
         <v>1011099.81006</v>
       </c>
-      <c r="ET4">
+      <c r="ET4" t="n">
         <v>823811.238172</v>
       </c>
-      <c r="EU4">
+      <c r="EU4" t="n">
         <v>789468.556543</v>
       </c>
-      <c r="EV4">
+      <c r="EV4" t="n">
         <v>779668.002459</v>
       </c>
-      <c r="EW4">
+      <c r="EW4" t="n">
         <v>1095383.383851</v>
       </c>
-      <c r="EX4">
+      <c r="EX4" t="n">
         <v>878958.105556</v>
       </c>
-      <c r="EY4">
+      <c r="EY4" t="n">
         <v>806663.294814</v>
       </c>
-      <c r="EZ4">
+      <c r="EZ4" t="n">
         <v>769222.363364</v>
       </c>
-      <c r="FA4">
+      <c r="FA4" t="n">
         <v>1159172.470369</v>
       </c>
-      <c r="FB4">
+      <c r="FB4" t="n">
         <v>822907.9932490001</v>
       </c>
-      <c r="FC4">
+      <c r="FC4" t="n">
         <v>622352.932835</v>
       </c>
-      <c r="FD4">
+      <c r="FD4" t="n">
         <v>642955.6403260001</v>
       </c>
-      <c r="FE4">
+      <c r="FE4" t="n">
         <v>1081704.436448</v>
       </c>
-      <c r="FF4">
+      <c r="FF4" t="n">
         <v>809444.432473</v>
       </c>
-      <c r="FG4">
+      <c r="FG4" t="n">
         <v>770605.750245</v>
       </c>
-      <c r="FH4">
+      <c r="FH4" t="n">
         <v>677727.856179</v>
       </c>
-      <c r="FI4">
+      <c r="FI4" t="n">
         <v>1165625.821985</v>
       </c>
-      <c r="FJ4">
+      <c r="FJ4" t="n">
         <v>945087.3827289999</v>
       </c>
-      <c r="FK4" t="s">
-        <v>178</v>
-      </c>
-      <c r="FL4" t="s">
-        <v>178</v>
-      </c>
-      <c r="FM4" t="s">
-        <v>178</v>
+      <c r="FK4" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+      <c r="FL4" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+      <c r="FM4" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
       </c>
     </row>
-    <row r="5" spans="1:169">
-      <c r="A5" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C5">
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Electricity, steam, water and waste management</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="n">
         <v>1003</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="n">
         <v>1249</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>1301</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="n">
         <v>1392</v>
       </c>
-      <c r="G5">
+      <c r="G5" t="n">
         <v>1390</v>
       </c>
-      <c r="H5">
+      <c r="H5" t="n">
         <v>1678</v>
       </c>
-      <c r="I5">
+      <c r="I5" t="n">
         <v>1597</v>
       </c>
-      <c r="J5">
+      <c r="J5" t="n">
         <v>1912</v>
       </c>
-      <c r="K5">
+      <c r="K5" t="n">
         <v>2014</v>
       </c>
-      <c r="L5">
+      <c r="L5" t="n">
         <v>2229</v>
       </c>
-      <c r="M5">
+      <c r="M5" t="n">
         <v>2342</v>
       </c>
-      <c r="N5">
+      <c r="N5" t="n">
         <v>2370</v>
       </c>
-      <c r="O5">
+      <c r="O5" t="n">
         <v>2783</v>
       </c>
-      <c r="P5">
+      <c r="P5" t="n">
         <v>3136</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" t="n">
         <v>3365</v>
       </c>
-      <c r="R5">
+      <c r="R5" t="n">
         <v>3495</v>
       </c>
-      <c r="S5">
+      <c r="S5" t="n">
         <v>3488</v>
       </c>
-      <c r="T5">
+      <c r="T5" t="n">
         <v>3951</v>
       </c>
-      <c r="U5">
+      <c r="U5" t="n">
         <v>4121</v>
       </c>
-      <c r="V5">
+      <c r="V5" t="n">
         <v>4207</v>
       </c>
-      <c r="W5">
+      <c r="W5" t="n">
         <v>4269</v>
       </c>
-      <c r="X5">
+      <c r="X5" t="n">
         <v>3941</v>
       </c>
-      <c r="Y5">
+      <c r="Y5" t="n">
         <v>4094</v>
       </c>
-      <c r="Z5">
+      <c r="Z5" t="n">
         <v>4338</v>
       </c>
-      <c r="AA5">
+      <c r="AA5" t="n">
         <v>4079</v>
       </c>
-      <c r="AB5">
+      <c r="AB5" t="n">
         <v>3143</v>
       </c>
-      <c r="AC5">
+      <c r="AC5" t="n">
         <v>3721</v>
       </c>
-      <c r="AD5">
+      <c r="AD5" t="n">
         <v>3066</v>
       </c>
-      <c r="AE5">
+      <c r="AE5" t="n">
         <v>4339</v>
       </c>
-      <c r="AF5">
+      <c r="AF5" t="n">
         <v>4547</v>
       </c>
-      <c r="AG5">
+      <c r="AG5" t="n">
         <v>4595</v>
       </c>
-      <c r="AH5">
+      <c r="AH5" t="n">
         <v>4603</v>
       </c>
-      <c r="AI5">
+      <c r="AI5" t="n">
         <v>4642</v>
       </c>
-      <c r="AJ5">
+      <c r="AJ5" t="n">
         <v>5036</v>
       </c>
-      <c r="AK5">
+      <c r="AK5" t="n">
         <v>5067</v>
       </c>
-      <c r="AL5">
+      <c r="AL5" t="n">
         <v>5329</v>
       </c>
-      <c r="AM5">
+      <c r="AM5" t="n">
         <v>5211</v>
       </c>
-      <c r="AN5">
+      <c r="AN5" t="n">
         <v>5602</v>
       </c>
-      <c r="AO5">
+      <c r="AO5" t="n">
         <v>5676</v>
       </c>
-      <c r="AP5">
+      <c r="AP5" t="n">
         <v>5811</v>
       </c>
-      <c r="AQ5">
+      <c r="AQ5" t="n">
         <v>6940</v>
       </c>
-      <c r="AR5">
+      <c r="AR5" t="n">
         <v>7688</v>
       </c>
-      <c r="AS5">
+      <c r="AS5" t="n">
         <v>7442</v>
       </c>
-      <c r="AT5">
+      <c r="AT5" t="n">
         <v>7030</v>
       </c>
-      <c r="AU5">
+      <c r="AU5" t="n">
         <v>8047</v>
       </c>
-      <c r="AV5">
+      <c r="AV5" t="n">
         <v>8295</v>
       </c>
-      <c r="AW5">
+      <c r="AW5" t="n">
         <v>8426</v>
       </c>
-      <c r="AX5">
+      <c r="AX5" t="n">
         <v>7975</v>
       </c>
-      <c r="AY5">
+      <c r="AY5" t="n">
         <v>8146</v>
       </c>
-      <c r="AZ5">
+      <c r="AZ5" t="n">
         <v>9029</v>
       </c>
-      <c r="BA5">
+      <c r="BA5" t="n">
         <v>9500</v>
       </c>
-      <c r="BB5">
+      <c r="BB5" t="n">
         <v>9742</v>
       </c>
-      <c r="BC5">
+      <c r="BC5" t="n">
         <v>10359</v>
       </c>
-      <c r="BD5">
+      <c r="BD5" t="n">
         <v>11620</v>
       </c>
-      <c r="BE5">
+      <c r="BE5" t="n">
         <v>11318</v>
       </c>
-      <c r="BF5">
+      <c r="BF5" t="n">
         <v>11598</v>
       </c>
-      <c r="BG5">
+      <c r="BG5" t="n">
         <v>11289</v>
       </c>
-      <c r="BH5">
+      <c r="BH5" t="n">
         <v>13097</v>
       </c>
-      <c r="BI5">
+      <c r="BI5" t="n">
         <v>13149</v>
       </c>
-      <c r="BJ5">
+      <c r="BJ5" t="n">
         <v>11875</v>
       </c>
-      <c r="BK5">
+      <c r="BK5" t="n">
         <v>12711</v>
       </c>
-      <c r="BL5">
+      <c r="BL5" t="n">
         <v>14374</v>
       </c>
-      <c r="BM5">
+      <c r="BM5" t="n">
         <v>15282</v>
       </c>
-      <c r="BN5">
+      <c r="BN5" t="n">
         <v>15319</v>
       </c>
-      <c r="BO5">
+      <c r="BO5" t="n">
         <v>17286</v>
       </c>
-      <c r="BP5">
+      <c r="BP5" t="n">
         <v>17023</v>
       </c>
-      <c r="BQ5">
+      <c r="BQ5" t="n">
         <v>16426</v>
       </c>
-      <c r="BR5">
+      <c r="BR5" t="n">
         <v>26600.566428</v>
       </c>
-      <c r="BS5">
+      <c r="BS5" t="n">
         <v>29693.5593249808</v>
       </c>
-      <c r="BT5">
+      <c r="BT5" t="n">
         <v>28509.7367125096</v>
       </c>
-      <c r="BU5">
+      <c r="BU5" t="n">
         <v>25258.7397259167</v>
       </c>
-      <c r="BV5">
+      <c r="BV5" t="n">
         <v>28538.45659</v>
       </c>
-      <c r="BW5">
+      <c r="BW5" t="n">
         <v>30882.289851</v>
       </c>
-      <c r="BX5">
+      <c r="BX5" t="n">
         <v>30509.524106</v>
       </c>
-      <c r="BY5">
+      <c r="BY5" t="n">
         <v>27249.1067746115</v>
       </c>
-      <c r="BZ5">
+      <c r="BZ5" t="n">
         <v>31368.218387</v>
       </c>
-      <c r="CA5">
+      <c r="CA5" t="n">
         <v>34646.201822</v>
       </c>
-      <c r="CB5">
+      <c r="CB5" t="n">
         <v>34950.237704</v>
       </c>
-      <c r="CC5">
+      <c r="CC5" t="n">
         <v>33535.117755</v>
       </c>
-      <c r="CD5">
+      <c r="CD5" t="n">
         <v>37477.087544</v>
       </c>
-      <c r="CE5">
+      <c r="CE5" t="n">
         <v>42971.575369</v>
       </c>
-      <c r="CF5">
+      <c r="CF5" t="n">
         <v>42350.099699</v>
       </c>
-      <c r="CG5">
+      <c r="CG5" t="n">
         <v>37200.896127</v>
       </c>
-      <c r="CH5">
+      <c r="CH5" t="n">
         <v>42283.860028</v>
       </c>
-      <c r="CI5">
+      <c r="CI5" t="n">
         <v>46498.21179</v>
       </c>
-      <c r="CJ5">
+      <c r="CJ5" t="n">
         <v>38047.051993</v>
       </c>
-      <c r="CK5">
+      <c r="CK5" t="n">
         <v>38540.201065</v>
       </c>
-      <c r="CL5">
+      <c r="CL5" t="n">
         <v>43169.802762</v>
       </c>
-      <c r="CM5">
+      <c r="CM5" t="n">
         <v>48477.319395</v>
       </c>
-      <c r="CN5">
+      <c r="CN5" t="n">
         <v>42050.698997</v>
       </c>
-      <c r="CO5">
+      <c r="CO5" t="n">
         <v>41494.797799</v>
       </c>
-      <c r="CP5">
+      <c r="CP5" t="n">
         <v>47230.475093</v>
       </c>
-      <c r="CQ5">
+      <c r="CQ5" t="n">
         <v>51621.054799</v>
       </c>
-      <c r="CR5">
+      <c r="CR5" t="n">
         <v>47377.227477</v>
       </c>
-      <c r="CS5">
+      <c r="CS5" t="n">
         <v>49394.325787</v>
       </c>
-      <c r="CT5">
+      <c r="CT5" t="n">
         <v>55696.727726</v>
       </c>
-      <c r="CU5">
+      <c r="CU5" t="n">
         <v>60460.448961</v>
       </c>
-      <c r="CV5">
+      <c r="CV5" t="n">
         <v>52644.521597</v>
       </c>
-      <c r="CW5">
+      <c r="CW5" t="n">
         <v>51768.809104</v>
       </c>
-      <c r="CX5">
+      <c r="CX5" t="n">
         <v>57338.13455</v>
       </c>
-      <c r="CY5">
+      <c r="CY5" t="n">
         <v>66237.05609899999</v>
       </c>
-      <c r="CZ5">
+      <c r="CZ5" t="n">
         <v>58815.808835</v>
       </c>
-      <c r="DA5">
+      <c r="DA5" t="n">
         <v>56111.599006</v>
       </c>
-      <c r="DB5">
+      <c r="DB5" t="n">
         <v>61868.139942</v>
       </c>
-      <c r="DC5">
+      <c r="DC5" t="n">
         <v>73046.90412000001</v>
       </c>
-      <c r="DD5">
+      <c r="DD5" t="n">
         <v>62392.469657</v>
       </c>
-      <c r="DE5">
+      <c r="DE5" t="n">
         <v>57987.763499</v>
       </c>
-      <c r="DF5">
+      <c r="DF5" t="n">
         <v>65714.420986</v>
       </c>
-      <c r="DG5">
+      <c r="DG5" t="n">
         <v>77701.208451</v>
       </c>
-      <c r="DH5">
+      <c r="DH5" t="n">
         <v>63490.229286</v>
       </c>
-      <c r="DI5">
+      <c r="DI5" t="n">
         <v>59796.526787</v>
       </c>
-      <c r="DJ5">
+      <c r="DJ5" t="n">
         <v>65096.875063</v>
       </c>
-      <c r="DK5">
+      <c r="DK5" t="n">
         <v>82901.227092</v>
       </c>
-      <c r="DL5">
+      <c r="DL5" t="n">
         <v>65691.213456</v>
       </c>
-      <c r="DM5">
+      <c r="DM5" t="n">
         <v>62094.90505</v>
       </c>
-      <c r="DN5">
+      <c r="DN5" t="n">
         <v>78756.58624800001</v>
       </c>
-      <c r="DO5">
+      <c r="DO5" t="n">
         <v>99762.52246199999</v>
       </c>
-      <c r="DP5">
+      <c r="DP5" t="n">
         <v>75543.171862</v>
       </c>
-      <c r="DQ5">
+      <c r="DQ5" t="n">
         <v>72070.330048</v>
       </c>
-      <c r="DR5">
+      <c r="DR5" t="n">
         <v>80587.769503</v>
       </c>
-      <c r="DS5">
+      <c r="DS5" t="n">
         <v>100457.322577</v>
       </c>
-      <c r="DT5">
+      <c r="DT5" t="n">
         <v>77949.405568</v>
       </c>
-      <c r="DU5">
+      <c r="DU5" t="n">
         <v>76339.94472499999</v>
       </c>
-      <c r="DV5">
+      <c r="DV5" t="n">
         <v>94203.92264</v>
       </c>
-      <c r="DW5">
+      <c r="DW5" t="n">
         <v>112950.761271</v>
       </c>
-      <c r="DX5">
+      <c r="DX5" t="n">
         <v>87783.584787</v>
       </c>
-      <c r="DY5">
+      <c r="DY5" t="n">
         <v>84808.65917</v>
       </c>
-      <c r="DZ5">
+      <c r="DZ5" t="n">
         <v>96266.86045599999</v>
       </c>
-      <c r="EA5">
+      <c r="EA5" t="n">
         <v>124117.274971</v>
       </c>
-      <c r="EB5">
+      <c r="EB5" t="n">
         <v>91398.64099499999</v>
       </c>
-      <c r="EC5">
+      <c r="EC5" t="n">
         <v>89599.639839</v>
       </c>
-      <c r="ED5">
+      <c r="ED5" t="n">
         <v>103691.565448</v>
       </c>
-      <c r="EE5">
+      <c r="EE5" t="n">
         <v>129006.878327</v>
       </c>
-      <c r="EF5">
+      <c r="EF5" t="n">
         <v>95551.32960899999</v>
       </c>
-      <c r="EG5">
+      <c r="EG5" t="n">
         <v>97813.48768599999</v>
       </c>
-      <c r="EH5">
+      <c r="EH5" t="n">
         <v>109098.844192</v>
       </c>
-      <c r="EI5">
+      <c r="EI5" t="n">
         <v>135963.779866</v>
       </c>
-      <c r="EJ5">
+      <c r="EJ5" t="n">
         <v>97975.528787</v>
       </c>
-      <c r="EK5">
+      <c r="EK5" t="n">
         <v>100240.999618</v>
       </c>
-      <c r="EL5">
+      <c r="EL5" t="n">
         <v>114583.208821</v>
       </c>
-      <c r="EM5">
+      <c r="EM5" t="n">
         <v>141990.306194</v>
       </c>
-      <c r="EN5">
+      <c r="EN5" t="n">
         <v>103799.736905</v>
       </c>
-      <c r="EO5">
+      <c r="EO5" t="n">
         <v>105848.486643</v>
       </c>
-      <c r="EP5">
+      <c r="EP5" t="n">
         <v>121533.085786</v>
       </c>
-      <c r="EQ5">
+      <c r="EQ5" t="n">
         <v>153229.993709</v>
       </c>
-      <c r="ER5">
+      <c r="ER5" t="n">
         <v>112114.11015</v>
       </c>
-      <c r="ES5">
+      <c r="ES5" t="n">
         <v>118241.978296</v>
       </c>
-      <c r="ET5">
+      <c r="ET5" t="n">
         <v>135973.766782</v>
       </c>
-      <c r="EU5">
+      <c r="EU5" t="n">
         <v>164329.492089</v>
       </c>
-      <c r="EV5">
+      <c r="EV5" t="n">
         <v>123364.480745</v>
       </c>
-      <c r="EW5">
+      <c r="EW5" t="n">
         <v>133362.462302</v>
       </c>
-      <c r="EX5">
+      <c r="EX5" t="n">
         <v>148193.050966</v>
       </c>
-      <c r="EY5">
+      <c r="EY5" t="n">
         <v>187148.605386</v>
       </c>
-      <c r="EZ5">
+      <c r="EZ5" t="n">
         <v>132171.469189</v>
       </c>
-      <c r="FA5">
+      <c r="FA5" t="n">
         <v>140368.357459</v>
       </c>
-      <c r="FB5">
+      <c r="FB5" t="n">
         <v>154737.365264</v>
       </c>
-      <c r="FC5">
+      <c r="FC5" t="n">
         <v>182834.487366</v>
       </c>
-      <c r="FD5">
+      <c r="FD5" t="n">
         <v>134159.403822</v>
       </c>
-      <c r="FE5">
+      <c r="FE5" t="n">
         <v>139320.090371</v>
       </c>
-      <c r="FF5">
+      <c r="FF5" t="n">
         <v>154628.852383</v>
       </c>
-      <c r="FG5">
+      <c r="FG5" t="n">
         <v>205180.62072</v>
       </c>
-      <c r="FH5">
+      <c r="FH5" t="n">
         <v>142538.548423</v>
       </c>
-      <c r="FI5">
+      <c r="FI5" t="n">
         <v>148528.366199</v>
       </c>
-      <c r="FJ5">
+      <c r="FJ5" t="n">
         <v>181251.160189</v>
       </c>
-      <c r="FK5" t="s">
-        <v>178</v>
-      </c>
-      <c r="FL5" t="s">
-        <v>178</v>
-      </c>
-      <c r="FM5" t="s">
-        <v>178</v>
+      <c r="FK5" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+      <c r="FL5" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+      <c r="FM5" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
       </c>
     </row>
-    <row r="6" spans="1:169">
-      <c r="A6" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B6">
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Construction</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>6577</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>6577</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="n">
         <v>7508</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>6642</v>
       </c>
-      <c r="F6">
+      <c r="F6" t="n">
         <v>7635</v>
       </c>
-      <c r="G6">
+      <c r="G6" t="n">
         <v>7461</v>
       </c>
-      <c r="H6">
+      <c r="H6" t="n">
         <v>8801</v>
       </c>
-      <c r="I6">
+      <c r="I6" t="n">
         <v>7932</v>
       </c>
-      <c r="J6">
+      <c r="J6" t="n">
         <v>7893</v>
       </c>
-      <c r="K6">
+      <c r="K6" t="n">
         <v>8991</v>
       </c>
-      <c r="L6">
+      <c r="L6" t="n">
         <v>11764</v>
       </c>
-      <c r="M6">
+      <c r="M6" t="n">
         <v>8079</v>
       </c>
-      <c r="N6">
+      <c r="N6" t="n">
         <v>11358</v>
       </c>
-      <c r="O6">
+      <c r="O6" t="n">
         <v>13770</v>
       </c>
-      <c r="P6">
+      <c r="P6" t="n">
         <v>13992</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" t="n">
         <v>10384</v>
       </c>
-      <c r="R6">
+      <c r="R6" t="n">
         <v>10581</v>
       </c>
-      <c r="S6">
+      <c r="S6" t="n">
         <v>7572</v>
       </c>
-      <c r="T6">
+      <c r="T6" t="n">
         <v>8412</v>
       </c>
-      <c r="U6">
+      <c r="U6" t="n">
         <v>6964</v>
       </c>
-      <c r="V6">
+      <c r="V6" t="n">
         <v>6089</v>
       </c>
-      <c r="W6">
+      <c r="W6" t="n">
         <v>6067</v>
       </c>
-      <c r="X6">
+      <c r="X6" t="n">
         <v>8457</v>
       </c>
-      <c r="Y6">
+      <c r="Y6" t="n">
         <v>9348</v>
       </c>
-      <c r="Z6">
+      <c r="Z6" t="n">
         <v>5912</v>
       </c>
-      <c r="AA6">
+      <c r="AA6" t="n">
         <v>5427</v>
       </c>
-      <c r="AB6">
+      <c r="AB6" t="n">
         <v>9246</v>
       </c>
-      <c r="AC6">
+      <c r="AC6" t="n">
         <v>14775</v>
       </c>
-      <c r="AD6">
+      <c r="AD6" t="n">
         <v>7656</v>
       </c>
-      <c r="AE6">
+      <c r="AE6" t="n">
         <v>9220</v>
       </c>
-      <c r="AF6">
+      <c r="AF6" t="n">
         <v>9479</v>
       </c>
-      <c r="AG6">
+      <c r="AG6" t="n">
         <v>10123</v>
       </c>
-      <c r="AH6">
+      <c r="AH6" t="n">
         <v>13992</v>
       </c>
-      <c r="AI6">
+      <c r="AI6" t="n">
         <v>9558</v>
       </c>
-      <c r="AJ6">
+      <c r="AJ6" t="n">
         <v>12525</v>
       </c>
-      <c r="AK6">
+      <c r="AK6" t="n">
         <v>12068</v>
       </c>
-      <c r="AL6">
+      <c r="AL6" t="n">
         <v>23130</v>
       </c>
-      <c r="AM6">
+      <c r="AM6" t="n">
         <v>14228</v>
       </c>
-      <c r="AN6">
+      <c r="AN6" t="n">
         <v>15389</v>
       </c>
-      <c r="AO6">
+      <c r="AO6" t="n">
         <v>14363</v>
       </c>
-      <c r="AP6">
+      <c r="AP6" t="n">
         <v>20923</v>
       </c>
-      <c r="AQ6">
+      <c r="AQ6" t="n">
         <v>11416</v>
       </c>
-      <c r="AR6">
+      <c r="AR6" t="n">
         <v>14845</v>
       </c>
-      <c r="AS6">
+      <c r="AS6" t="n">
         <v>14697</v>
       </c>
-      <c r="AT6">
+      <c r="AT6" t="n">
         <v>21004</v>
       </c>
-      <c r="AU6">
+      <c r="AU6" t="n">
         <v>15079</v>
       </c>
-      <c r="AV6">
+      <c r="AV6" t="n">
         <v>17246</v>
       </c>
-      <c r="AW6">
+      <c r="AW6" t="n">
         <v>17489</v>
       </c>
-      <c r="AX6">
+      <c r="AX6" t="n">
         <v>18154</v>
       </c>
-      <c r="AY6">
+      <c r="AY6" t="n">
         <v>17589</v>
       </c>
-      <c r="AZ6">
+      <c r="AZ6" t="n">
         <v>20677</v>
       </c>
-      <c r="BA6">
+      <c r="BA6" t="n">
         <v>20862</v>
       </c>
-      <c r="BB6">
+      <c r="BB6" t="n">
         <v>20139</v>
       </c>
-      <c r="BC6">
+      <c r="BC6" t="n">
         <v>21666</v>
       </c>
-      <c r="BD6">
+      <c r="BD6" t="n">
         <v>23301</v>
       </c>
-      <c r="BE6">
+      <c r="BE6" t="n">
         <v>23719</v>
       </c>
-      <c r="BF6">
+      <c r="BF6" t="n">
         <v>26809</v>
       </c>
-      <c r="BG6">
+      <c r="BG6" t="n">
         <v>25118</v>
       </c>
-      <c r="BH6">
+      <c r="BH6" t="n">
         <v>25485</v>
       </c>
-      <c r="BI6">
+      <c r="BI6" t="n">
         <v>26680</v>
       </c>
-      <c r="BJ6">
+      <c r="BJ6" t="n">
         <v>29356</v>
       </c>
-      <c r="BK6">
+      <c r="BK6" t="n">
         <v>29054</v>
       </c>
-      <c r="BL6">
+      <c r="BL6" t="n">
         <v>30226</v>
       </c>
-      <c r="BM6">
+      <c r="BM6" t="n">
         <v>32610</v>
       </c>
-      <c r="BN6">
+      <c r="BN6" t="n">
         <v>37361</v>
       </c>
-      <c r="BO6">
+      <c r="BO6" t="n">
         <v>37486</v>
       </c>
-      <c r="BP6">
+      <c r="BP6" t="n">
         <v>40347</v>
       </c>
-      <c r="BQ6">
+      <c r="BQ6" t="n">
         <v>40922</v>
       </c>
-      <c r="BR6">
+      <c r="BR6" t="n">
         <v>50929.4415599248</v>
       </c>
-      <c r="BS6">
+      <c r="BS6" t="n">
         <v>47200.9522750547</v>
       </c>
-      <c r="BT6">
+      <c r="BT6" t="n">
         <v>44689.3532330525</v>
       </c>
-      <c r="BU6">
+      <c r="BU6" t="n">
         <v>44943.4970660002</v>
       </c>
-      <c r="BV6">
+      <c r="BV6" t="n">
         <v>42098.0828661255</v>
       </c>
-      <c r="BW6">
+      <c r="BW6" t="n">
         <v>43818.9125760709</v>
       </c>
-      <c r="BX6">
+      <c r="BX6" t="n">
         <v>44004.385224315</v>
       </c>
-      <c r="BY6">
+      <c r="BY6" t="n">
         <v>42849.6169846775</v>
       </c>
-      <c r="BZ6">
+      <c r="BZ6" t="n">
         <v>50177.463979</v>
       </c>
-      <c r="CA6">
+      <c r="CA6" t="n">
         <v>48096.021168</v>
       </c>
-      <c r="CB6">
+      <c r="CB6" t="n">
         <v>51337.038846</v>
       </c>
-      <c r="CC6">
+      <c r="CC6" t="n">
         <v>51483.147171</v>
       </c>
-      <c r="CD6">
+      <c r="CD6" t="n">
         <v>48441.401515</v>
       </c>
-      <c r="CE6">
+      <c r="CE6" t="n">
         <v>51494.0043</v>
       </c>
-      <c r="CF6">
+      <c r="CF6" t="n">
         <v>50829.314908</v>
       </c>
-      <c r="CG6">
+      <c r="CG6" t="n">
         <v>52237.274799</v>
       </c>
-      <c r="CH6">
+      <c r="CH6" t="n">
         <v>48177.2404</v>
       </c>
-      <c r="CI6">
+      <c r="CI6" t="n">
         <v>60399.733137</v>
       </c>
-      <c r="CJ6">
+      <c r="CJ6" t="n">
         <v>50746.078264</v>
       </c>
-      <c r="CK6">
+      <c r="CK6" t="n">
         <v>53713.637715</v>
       </c>
-      <c r="CL6">
+      <c r="CL6" t="n">
         <v>53836.632811</v>
       </c>
-      <c r="CM6">
+      <c r="CM6" t="n">
         <v>58078.020675</v>
       </c>
-      <c r="CN6">
+      <c r="CN6" t="n">
         <v>58846.35609</v>
       </c>
-      <c r="CO6">
+      <c r="CO6" t="n">
         <v>59462.093084</v>
       </c>
-      <c r="CP6">
+      <c r="CP6" t="n">
         <v>56727.146477</v>
       </c>
-      <c r="CQ6">
+      <c r="CQ6" t="n">
         <v>70974.087296</v>
       </c>
-      <c r="CR6">
+      <c r="CR6" t="n">
         <v>63325.590743</v>
       </c>
-      <c r="CS6">
+      <c r="CS6" t="n">
         <v>69326.908001</v>
       </c>
-      <c r="CT6">
+      <c r="CT6" t="n">
         <v>59203.773517</v>
       </c>
-      <c r="CU6">
+      <c r="CU6" t="n">
         <v>81150.71872600001</v>
       </c>
-      <c r="CV6">
+      <c r="CV6" t="n">
         <v>64495.197764</v>
       </c>
-      <c r="CW6">
+      <c r="CW6" t="n">
         <v>67854.250319</v>
       </c>
-      <c r="CX6">
+      <c r="CX6" t="n">
         <v>66629.591017</v>
       </c>
-      <c r="CY6">
+      <c r="CY6" t="n">
         <v>93374.30889</v>
       </c>
-      <c r="CZ6">
+      <c r="CZ6" t="n">
         <v>74956.848235</v>
       </c>
-      <c r="DA6">
+      <c r="DA6" t="n">
         <v>78084.25014</v>
       </c>
-      <c r="DB6">
+      <c r="DB6" t="n">
         <v>82368.35975</v>
       </c>
-      <c r="DC6">
+      <c r="DC6" t="n">
         <v>109603.464503</v>
       </c>
-      <c r="DD6">
+      <c r="DD6" t="n">
         <v>79928.671524</v>
       </c>
-      <c r="DE6">
+      <c r="DE6" t="n">
         <v>83617.528603</v>
       </c>
-      <c r="DF6">
+      <c r="DF6" t="n">
         <v>78181.539147</v>
       </c>
-      <c r="DG6">
+      <c r="DG6" t="n">
         <v>107965.949826</v>
       </c>
-      <c r="DH6">
+      <c r="DH6" t="n">
         <v>105717.897693</v>
       </c>
-      <c r="DI6">
+      <c r="DI6" t="n">
         <v>107361.322663</v>
       </c>
-      <c r="DJ6">
+      <c r="DJ6" t="n">
         <v>94451.246337</v>
       </c>
-      <c r="DK6">
+      <c r="DK6" t="n">
         <v>131070.547198</v>
       </c>
-      <c r="DL6">
+      <c r="DL6" t="n">
         <v>103620.424855</v>
       </c>
-      <c r="DM6">
+      <c r="DM6" t="n">
         <v>105310.662397</v>
       </c>
-      <c r="DN6">
+      <c r="DN6" t="n">
         <v>107840.581027</v>
       </c>
-      <c r="DO6">
+      <c r="DO6" t="n">
         <v>171625.483303</v>
       </c>
-      <c r="DP6">
+      <c r="DP6" t="n">
         <v>123085.859039</v>
       </c>
-      <c r="DQ6">
+      <c r="DQ6" t="n">
         <v>115369.793292</v>
       </c>
-      <c r="DR6">
+      <c r="DR6" t="n">
         <v>114252.616389</v>
       </c>
-      <c r="DS6">
+      <c r="DS6" t="n">
         <v>133495.616963</v>
       </c>
-      <c r="DT6">
+      <c r="DT6" t="n">
         <v>116439.496061</v>
       </c>
-      <c r="DU6">
+      <c r="DU6" t="n">
         <v>126363.193124</v>
       </c>
-      <c r="DV6">
+      <c r="DV6" t="n">
         <v>120523.712722</v>
       </c>
-      <c r="DW6">
+      <c r="DW6" t="n">
         <v>155451.763211</v>
       </c>
-      <c r="DX6">
+      <c r="DX6" t="n">
         <v>148517.25019</v>
       </c>
-      <c r="DY6">
+      <c r="DY6" t="n">
         <v>177897.110174</v>
       </c>
-      <c r="DZ6">
+      <c r="DZ6" t="n">
         <v>174847.531404</v>
       </c>
-      <c r="EA6">
+      <c r="EA6" t="n">
         <v>200984.20194</v>
       </c>
-      <c r="EB6">
+      <c r="EB6" t="n">
         <v>162874.941716</v>
       </c>
-      <c r="EC6">
+      <c r="EC6" t="n">
         <v>179602.854031</v>
       </c>
-      <c r="ED6">
+      <c r="ED6" t="n">
         <v>178454.205372</v>
       </c>
-      <c r="EE6">
+      <c r="EE6" t="n">
         <v>221435.061317</v>
       </c>
-      <c r="EF6">
+      <c r="EF6" t="n">
         <v>193431.505211</v>
       </c>
-      <c r="EG6">
+      <c r="EG6" t="n">
         <v>219802.176471</v>
       </c>
-      <c r="EH6">
+      <c r="EH6" t="n">
         <v>189968.07643</v>
       </c>
-      <c r="EI6">
+      <c r="EI6" t="n">
         <v>263714.657293</v>
       </c>
-      <c r="EJ6">
+      <c r="EJ6" t="n">
         <v>212502.637561</v>
       </c>
-      <c r="EK6">
+      <c r="EK6" t="n">
         <v>242565.428975</v>
       </c>
-      <c r="EL6">
+      <c r="EL6" t="n">
         <v>212973.696321</v>
       </c>
-      <c r="EM6">
+      <c r="EM6" t="n">
         <v>295933.784822</v>
       </c>
-      <c r="EN6">
+      <c r="EN6" t="n">
         <v>248238.752305</v>
       </c>
-      <c r="EO6">
+      <c r="EO6" t="n">
         <v>269235.608221</v>
       </c>
-      <c r="EP6">
+      <c r="EP6" t="n">
         <v>232252.40236</v>
       </c>
-      <c r="EQ6">
+      <c r="EQ6" t="n">
         <v>313471.664174</v>
       </c>
-      <c r="ER6">
+      <c r="ER6" t="n">
         <v>268639.616492</v>
       </c>
-      <c r="ES6">
+      <c r="ES6" t="n">
         <v>291790.71408</v>
       </c>
-      <c r="ET6">
+      <c r="ET6" t="n">
         <v>274868.633006</v>
       </c>
-      <c r="EU6">
+      <c r="EU6" t="n">
         <v>383668.174218</v>
       </c>
-      <c r="EV6">
+      <c r="EV6" t="n">
         <v>340129.153252</v>
       </c>
-      <c r="EW6">
+      <c r="EW6" t="n">
         <v>375175.457312</v>
       </c>
-      <c r="EX6">
+      <c r="EX6" t="n">
         <v>301929.448769</v>
       </c>
-      <c r="EY6">
+      <c r="EY6" t="n">
         <v>402555.553632</v>
       </c>
-      <c r="EZ6">
+      <c r="EZ6" t="n">
         <v>403901.2538</v>
       </c>
-      <c r="FA6">
+      <c r="FA6" t="n">
         <v>427341.144927</v>
       </c>
-      <c r="FB6">
+      <c r="FB6" t="n">
         <v>306719.555372</v>
       </c>
-      <c r="FC6">
+      <c r="FC6" t="n">
         <v>308552.586886</v>
       </c>
-      <c r="FD6">
+      <c r="FD6" t="n">
         <v>241903.953843</v>
       </c>
-      <c r="FE6">
+      <c r="FE6" t="n">
         <v>323023.337997</v>
       </c>
-      <c r="FF6">
+      <c r="FF6" t="n">
         <v>235371.216438</v>
       </c>
-      <c r="FG6">
+      <c r="FG6" t="n">
         <v>408131.253818</v>
       </c>
-      <c r="FH6">
+      <c r="FH6" t="n">
         <v>304180.688941</v>
       </c>
-      <c r="FI6">
+      <c r="FI6" t="n">
         <v>399763.104531</v>
       </c>
-      <c r="FJ6">
+      <c r="FJ6" t="n">
         <v>288048.195154</v>
       </c>
-      <c r="FK6" t="s">
-        <v>178</v>
-      </c>
-      <c r="FL6" t="s">
-        <v>178</v>
-      </c>
-      <c r="FM6" t="s">
-        <v>178</v>
+      <c r="FK6" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+      <c r="FL6" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+      <c r="FM6" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
       </c>
     </row>
-    <row r="7" spans="1:169">
-      <c r="A7" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B7">
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Services</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
         <v>26727.3315466882</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n">
         <v>27950.3435247518</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="n">
         <v>28039.4279572721</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="n">
         <v>29510.618581288</v>
       </c>
-      <c r="F7">
+      <c r="F7" t="n">
         <v>31392.7790828373</v>
       </c>
-      <c r="G7">
+      <c r="G7" t="n">
         <v>32222.3629640888</v>
       </c>
-      <c r="H7">
+      <c r="H7" t="n">
         <v>33507.029175707</v>
       </c>
-      <c r="I7">
+      <c r="I7" t="n">
         <v>35794.204277367</v>
       </c>
-      <c r="J7">
+      <c r="J7" t="n">
         <v>36116.2394084178</v>
       </c>
-      <c r="K7">
+      <c r="K7" t="n">
         <v>37710.9053993518</v>
       </c>
-      <c r="L7">
+      <c r="L7" t="n">
         <v>38831.0514609725</v>
       </c>
-      <c r="M7">
+      <c r="M7" t="n">
         <v>44189.8616112579</v>
       </c>
-      <c r="N7">
+      <c r="N7" t="n">
         <v>46166.123683265</v>
       </c>
-      <c r="O7">
+      <c r="O7" t="n">
         <v>51774.0914206</v>
       </c>
-      <c r="P7">
+      <c r="P7" t="n">
         <v>55447.5181222469</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" t="n">
         <v>64331.9268438883</v>
       </c>
-      <c r="R7">
+      <c r="R7" t="n">
         <v>60380.1352701514</v>
       </c>
-      <c r="S7">
+      <c r="S7" t="n">
         <v>63987.2713816953</v>
       </c>
-      <c r="T7">
+      <c r="T7" t="n">
         <v>61363.0059088587</v>
       </c>
-      <c r="U7">
+      <c r="U7" t="n">
         <v>71678.7276192948</v>
       </c>
-      <c r="V7">
+      <c r="V7" t="n">
         <v>63802.5608192798</v>
       </c>
-      <c r="W7">
+      <c r="W7" t="n">
         <v>69174.9688549328</v>
       </c>
-      <c r="X7">
+      <c r="X7" t="n">
         <v>68974.1421581803</v>
       </c>
-      <c r="Y7">
+      <c r="Y7" t="n">
         <v>79801.3878776076</v>
       </c>
-      <c r="Z7">
+      <c r="Z7" t="n">
         <v>71060.8693970374</v>
       </c>
-      <c r="AA7">
+      <c r="AA7" t="n">
         <v>77341.7015965896</v>
       </c>
-      <c r="AB7">
+      <c r="AB7" t="n">
         <v>77538.53655256949</v>
       </c>
-      <c r="AC7">
+      <c r="AC7" t="n">
         <v>90811.2498738037</v>
       </c>
-      <c r="AD7">
+      <c r="AD7" t="n">
         <v>83068.41774998209</v>
       </c>
-      <c r="AE7">
+      <c r="AE7" t="n">
         <v>91359.4214724366</v>
       </c>
-      <c r="AF7">
+      <c r="AF7" t="n">
         <v>91451.65149420009</v>
       </c>
-      <c r="AG7">
+      <c r="AG7" t="n">
         <v>107180.910613382</v>
       </c>
-      <c r="AH7">
+      <c r="AH7" t="n">
         <v>95775.74458650401</v>
       </c>
-      <c r="AI7">
+      <c r="AI7" t="n">
         <v>105347.112189193</v>
       </c>
-      <c r="AJ7">
+      <c r="AJ7" t="n">
         <v>107913.630417089</v>
       </c>
-      <c r="AK7">
+      <c r="AK7" t="n">
         <v>128567.995007215</v>
       </c>
-      <c r="AL7">
+      <c r="AL7" t="n">
         <v>116119.547122836</v>
       </c>
-      <c r="AM7">
+      <c r="AM7" t="n">
         <v>125982.66058482</v>
       </c>
-      <c r="AN7">
+      <c r="AN7" t="n">
         <v>128035.036379241</v>
       </c>
-      <c r="AO7">
+      <c r="AO7" t="n">
         <v>153818.751103103</v>
       </c>
-      <c r="AP7">
+      <c r="AP7" t="n">
         <v>141386.789344009</v>
       </c>
-      <c r="AQ7">
+      <c r="AQ7" t="n">
         <v>152483.052693386</v>
       </c>
-      <c r="AR7">
+      <c r="AR7" t="n">
         <v>153475.655290605</v>
       </c>
-      <c r="AS7">
+      <c r="AS7" t="n">
         <v>178760.571642</v>
       </c>
-      <c r="AT7">
+      <c r="AT7" t="n">
         <v>156430.00286051</v>
       </c>
-      <c r="AU7">
+      <c r="AU7" t="n">
         <v>167235.217299156</v>
       </c>
-      <c r="AV7">
+      <c r="AV7" t="n">
         <v>166359.954457794</v>
       </c>
-      <c r="AW7">
+      <c r="AW7" t="n">
         <v>194949.390142541</v>
       </c>
-      <c r="AX7">
+      <c r="AX7" t="n">
         <v>172065.207549159</v>
       </c>
-      <c r="AY7">
+      <c r="AY7" t="n">
         <v>182208.693720596</v>
       </c>
-      <c r="AZ7">
+      <c r="AZ7" t="n">
         <v>184289.725230242</v>
       </c>
-      <c r="BA7">
+      <c r="BA7" t="n">
         <v>215047.128640004</v>
       </c>
-      <c r="BB7">
+      <c r="BB7" t="n">
         <v>196041.309685617</v>
       </c>
-      <c r="BC7">
+      <c r="BC7" t="n">
         <v>209909.460600814</v>
       </c>
-      <c r="BD7">
+      <c r="BD7" t="n">
         <v>211453.026601205</v>
       </c>
-      <c r="BE7">
+      <c r="BE7" t="n">
         <v>244104.667562364</v>
       </c>
-      <c r="BF7">
+      <c r="BF7" t="n">
         <v>221559.412919098</v>
       </c>
-      <c r="BG7">
+      <c r="BG7" t="n">
         <v>238831.160752308</v>
       </c>
-      <c r="BH7">
+      <c r="BH7" t="n">
         <v>243167.562417584</v>
       </c>
-      <c r="BI7">
+      <c r="BI7" t="n">
         <v>284834.09898101</v>
       </c>
-      <c r="BJ7">
+      <c r="BJ7" t="n">
         <v>258828.312693065</v>
       </c>
-      <c r="BK7">
+      <c r="BK7" t="n">
         <v>279650.780301008</v>
       </c>
-      <c r="BL7">
+      <c r="BL7" t="n">
         <v>282898.180751931</v>
       </c>
-      <c r="BM7">
+      <c r="BM7" t="n">
         <v>328020.273093997</v>
       </c>
-      <c r="BN7">
+      <c r="BN7" t="n">
         <v>300750.876942357</v>
       </c>
-      <c r="BO7">
+      <c r="BO7" t="n">
         <v>324468.136167283</v>
       </c>
-      <c r="BP7">
+      <c r="BP7" t="n">
         <v>324455.315109304</v>
       </c>
-      <c r="BQ7">
+      <c r="BQ7" t="n">
         <v>378501.376991058</v>
       </c>
-      <c r="BR7">
+      <c r="BR7" t="n">
         <v>342396.100235961</v>
       </c>
-      <c r="BS7">
+      <c r="BS7" t="n">
         <v>377394.291611633</v>
       </c>
-      <c r="BT7">
+      <c r="BT7" t="n">
         <v>376673.77179339</v>
       </c>
-      <c r="BU7">
+      <c r="BU7" t="n">
         <v>437922.833899016</v>
       </c>
-      <c r="BV7">
+      <c r="BV7" t="n">
         <v>384953.756194613</v>
       </c>
-      <c r="BW7">
+      <c r="BW7" t="n">
         <v>423844.935688863</v>
       </c>
-      <c r="BX7">
+      <c r="BX7" t="n">
         <v>420529.632054162</v>
       </c>
-      <c r="BY7">
+      <c r="BY7" t="n">
         <v>486475.359052363</v>
       </c>
-      <c r="BZ7">
+      <c r="BZ7" t="n">
         <v>424573.425687</v>
       </c>
-      <c r="CA7">
+      <c r="CA7" t="n">
         <v>470516.360363</v>
       </c>
-      <c r="CB7">
+      <c r="CB7" t="n">
         <v>464977.802333</v>
       </c>
-      <c r="CC7">
+      <c r="CC7" t="n">
         <v>528777.973625</v>
       </c>
-      <c r="CD7">
+      <c r="CD7" t="n">
         <v>471819.675178</v>
       </c>
-      <c r="CE7">
+      <c r="CE7" t="n">
         <v>519858.034012</v>
       </c>
-      <c r="CF7">
+      <c r="CF7" t="n">
         <v>514301.600199</v>
       </c>
-      <c r="CG7">
+      <c r="CG7" t="n">
         <v>578642.255569</v>
       </c>
-      <c r="CH7">
+      <c r="CH7" t="n">
         <v>513243.425565</v>
       </c>
-      <c r="CI7">
+      <c r="CI7" t="n">
         <v>561235.418017</v>
       </c>
-      <c r="CJ7">
+      <c r="CJ7" t="n">
         <v>553169.851795</v>
       </c>
-      <c r="CK7">
+      <c r="CK7" t="n">
         <v>624555.670821</v>
       </c>
-      <c r="CL7">
+      <c r="CL7" t="n">
         <v>552452.58372</v>
       </c>
-      <c r="CM7">
+      <c r="CM7" t="n">
         <v>612671.7328239999</v>
       </c>
-      <c r="CN7">
+      <c r="CN7" t="n">
         <v>606554.5233680001</v>
       </c>
-      <c r="CO7">
+      <c r="CO7" t="n">
         <v>696135.698059</v>
       </c>
-      <c r="CP7">
+      <c r="CP7" t="n">
         <v>623255.776811</v>
       </c>
-      <c r="CQ7">
+      <c r="CQ7" t="n">
         <v>701307.204843</v>
       </c>
-      <c r="CR7">
+      <c r="CR7" t="n">
         <v>690528.1475889999</v>
       </c>
-      <c r="CS7">
+      <c r="CS7" t="n">
         <v>774469.624055</v>
       </c>
-      <c r="CT7">
+      <c r="CT7" t="n">
         <v>704079.660226</v>
       </c>
-      <c r="CU7">
+      <c r="CU7" t="n">
         <v>786345.182531</v>
       </c>
-      <c r="CV7">
+      <c r="CV7" t="n">
         <v>767878.944767</v>
       </c>
-      <c r="CW7">
+      <c r="CW7" t="n">
         <v>858256.4138259999</v>
       </c>
-      <c r="CX7">
+      <c r="CX7" t="n">
         <v>781234.623943</v>
       </c>
-      <c r="CY7">
+      <c r="CY7" t="n">
         <v>888399.865029</v>
       </c>
-      <c r="CZ7">
+      <c r="CZ7" t="n">
         <v>845284.469258</v>
       </c>
-      <c r="DA7">
+      <c r="DA7" t="n">
         <v>968341.690789</v>
       </c>
-      <c r="DB7">
+      <c r="DB7" t="n">
         <v>867645.245114</v>
       </c>
-      <c r="DC7">
+      <c r="DC7" t="n">
         <v>964352.252324</v>
       </c>
-      <c r="DD7">
+      <c r="DD7" t="n">
         <v>938042.249501</v>
       </c>
-      <c r="DE7">
+      <c r="DE7" t="n">
         <v>1073292.616808</v>
       </c>
-      <c r="DF7">
+      <c r="DF7" t="n">
         <v>948186.466947</v>
       </c>
-      <c r="DG7">
+      <c r="DG7" t="n">
         <v>1080586.075765</v>
       </c>
-      <c r="DH7">
+      <c r="DH7" t="n">
         <v>1052754.181433</v>
       </c>
-      <c r="DI7">
+      <c r="DI7" t="n">
         <v>1162429.305192</v>
       </c>
-      <c r="DJ7">
+      <c r="DJ7" t="n">
         <v>1010348.881469</v>
       </c>
-      <c r="DK7">
+      <c r="DK7" t="n">
         <v>1145331.818052</v>
       </c>
-      <c r="DL7">
+      <c r="DL7" t="n">
         <v>1127203.433717</v>
       </c>
-      <c r="DM7">
+      <c r="DM7" t="n">
         <v>1242677.960539</v>
       </c>
-      <c r="DN7">
+      <c r="DN7" t="n">
         <v>1132730.696623</v>
       </c>
-      <c r="DO7">
+      <c r="DO7" t="n">
         <v>1289269.589311</v>
       </c>
-      <c r="DP7">
+      <c r="DP7" t="n">
         <v>1268437.254629</v>
       </c>
-      <c r="DQ7">
+      <c r="DQ7" t="n">
         <v>1376954.771215</v>
       </c>
-      <c r="DR7">
+      <c r="DR7" t="n">
         <v>1219315.106971</v>
       </c>
-      <c r="DS7">
+      <c r="DS7" t="n">
         <v>1414584.715866</v>
       </c>
-      <c r="DT7">
+      <c r="DT7" t="n">
         <v>1386825.9356</v>
       </c>
-      <c r="DU7">
+      <c r="DU7" t="n">
         <v>1514767.743125</v>
       </c>
-      <c r="DV7">
+      <c r="DV7" t="n">
         <v>1353837.012425</v>
       </c>
-      <c r="DW7">
+      <c r="DW7" t="n">
         <v>1564031.75942</v>
       </c>
-      <c r="DX7">
+      <c r="DX7" t="n">
         <v>1549184.71252</v>
       </c>
-      <c r="DY7">
+      <c r="DY7" t="n">
         <v>1672093.122861</v>
       </c>
-      <c r="DZ7">
+      <c r="DZ7" t="n">
         <v>1501523.124924</v>
       </c>
-      <c r="EA7">
+      <c r="EA7" t="n">
         <v>1745127.503698</v>
       </c>
-      <c r="EB7">
+      <c r="EB7" t="n">
         <v>1739327.61115</v>
       </c>
-      <c r="EC7">
+      <c r="EC7" t="n">
         <v>1852868.673801</v>
       </c>
-      <c r="ED7">
+      <c r="ED7" t="n">
         <v>1666515.724841</v>
       </c>
-      <c r="EE7">
+      <c r="EE7" t="n">
         <v>1910870.693683</v>
       </c>
-      <c r="EF7">
+      <c r="EF7" t="n">
         <v>1891099.32648</v>
       </c>
-      <c r="EG7">
+      <c r="EG7" t="n">
         <v>2017259.923069</v>
       </c>
-      <c r="EH7">
+      <c r="EH7" t="n">
         <v>1808019.541077</v>
       </c>
-      <c r="EI7">
+      <c r="EI7" t="n">
         <v>2082607.823781</v>
       </c>
-      <c r="EJ7">
+      <c r="EJ7" t="n">
         <v>2060709.678517</v>
       </c>
-      <c r="EK7">
+      <c r="EK7" t="n">
         <v>2209000.010152</v>
       </c>
-      <c r="EL7">
+      <c r="EL7" t="n">
         <v>1996278.512551</v>
       </c>
-      <c r="EM7">
+      <c r="EM7" t="n">
         <v>2310053.844372</v>
       </c>
-      <c r="EN7">
+      <c r="EN7" t="n">
         <v>2258776.175256</v>
       </c>
-      <c r="EO7">
+      <c r="EO7" t="n">
         <v>2440013.895427</v>
       </c>
-      <c r="EP7">
+      <c r="EP7" t="n">
         <v>2188932.658764</v>
       </c>
-      <c r="EQ7">
+      <c r="EQ7" t="n">
         <v>2527704.850672</v>
       </c>
-      <c r="ER7">
+      <c r="ER7" t="n">
         <v>2496171.010829</v>
       </c>
-      <c r="ES7">
+      <c r="ES7" t="n">
         <v>2669938.514988</v>
       </c>
-      <c r="ET7">
+      <c r="ET7" t="n">
         <v>2395874.727265</v>
       </c>
-      <c r="EU7">
+      <c r="EU7" t="n">
         <v>2781345.716659</v>
       </c>
-      <c r="EV7">
+      <c r="EV7" t="n">
         <v>2769870.27682</v>
       </c>
-      <c r="EW7">
+      <c r="EW7" t="n">
         <v>2972957.751523</v>
       </c>
-      <c r="EX7">
+      <c r="EX7" t="n">
         <v>2633389.61528</v>
       </c>
-      <c r="EY7">
+      <c r="EY7" t="n">
         <v>3028680.046431</v>
       </c>
-      <c r="EZ7">
+      <c r="EZ7" t="n">
         <v>2992038.105108</v>
       </c>
-      <c r="FA7">
+      <c r="FA7" t="n">
         <v>3222935.193299</v>
       </c>
-      <c r="FB7">
+      <c r="FB7" t="n">
         <v>2688863.562478</v>
       </c>
-      <c r="FC7">
+      <c r="FC7" t="n">
         <v>2568227.768339</v>
       </c>
-      <c r="FD7">
+      <c r="FD7" t="n">
         <v>2741745.548359</v>
       </c>
-      <c r="FE7">
+      <c r="FE7" t="n">
         <v>3026080.988506</v>
       </c>
-      <c r="FF7">
+      <c r="FF7" t="n">
         <v>2643548.273616</v>
       </c>
-      <c r="FG7">
+      <c r="FG7" t="n">
         <v>2885261.153362</v>
       </c>
-      <c r="FH7">
+      <c r="FH7" t="n">
         <v>2998886.916416</v>
       </c>
-      <c r="FI7">
+      <c r="FI7" t="n">
         <v>3321516.5359</v>
       </c>
-      <c r="FJ7">
+      <c r="FJ7" t="n">
         <v>2948249.393729</v>
       </c>
-      <c r="FK7" t="s">
-        <v>178</v>
-      </c>
-      <c r="FL7" t="s">
-        <v>178</v>
-      </c>
-      <c r="FM7" t="s">
-        <v>178</v>
+      <c r="FK7" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+      <c r="FL7" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+      <c r="FM7" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
       </c>
     </row>
-    <row r="8" spans="1:169">
-      <c r="A8" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="D8">
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Wholesale and retail trade; repair of motor vehicles and motorcycles</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="n">
         <v>7948</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="n">
         <v>8269</v>
       </c>
-      <c r="F8">
+      <c r="F8" t="n">
         <v>8428</v>
       </c>
-      <c r="G8">
+      <c r="G8" t="n">
         <v>8654</v>
       </c>
-      <c r="H8">
+      <c r="H8" t="n">
         <v>9654</v>
       </c>
-      <c r="I8">
+      <c r="I8" t="n">
         <v>9772</v>
       </c>
-      <c r="J8">
+      <c r="J8" t="n">
         <v>9957</v>
       </c>
-      <c r="K8">
+      <c r="K8" t="n">
         <v>10300</v>
       </c>
-      <c r="L8">
+      <c r="L8" t="n">
         <v>10484</v>
       </c>
-      <c r="M8">
+      <c r="M8" t="n">
         <v>10974</v>
       </c>
-      <c r="N8">
+      <c r="N8" t="n">
         <v>11676</v>
       </c>
-      <c r="O8">
+      <c r="O8" t="n">
         <v>13609</v>
       </c>
-      <c r="P8">
+      <c r="P8" t="n">
         <v>13792</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" t="n">
         <v>16837</v>
       </c>
-      <c r="R8">
+      <c r="R8" t="n">
         <v>18122</v>
       </c>
-      <c r="S8">
+      <c r="S8" t="n">
         <v>22071</v>
       </c>
-      <c r="T8">
+      <c r="T8" t="n">
         <v>18720</v>
       </c>
-      <c r="U8">
+      <c r="U8" t="n">
         <v>21012</v>
       </c>
-      <c r="V8">
+      <c r="V8" t="n">
         <v>19008</v>
       </c>
-      <c r="W8">
+      <c r="W8" t="n">
         <v>24095</v>
       </c>
-      <c r="X8">
+      <c r="X8" t="n">
         <v>19676</v>
       </c>
-      <c r="Y8">
+      <c r="Y8" t="n">
         <v>22253</v>
       </c>
-      <c r="Z8">
+      <c r="Z8" t="n">
         <v>20388</v>
       </c>
-      <c r="AA8">
+      <c r="AA8" t="n">
         <v>25508</v>
       </c>
-      <c r="AB8">
+      <c r="AB8" t="n">
         <v>20572</v>
       </c>
-      <c r="AC8">
+      <c r="AC8" t="n">
         <v>23605</v>
       </c>
-      <c r="AD8">
+      <c r="AD8" t="n">
         <v>23632</v>
       </c>
-      <c r="AE8">
+      <c r="AE8" t="n">
         <v>28709</v>
       </c>
-      <c r="AF8">
+      <c r="AF8" t="n">
         <v>24401</v>
       </c>
-      <c r="AG8">
+      <c r="AG8" t="n">
         <v>27883</v>
       </c>
-      <c r="AH8">
+      <c r="AH8" t="n">
         <v>27797</v>
       </c>
-      <c r="AI8">
+      <c r="AI8" t="n">
         <v>34004</v>
       </c>
-      <c r="AJ8">
+      <c r="AJ8" t="n">
         <v>27485</v>
       </c>
-      <c r="AK8">
+      <c r="AK8" t="n">
         <v>31896</v>
       </c>
-      <c r="AL8">
+      <c r="AL8" t="n">
         <v>32968</v>
       </c>
-      <c r="AM8">
+      <c r="AM8" t="n">
         <v>40875</v>
       </c>
-      <c r="AN8">
+      <c r="AN8" t="n">
         <v>31609</v>
       </c>
-      <c r="AO8">
+      <c r="AO8" t="n">
         <v>36006</v>
       </c>
-      <c r="AP8">
+      <c r="AP8" t="n">
         <v>38306</v>
       </c>
-      <c r="AQ8">
+      <c r="AQ8" t="n">
         <v>48671</v>
       </c>
-      <c r="AR8">
+      <c r="AR8" t="n">
         <v>38544</v>
       </c>
-      <c r="AS8">
+      <c r="AS8" t="n">
         <v>42893</v>
       </c>
-      <c r="AT8">
+      <c r="AT8" t="n">
         <v>44607</v>
       </c>
-      <c r="AU8">
+      <c r="AU8" t="n">
         <v>54442</v>
       </c>
-      <c r="AV8">
+      <c r="AV8" t="n">
         <v>41673</v>
       </c>
-      <c r="AW8">
+      <c r="AW8" t="n">
         <v>46120</v>
       </c>
-      <c r="AX8">
+      <c r="AX8" t="n">
         <v>47370</v>
       </c>
-      <c r="AY8">
+      <c r="AY8" t="n">
         <v>58410</v>
       </c>
-      <c r="AZ8">
+      <c r="AZ8" t="n">
         <v>44244</v>
       </c>
-      <c r="BA8">
+      <c r="BA8" t="n">
         <v>49117</v>
       </c>
-      <c r="BB8">
+      <c r="BB8" t="n">
         <v>51238</v>
       </c>
-      <c r="BC8">
+      <c r="BC8" t="n">
         <v>62964</v>
       </c>
-      <c r="BD8">
+      <c r="BD8" t="n">
         <v>49288</v>
       </c>
-      <c r="BE8">
+      <c r="BE8" t="n">
         <v>55520</v>
       </c>
-      <c r="BF8">
+      <c r="BF8" t="n">
         <v>57168</v>
       </c>
-      <c r="BG8">
+      <c r="BG8" t="n">
         <v>68823</v>
       </c>
-      <c r="BH8">
+      <c r="BH8" t="n">
         <v>54493</v>
       </c>
-      <c r="BI8">
+      <c r="BI8" t="n">
         <v>61799</v>
       </c>
-      <c r="BJ8">
+      <c r="BJ8" t="n">
         <v>64874</v>
       </c>
-      <c r="BK8">
+      <c r="BK8" t="n">
         <v>80696</v>
       </c>
-      <c r="BL8">
+      <c r="BL8" t="n">
         <v>63048</v>
       </c>
-      <c r="BM8">
+      <c r="BM8" t="n">
         <v>70461</v>
       </c>
-      <c r="BN8">
+      <c r="BN8" t="n">
         <v>68822</v>
       </c>
-      <c r="BO8">
+      <c r="BO8" t="n">
         <v>76091</v>
       </c>
-      <c r="BP8">
+      <c r="BP8" t="n">
         <v>78177</v>
       </c>
-      <c r="BQ8">
+      <c r="BQ8" t="n">
         <v>94080</v>
       </c>
-      <c r="BR8">
+      <c r="BR8" t="n">
         <v>89557.3983138997</v>
       </c>
-      <c r="BS8">
+      <c r="BS8" t="n">
         <v>101177.063477744</v>
       </c>
-      <c r="BT8">
+      <c r="BT8" t="n">
         <v>106479.126798357</v>
       </c>
-      <c r="BU8">
+      <c r="BU8" t="n">
         <v>135390.711417872</v>
       </c>
-      <c r="BV8">
+      <c r="BV8" t="n">
         <v>107362.050658131</v>
       </c>
-      <c r="BW8">
+      <c r="BW8" t="n">
         <v>119171.886972173</v>
       </c>
-      <c r="BX8">
+      <c r="BX8" t="n">
         <v>125498.441529401</v>
       </c>
-      <c r="BY8">
+      <c r="BY8" t="n">
         <v>153804.534546735</v>
       </c>
-      <c r="BZ8">
+      <c r="BZ8" t="n">
         <v>122725.064125</v>
       </c>
-      <c r="CA8">
+      <c r="CA8" t="n">
         <v>140519.16028</v>
       </c>
-      <c r="CB8">
+      <c r="CB8" t="n">
         <v>144407.375225</v>
       </c>
-      <c r="CC8">
+      <c r="CC8" t="n">
         <v>169084.567517</v>
       </c>
-      <c r="CD8">
+      <c r="CD8" t="n">
         <v>135926.977412</v>
       </c>
-      <c r="CE8">
+      <c r="CE8" t="n">
         <v>154007.866137</v>
       </c>
-      <c r="CF8">
+      <c r="CF8" t="n">
         <v>160021.297177</v>
       </c>
-      <c r="CG8">
+      <c r="CG8" t="n">
         <v>182107.791714</v>
       </c>
-      <c r="CH8">
+      <c r="CH8" t="n">
         <v>145783.3096</v>
       </c>
-      <c r="CI8">
+      <c r="CI8" t="n">
         <v>165642.747992</v>
       </c>
-      <c r="CJ8">
+      <c r="CJ8" t="n">
         <v>170026.45344</v>
       </c>
-      <c r="CK8">
+      <c r="CK8" t="n">
         <v>194801.084108</v>
       </c>
-      <c r="CL8">
+      <c r="CL8" t="n">
         <v>156274.295515</v>
       </c>
-      <c r="CM8">
+      <c r="CM8" t="n">
         <v>178536.543901</v>
       </c>
-      <c r="CN8">
+      <c r="CN8" t="n">
         <v>182793.427214</v>
       </c>
-      <c r="CO8">
+      <c r="CO8" t="n">
         <v>216464.666767</v>
       </c>
-      <c r="CP8">
+      <c r="CP8" t="n">
         <v>175882.308385</v>
       </c>
-      <c r="CQ8">
+      <c r="CQ8" t="n">
         <v>200515.20185</v>
       </c>
-      <c r="CR8">
+      <c r="CR8" t="n">
         <v>207979.431116</v>
       </c>
-      <c r="CS8">
+      <c r="CS8" t="n">
         <v>244299.082112</v>
       </c>
-      <c r="CT8">
+      <c r="CT8" t="n">
         <v>198743.504243</v>
       </c>
-      <c r="CU8">
+      <c r="CU8" t="n">
         <v>227946.692853</v>
       </c>
-      <c r="CV8">
+      <c r="CV8" t="n">
         <v>234833.903654</v>
       </c>
-      <c r="CW8">
+      <c r="CW8" t="n">
         <v>277893.654622</v>
       </c>
-      <c r="CX8">
+      <c r="CX8" t="n">
         <v>224628.7497</v>
       </c>
-      <c r="CY8">
+      <c r="CY8" t="n">
         <v>258709.32225</v>
       </c>
-      <c r="CZ8">
+      <c r="CZ8" t="n">
         <v>263785.037049</v>
       </c>
-      <c r="DA8">
+      <c r="DA8" t="n">
         <v>314938.202919</v>
       </c>
-      <c r="DB8">
+      <c r="DB8" t="n">
         <v>252111.628294</v>
       </c>
-      <c r="DC8">
+      <c r="DC8" t="n">
         <v>282438.639894</v>
       </c>
-      <c r="DD8">
+      <c r="DD8" t="n">
         <v>296177.277006</v>
       </c>
-      <c r="DE8">
+      <c r="DE8" t="n">
         <v>355656.383273</v>
       </c>
-      <c r="DF8">
+      <c r="DF8" t="n">
         <v>268843.226348</v>
       </c>
-      <c r="DG8">
+      <c r="DG8" t="n">
         <v>324756.915337</v>
       </c>
-      <c r="DH8">
+      <c r="DH8" t="n">
         <v>335703.645042</v>
       </c>
-      <c r="DI8">
+      <c r="DI8" t="n">
         <v>390237.894755</v>
       </c>
-      <c r="DJ8">
+      <c r="DJ8" t="n">
         <v>276399.216838</v>
       </c>
-      <c r="DK8">
+      <c r="DK8" t="n">
         <v>331842.048399</v>
       </c>
-      <c r="DL8">
+      <c r="DL8" t="n">
         <v>344461.275251</v>
       </c>
-      <c r="DM8">
+      <c r="DM8" t="n">
         <v>413409.431534</v>
       </c>
-      <c r="DN8">
+      <c r="DN8" t="n">
         <v>327798.507446</v>
       </c>
-      <c r="DO8">
+      <c r="DO8" t="n">
         <v>380533.737583</v>
       </c>
-      <c r="DP8">
+      <c r="DP8" t="n">
         <v>405714.867694</v>
       </c>
-      <c r="DQ8">
+      <c r="DQ8" t="n">
         <v>457200.655574</v>
       </c>
-      <c r="DR8">
+      <c r="DR8" t="n">
         <v>354236.478619</v>
       </c>
-      <c r="DS8">
+      <c r="DS8" t="n">
         <v>411157.693121</v>
       </c>
-      <c r="DT8">
+      <c r="DT8" t="n">
         <v>445381.1644</v>
       </c>
-      <c r="DU8">
+      <c r="DU8" t="n">
         <v>493888.113935</v>
       </c>
-      <c r="DV8">
+      <c r="DV8" t="n">
         <v>387781.321711</v>
       </c>
-      <c r="DW8">
+      <c r="DW8" t="n">
         <v>450082.486565</v>
       </c>
-      <c r="DX8">
+      <c r="DX8" t="n">
         <v>501297.857252</v>
       </c>
-      <c r="DY8">
+      <c r="DY8" t="n">
         <v>539421.564104</v>
       </c>
-      <c r="DZ8">
+      <c r="DZ8" t="n">
         <v>423616.653058</v>
       </c>
-      <c r="EA8">
+      <c r="EA8" t="n">
         <v>501043.914018</v>
       </c>
-      <c r="EB8">
+      <c r="EB8" t="n">
         <v>556475.497831</v>
       </c>
-      <c r="EC8">
+      <c r="EC8" t="n">
         <v>596991.333813</v>
       </c>
-      <c r="ED8">
+      <c r="ED8" t="n">
         <v>467008.087301</v>
       </c>
-      <c r="EE8">
+      <c r="EE8" t="n">
         <v>550437.553355</v>
       </c>
-      <c r="EF8">
+      <c r="EF8" t="n">
         <v>605789.786539</v>
       </c>
-      <c r="EG8">
+      <c r="EG8" t="n">
         <v>629088.269341</v>
       </c>
-      <c r="EH8">
+      <c r="EH8" t="n">
         <v>499358.420785</v>
       </c>
-      <c r="EI8">
+      <c r="EI8" t="n">
         <v>592321.628927</v>
       </c>
-      <c r="EJ8">
+      <c r="EJ8" t="n">
         <v>657424.680831</v>
       </c>
-      <c r="EK8">
+      <c r="EK8" t="n">
         <v>678054.881402</v>
       </c>
-      <c r="EL8">
+      <c r="EL8" t="n">
         <v>543912.90724</v>
       </c>
-      <c r="EM8">
+      <c r="EM8" t="n">
         <v>659133.897522</v>
       </c>
-      <c r="EN8">
+      <c r="EN8" t="n">
         <v>717021.963241</v>
       </c>
-      <c r="EO8">
+      <c r="EO8" t="n">
         <v>748526.8031359999</v>
       </c>
-      <c r="EP8">
+      <c r="EP8" t="n">
         <v>598752.390925</v>
       </c>
-      <c r="EQ8">
+      <c r="EQ8" t="n">
         <v>717143.794212</v>
       </c>
-      <c r="ER8">
+      <c r="ER8" t="n">
         <v>786232.569191</v>
       </c>
-      <c r="ES8">
+      <c r="ES8" t="n">
         <v>824372.750443</v>
       </c>
-      <c r="ET8">
+      <c r="ET8" t="n">
         <v>655519.003628</v>
       </c>
-      <c r="EU8">
+      <c r="EU8" t="n">
         <v>794491.340282</v>
       </c>
-      <c r="EV8">
+      <c r="EV8" t="n">
         <v>866978.334674</v>
       </c>
-      <c r="EW8">
+      <c r="EW8" t="n">
         <v>920315.820531</v>
       </c>
-      <c r="EX8">
+      <c r="EX8" t="n">
         <v>718306.52788</v>
       </c>
-      <c r="EY8">
+      <c r="EY8" t="n">
         <v>871509.1183579999</v>
       </c>
-      <c r="EZ8">
+      <c r="EZ8" t="n">
         <v>943029.854149</v>
       </c>
-      <c r="FA8">
+      <c r="FA8" t="n">
         <v>984807.582469</v>
       </c>
-      <c r="FB8">
+      <c r="FB8" t="n">
         <v>725214.667277</v>
       </c>
-      <c r="FC8">
+      <c r="FC8" t="n">
         <v>752323.837879</v>
       </c>
-      <c r="FD8">
+      <c r="FD8" t="n">
         <v>897658.246174</v>
       </c>
-      <c r="FE8">
+      <c r="FE8" t="n">
         <v>942173.9295279999</v>
       </c>
-      <c r="FF8">
+      <c r="FF8" t="n">
         <v>704474.523365</v>
       </c>
-      <c r="FG8">
+      <c r="FG8" t="n">
         <v>806132.286947</v>
       </c>
-      <c r="FH8">
+      <c r="FH8" t="n">
         <v>966385.298282</v>
       </c>
-      <c r="FI8">
+      <c r="FI8" t="n">
         <v>1026244.370955</v>
       </c>
-      <c r="FJ8">
+      <c r="FJ8" t="n">
         <v>780687.173819</v>
       </c>
-      <c r="FK8" t="s">
-        <v>178</v>
-      </c>
-      <c r="FL8" t="s">
-        <v>178</v>
-      </c>
-      <c r="FM8" t="s">
-        <v>178</v>
+      <c r="FK8" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+      <c r="FL8" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+      <c r="FM8" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
       </c>
     </row>
-    <row r="9" spans="1:169">
-      <c r="A9" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="E9">
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Financial and insurance activities</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="n">
         <v>2377</v>
       </c>
-      <c r="F9">
+      <c r="F9" t="n">
         <v>2476</v>
       </c>
-      <c r="G9">
+      <c r="G9" t="n">
         <v>2146</v>
       </c>
-      <c r="H9">
+      <c r="H9" t="n">
         <v>2254</v>
       </c>
-      <c r="I9">
+      <c r="I9" t="n">
         <v>2443</v>
       </c>
-      <c r="J9">
+      <c r="J9" t="n">
         <v>2518</v>
       </c>
-      <c r="K9">
+      <c r="K9" t="n">
         <v>2825</v>
       </c>
-      <c r="L9">
+      <c r="L9" t="n">
         <v>2976</v>
       </c>
-      <c r="M9">
+      <c r="M9" t="n">
         <v>3140</v>
       </c>
-      <c r="N9">
+      <c r="N9" t="n">
         <v>3347</v>
       </c>
-      <c r="O9">
+      <c r="O9" t="n">
         <v>3419</v>
       </c>
-      <c r="P9">
+      <c r="P9" t="n">
         <v>3578</v>
       </c>
-      <c r="Q9">
+      <c r="Q9" t="n">
         <v>4016</v>
       </c>
-      <c r="R9">
+      <c r="R9" t="n">
         <v>4158</v>
       </c>
-      <c r="S9">
+      <c r="S9" t="n">
         <v>4053</v>
       </c>
-      <c r="T9">
+      <c r="T9" t="n">
         <v>4108</v>
       </c>
-      <c r="U9">
+      <c r="U9" t="n">
         <v>3921</v>
       </c>
-      <c r="V9">
+      <c r="V9" t="n">
         <v>4104</v>
       </c>
-      <c r="W9">
+      <c r="W9" t="n">
         <v>4521</v>
       </c>
-      <c r="X9">
+      <c r="X9" t="n">
         <v>4577</v>
       </c>
-      <c r="Y9">
+      <c r="Y9" t="n">
         <v>4376</v>
       </c>
-      <c r="Z9">
+      <c r="Z9" t="n">
         <v>4539</v>
       </c>
-      <c r="AA9">
+      <c r="AA9" t="n">
         <v>4742</v>
       </c>
-      <c r="AB9">
+      <c r="AB9" t="n">
         <v>5001</v>
       </c>
-      <c r="AC9">
+      <c r="AC9" t="n">
         <v>4859</v>
       </c>
-      <c r="AD9">
+      <c r="AD9" t="n">
         <v>5186</v>
       </c>
-      <c r="AE9">
+      <c r="AE9" t="n">
         <v>5815</v>
       </c>
-      <c r="AF9">
+      <c r="AF9" t="n">
         <v>6586</v>
       </c>
-      <c r="AG9">
+      <c r="AG9" t="n">
         <v>6381</v>
       </c>
-      <c r="AH9">
+      <c r="AH9" t="n">
         <v>6593</v>
       </c>
-      <c r="AI9">
+      <c r="AI9" t="n">
         <v>6446</v>
       </c>
-      <c r="AJ9">
+      <c r="AJ9" t="n">
         <v>7705</v>
       </c>
-      <c r="AK9">
+      <c r="AK9" t="n">
         <v>7633</v>
       </c>
-      <c r="AL9">
+      <c r="AL9" t="n">
         <v>8738</v>
       </c>
-      <c r="AM9">
+      <c r="AM9" t="n">
         <v>8178</v>
       </c>
-      <c r="AN9">
+      <c r="AN9" t="n">
         <v>9785</v>
       </c>
-      <c r="AO9">
+      <c r="AO9" t="n">
         <v>9317</v>
       </c>
-      <c r="AP9">
+      <c r="AP9" t="n">
         <v>10801</v>
       </c>
-      <c r="AQ9">
+      <c r="AQ9" t="n">
         <v>10619</v>
       </c>
-      <c r="AR9">
+      <c r="AR9" t="n">
         <v>11794</v>
       </c>
-      <c r="AS9">
+      <c r="AS9" t="n">
         <v>11483</v>
       </c>
-      <c r="AT9">
+      <c r="AT9" t="n">
         <v>12338</v>
       </c>
-      <c r="AU9">
+      <c r="AU9" t="n">
         <v>11917</v>
       </c>
-      <c r="AV9">
+      <c r="AV9" t="n">
         <v>12834</v>
       </c>
-      <c r="AW9">
+      <c r="AW9" t="n">
         <v>12687</v>
       </c>
-      <c r="AX9">
+      <c r="AX9" t="n">
         <v>13404</v>
       </c>
-      <c r="AY9">
+      <c r="AY9" t="n">
         <v>13017</v>
       </c>
-      <c r="AZ9">
+      <c r="AZ9" t="n">
         <v>14058</v>
       </c>
-      <c r="BA9">
+      <c r="BA9" t="n">
         <v>13834</v>
       </c>
-      <c r="BB9">
+      <c r="BB9" t="n">
         <v>14574</v>
       </c>
-      <c r="BC9">
+      <c r="BC9" t="n">
         <v>14427</v>
       </c>
-      <c r="BD9">
+      <c r="BD9" t="n">
         <v>15722</v>
       </c>
-      <c r="BE9">
+      <c r="BE9" t="n">
         <v>15950</v>
       </c>
-      <c r="BF9">
+      <c r="BF9" t="n">
         <v>16879</v>
       </c>
-      <c r="BG9">
+      <c r="BG9" t="n">
         <v>16607</v>
       </c>
-      <c r="BH9">
+      <c r="BH9" t="n">
         <v>17932</v>
       </c>
-      <c r="BI9">
+      <c r="BI9" t="n">
         <v>17885</v>
       </c>
-      <c r="BJ9">
+      <c r="BJ9" t="n">
         <v>19310</v>
       </c>
-      <c r="BK9">
+      <c r="BK9" t="n">
         <v>19492</v>
       </c>
-      <c r="BL9">
+      <c r="BL9" t="n">
         <v>21545</v>
       </c>
-      <c r="BM9">
+      <c r="BM9" t="n">
         <v>22296</v>
       </c>
-      <c r="BN9">
+      <c r="BN9" t="n">
         <v>27018</v>
       </c>
-      <c r="BO9">
+      <c r="BO9" t="n">
         <v>28276</v>
       </c>
-      <c r="BP9">
+      <c r="BP9" t="n">
         <v>28280</v>
       </c>
-      <c r="BQ9">
+      <c r="BQ9" t="n">
         <v>30885</v>
       </c>
-      <c r="BR9">
+      <c r="BR9" t="n">
         <v>37482.904626</v>
       </c>
-      <c r="BS9">
+      <c r="BS9" t="n">
         <v>39633.314522</v>
       </c>
-      <c r="BT9">
+      <c r="BT9" t="n">
         <v>40426.233958</v>
       </c>
-      <c r="BU9">
+      <c r="BU9" t="n">
         <v>43197.246894</v>
       </c>
-      <c r="BV9">
+      <c r="BV9" t="n">
         <v>42251.981588</v>
       </c>
-      <c r="BW9">
+      <c r="BW9" t="n">
         <v>43731.947185</v>
       </c>
-      <c r="BX9">
+      <c r="BX9" t="n">
         <v>44061.277019</v>
       </c>
-      <c r="BY9">
+      <c r="BY9" t="n">
         <v>46724.794209</v>
       </c>
-      <c r="BZ9">
+      <c r="BZ9" t="n">
         <v>43999.812621</v>
       </c>
-      <c r="CA9">
+      <c r="CA9" t="n">
         <v>47426.039538</v>
       </c>
-      <c r="CB9">
+      <c r="CB9" t="n">
         <v>48213.365995</v>
       </c>
-      <c r="CC9">
+      <c r="CC9" t="n">
         <v>51766.066219</v>
       </c>
-      <c r="CD9">
+      <c r="CD9" t="n">
         <v>50499.987919</v>
       </c>
-      <c r="CE9">
+      <c r="CE9" t="n">
         <v>54581.544175</v>
       </c>
-      <c r="CF9">
+      <c r="CF9" t="n">
         <v>53182.808848</v>
       </c>
-      <c r="CG9">
+      <c r="CG9" t="n">
         <v>57243.619037</v>
       </c>
-      <c r="CH9">
+      <c r="CH9" t="n">
         <v>54857.968132</v>
       </c>
-      <c r="CI9">
+      <c r="CI9" t="n">
         <v>59989.486413</v>
       </c>
-      <c r="CJ9">
+      <c r="CJ9" t="n">
         <v>57624.42563</v>
       </c>
-      <c r="CK9">
+      <c r="CK9" t="n">
         <v>62335.992366</v>
       </c>
-      <c r="CL9">
+      <c r="CL9" t="n">
         <v>59405.394764</v>
       </c>
-      <c r="CM9">
+      <c r="CM9" t="n">
         <v>67307.858438</v>
       </c>
-      <c r="CN9">
+      <c r="CN9" t="n">
         <v>64110.172797</v>
       </c>
-      <c r="CO9">
+      <c r="CO9" t="n">
         <v>69207.784881</v>
       </c>
-      <c r="CP9">
+      <c r="CP9" t="n">
         <v>66519.77115099999</v>
       </c>
-      <c r="CQ9">
+      <c r="CQ9" t="n">
         <v>76424.97975100001</v>
       </c>
-      <c r="CR9">
+      <c r="CR9" t="n">
         <v>74701.36019199999</v>
       </c>
-      <c r="CS9">
+      <c r="CS9" t="n">
         <v>80640.948783</v>
       </c>
-      <c r="CT9">
+      <c r="CT9" t="n">
         <v>80816.26085999999</v>
       </c>
-      <c r="CU9">
+      <c r="CU9" t="n">
         <v>89559.989344</v>
       </c>
-      <c r="CV9">
+      <c r="CV9" t="n">
         <v>92470.532829</v>
       </c>
-      <c r="CW9">
+      <c r="CW9" t="n">
         <v>89713.303144</v>
       </c>
-      <c r="CX9">
+      <c r="CX9" t="n">
         <v>92175.170497</v>
       </c>
-      <c r="CY9">
+      <c r="CY9" t="n">
         <v>118663.676788</v>
       </c>
-      <c r="CZ9">
+      <c r="CZ9" t="n">
         <v>95495.32188</v>
       </c>
-      <c r="DA9">
+      <c r="DA9" t="n">
         <v>112648.143059</v>
       </c>
-      <c r="DB9">
+      <c r="DB9" t="n">
         <v>105865.407728</v>
       </c>
-      <c r="DC9">
+      <c r="DC9" t="n">
         <v>129256.033913</v>
       </c>
-      <c r="DD9">
+      <c r="DD9" t="n">
         <v>105712.999602</v>
       </c>
-      <c r="DE9">
+      <c r="DE9" t="n">
         <v>128148.988713</v>
       </c>
-      <c r="DF9">
+      <c r="DF9" t="n">
         <v>122547.894953</v>
       </c>
-      <c r="DG9">
+      <c r="DG9" t="n">
         <v>144697.388053</v>
       </c>
-      <c r="DH9">
+      <c r="DH9" t="n">
         <v>118417.526788</v>
       </c>
-      <c r="DI9">
+      <c r="DI9" t="n">
         <v>132386.454391</v>
       </c>
-      <c r="DJ9">
+      <c r="DJ9" t="n">
         <v>131556.408431</v>
       </c>
-      <c r="DK9">
+      <c r="DK9" t="n">
         <v>151649.898099</v>
       </c>
-      <c r="DL9">
+      <c r="DL9" t="n">
         <v>135750.797316</v>
       </c>
-      <c r="DM9">
+      <c r="DM9" t="n">
         <v>141991.241272</v>
       </c>
-      <c r="DN9">
+      <c r="DN9" t="n">
         <v>147232.667152</v>
       </c>
-      <c r="DO9">
+      <c r="DO9" t="n">
         <v>166405.548121</v>
       </c>
-      <c r="DP9">
+      <c r="DP9" t="n">
         <v>157831.359028</v>
       </c>
-      <c r="DQ9">
+      <c r="DQ9" t="n">
         <v>164813.513578</v>
       </c>
-      <c r="DR9">
+      <c r="DR9" t="n">
         <v>161144.33956</v>
       </c>
-      <c r="DS9">
+      <c r="DS9" t="n">
         <v>192200.981234</v>
       </c>
-      <c r="DT9">
+      <c r="DT9" t="n">
         <v>165457.901611</v>
       </c>
-      <c r="DU9">
+      <c r="DU9" t="n">
         <v>174086.159793</v>
       </c>
-      <c r="DV9">
+      <c r="DV9" t="n">
         <v>179699.34942</v>
       </c>
-      <c r="DW9">
+      <c r="DW9" t="n">
         <v>210841.268376</v>
       </c>
-      <c r="DX9">
+      <c r="DX9" t="n">
         <v>184648.072557</v>
       </c>
-      <c r="DY9">
+      <c r="DY9" t="n">
         <v>194614.990958</v>
       </c>
-      <c r="DZ9">
+      <c r="DZ9" t="n">
         <v>217904.967409</v>
       </c>
-      <c r="EA9">
+      <c r="EA9" t="n">
         <v>237710.661225</v>
       </c>
-      <c r="EB9">
+      <c r="EB9" t="n">
         <v>213418.429963</v>
       </c>
-      <c r="EC9">
+      <c r="EC9" t="n">
         <v>223623.780377</v>
       </c>
-      <c r="ED9">
+      <c r="ED9" t="n">
         <v>241520.832304</v>
       </c>
-      <c r="EE9">
+      <c r="EE9" t="n">
         <v>265320.919686</v>
       </c>
-      <c r="EF9">
+      <c r="EF9" t="n">
         <v>244286.411127</v>
       </c>
-      <c r="EG9">
+      <c r="EG9" t="n">
         <v>254610.481107</v>
       </c>
-      <c r="EH9">
+      <c r="EH9" t="n">
         <v>260016.899418</v>
       </c>
-      <c r="EI9">
+      <c r="EI9" t="n">
         <v>287087.305117</v>
       </c>
-      <c r="EJ9">
+      <c r="EJ9" t="n">
         <v>260391.463653</v>
       </c>
-      <c r="EK9">
+      <c r="EK9" t="n">
         <v>280484.839445</v>
       </c>
-      <c r="EL9">
+      <c r="EL9" t="n">
         <v>288272.546937</v>
       </c>
-      <c r="EM9">
+      <c r="EM9" t="n">
         <v>311315.337648</v>
       </c>
-      <c r="EN9">
+      <c r="EN9" t="n">
         <v>287625.883944</v>
       </c>
-      <c r="EO9">
+      <c r="EO9" t="n">
         <v>306437.712994</v>
       </c>
-      <c r="EP9">
+      <c r="EP9" t="n">
         <v>317915.769028</v>
       </c>
-      <c r="EQ9">
+      <c r="EQ9" t="n">
         <v>351415.037801</v>
       </c>
-      <c r="ER9">
+      <c r="ER9" t="n">
         <v>323253.089197</v>
       </c>
-      <c r="ES9">
+      <c r="ES9" t="n">
         <v>333998.624477</v>
       </c>
-      <c r="ET9">
+      <c r="ET9" t="n">
         <v>356829.264565</v>
       </c>
-      <c r="EU9">
+      <c r="EU9" t="n">
         <v>398133.148757</v>
       </c>
-      <c r="EV9">
+      <c r="EV9" t="n">
         <v>366576.375615</v>
       </c>
-      <c r="EW9">
+      <c r="EW9" t="n">
         <v>376607.918675</v>
       </c>
-      <c r="EX9">
+      <c r="EX9" t="n">
         <v>406790.435705</v>
       </c>
-      <c r="EY9">
+      <c r="EY9" t="n">
         <v>443281.141952</v>
       </c>
-      <c r="EZ9">
+      <c r="EZ9" t="n">
         <v>411256.558826</v>
       </c>
-      <c r="FA9">
+      <c r="FA9" t="n">
         <v>420541.961603</v>
       </c>
-      <c r="FB9">
+      <c r="FB9" t="n">
         <v>456127.877092</v>
       </c>
-      <c r="FC9">
+      <c r="FC9" t="n">
         <v>476894.759648</v>
       </c>
-      <c r="FD9">
+      <c r="FD9" t="n">
         <v>441066.02434</v>
       </c>
-      <c r="FE9">
+      <c r="FE9" t="n">
         <v>449890.060567</v>
       </c>
-      <c r="FF9">
+      <c r="FF9" t="n">
         <v>493984.646882</v>
       </c>
-      <c r="FG9">
+      <c r="FG9" t="n">
         <v>515833.00126</v>
       </c>
-      <c r="FH9">
+      <c r="FH9" t="n">
         <v>467026.453945</v>
       </c>
-      <c r="FI9">
+      <c r="FI9" t="n">
         <v>485077.420089</v>
       </c>
-      <c r="FJ9">
+      <c r="FJ9" t="n">
         <v>548600.8850379999</v>
       </c>
-      <c r="FK9" t="s">
-        <v>178</v>
-      </c>
-      <c r="FL9" t="s">
-        <v>178</v>
-      </c>
-      <c r="FM9" t="s">
-        <v>178</v>
+      <c r="FK9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+      <c r="FL9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+      <c r="FM9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
       </c>
     </row>
-    <row r="10" spans="1:169">
-      <c r="A10" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E10">
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Public administration and defense; compulsory social activities</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="n">
         <v>3356</v>
       </c>
-      <c r="F10">
+      <c r="F10" t="n">
         <v>3565</v>
       </c>
-      <c r="G10">
+      <c r="G10" t="n">
         <v>3785</v>
       </c>
-      <c r="H10">
+      <c r="H10" t="n">
         <v>3916</v>
       </c>
-      <c r="I10">
+      <c r="I10" t="n">
         <v>4004</v>
       </c>
-      <c r="J10">
+      <c r="J10" t="n">
         <v>4104</v>
       </c>
-      <c r="K10">
+      <c r="K10" t="n">
         <v>4275</v>
       </c>
-      <c r="L10">
+      <c r="L10" t="n">
         <v>4338</v>
       </c>
-      <c r="M10">
+      <c r="M10" t="n">
         <v>4385</v>
       </c>
-      <c r="N10">
+      <c r="N10" t="n">
         <v>4381</v>
       </c>
-      <c r="O10">
+      <c r="O10" t="n">
         <v>4602</v>
       </c>
-      <c r="P10">
+      <c r="P10" t="n">
         <v>4630</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" t="n">
         <v>5425</v>
       </c>
-      <c r="R10">
+      <c r="R10" t="n">
         <v>5439</v>
       </c>
-      <c r="S10">
+      <c r="S10" t="n">
         <v>5450</v>
       </c>
-      <c r="T10">
+      <c r="T10" t="n">
         <v>6551</v>
       </c>
-      <c r="U10">
+      <c r="U10" t="n">
         <v>6374</v>
       </c>
-      <c r="V10">
+      <c r="V10" t="n">
         <v>6194</v>
       </c>
-      <c r="W10">
+      <c r="W10" t="n">
         <v>6604</v>
       </c>
-      <c r="X10">
+      <c r="X10" t="n">
         <v>8732</v>
       </c>
-      <c r="Y10">
+      <c r="Y10" t="n">
         <v>7008</v>
       </c>
-      <c r="Z10">
+      <c r="Z10" t="n">
         <v>7411</v>
       </c>
-      <c r="AA10">
+      <c r="AA10" t="n">
         <v>7607</v>
       </c>
-      <c r="AB10">
+      <c r="AB10" t="n">
         <v>10694</v>
       </c>
-      <c r="AC10">
+      <c r="AC10" t="n">
         <v>8418</v>
       </c>
-      <c r="AD10">
+      <c r="AD10" t="n">
         <v>8631</v>
       </c>
-      <c r="AE10">
+      <c r="AE10" t="n">
         <v>9413</v>
       </c>
-      <c r="AF10">
+      <c r="AF10" t="n">
         <v>12337</v>
       </c>
-      <c r="AG10">
+      <c r="AG10" t="n">
         <v>10426</v>
       </c>
-      <c r="AH10">
+      <c r="AH10" t="n">
         <v>11415</v>
       </c>
-      <c r="AI10">
+      <c r="AI10" t="n">
         <v>12450</v>
       </c>
-      <c r="AJ10">
+      <c r="AJ10" t="n">
         <v>16280</v>
       </c>
-      <c r="AK10">
+      <c r="AK10" t="n">
         <v>13165</v>
       </c>
-      <c r="AL10">
+      <c r="AL10" t="n">
         <v>13237</v>
       </c>
-      <c r="AM10">
+      <c r="AM10" t="n">
         <v>14295</v>
       </c>
-      <c r="AN10">
+      <c r="AN10" t="n">
         <v>20212</v>
       </c>
-      <c r="AO10">
+      <c r="AO10" t="n">
         <v>17738</v>
       </c>
-      <c r="AP10">
+      <c r="AP10" t="n">
         <v>17707</v>
       </c>
-      <c r="AQ10">
+      <c r="AQ10" t="n">
         <v>17940</v>
       </c>
-      <c r="AR10">
+      <c r="AR10" t="n">
         <v>23646</v>
       </c>
-      <c r="AS10">
+      <c r="AS10" t="n">
         <v>20508</v>
       </c>
-      <c r="AT10">
+      <c r="AT10" t="n">
         <v>20403</v>
       </c>
-      <c r="AU10">
+      <c r="AU10" t="n">
         <v>20952</v>
       </c>
-      <c r="AV10">
+      <c r="AV10" t="n">
         <v>27184</v>
       </c>
-      <c r="AW10">
+      <c r="AW10" t="n">
         <v>21532</v>
       </c>
-      <c r="AX10">
+      <c r="AX10" t="n">
         <v>21783</v>
       </c>
-      <c r="AY10">
+      <c r="AY10" t="n">
         <v>21280</v>
       </c>
-      <c r="AZ10">
+      <c r="AZ10" t="n">
         <v>29029</v>
       </c>
-      <c r="BA10">
+      <c r="BA10" t="n">
         <v>23971</v>
       </c>
-      <c r="BB10">
+      <c r="BB10" t="n">
         <v>23635</v>
       </c>
-      <c r="BC10">
+      <c r="BC10" t="n">
         <v>24305</v>
       </c>
-      <c r="BD10">
+      <c r="BD10" t="n">
         <v>31636</v>
       </c>
-      <c r="BE10">
+      <c r="BE10" t="n">
         <v>28687</v>
       </c>
-      <c r="BF10">
+      <c r="BF10" t="n">
         <v>28903</v>
       </c>
-      <c r="BG10">
+      <c r="BG10" t="n">
         <v>30266</v>
       </c>
-      <c r="BH10">
+      <c r="BH10" t="n">
         <v>39418</v>
       </c>
-      <c r="BI10">
+      <c r="BI10" t="n">
         <v>34708</v>
       </c>
-      <c r="BJ10">
+      <c r="BJ10" t="n">
         <v>35296</v>
       </c>
-      <c r="BK10">
+      <c r="BK10" t="n">
         <v>36098</v>
       </c>
-      <c r="BL10">
+      <c r="BL10" t="n">
         <v>47751</v>
       </c>
-      <c r="BM10">
+      <c r="BM10" t="n">
         <v>41343</v>
       </c>
-      <c r="BN10">
+      <c r="BN10" t="n">
         <v>51491</v>
       </c>
-      <c r="BO10">
+      <c r="BO10" t="n">
         <v>56540</v>
       </c>
-      <c r="BP10">
+      <c r="BP10" t="n">
         <v>54895</v>
       </c>
-      <c r="BQ10">
+      <c r="BQ10" t="n">
         <v>73783</v>
       </c>
-      <c r="BR10">
+      <c r="BR10" t="n">
         <v>36516.615344</v>
       </c>
-      <c r="BS10">
+      <c r="BS10" t="n">
         <v>42125.488619</v>
       </c>
-      <c r="BT10">
+      <c r="BT10" t="n">
         <v>38808.049534</v>
       </c>
-      <c r="BU10">
+      <c r="BU10" t="n">
         <v>48815.985499</v>
       </c>
-      <c r="BV10">
+      <c r="BV10" t="n">
         <v>37400.404623</v>
       </c>
-      <c r="BW10">
+      <c r="BW10" t="n">
         <v>44430.285276</v>
       </c>
-      <c r="BX10">
+      <c r="BX10" t="n">
         <v>38949.764558</v>
       </c>
-      <c r="BY10">
+      <c r="BY10" t="n">
         <v>49592.5447915662</v>
       </c>
-      <c r="BZ10">
+      <c r="BZ10" t="n">
         <v>40908.795794</v>
       </c>
-      <c r="CA10">
+      <c r="CA10" t="n">
         <v>47472.275723</v>
       </c>
-      <c r="CB10">
+      <c r="CB10" t="n">
         <v>42942.756096</v>
       </c>
-      <c r="CC10">
+      <c r="CC10" t="n">
         <v>53214.908488</v>
       </c>
-      <c r="CD10">
+      <c r="CD10" t="n">
         <v>44200.09197</v>
       </c>
-      <c r="CE10">
+      <c r="CE10" t="n">
         <v>50798.896409</v>
       </c>
-      <c r="CF10">
+      <c r="CF10" t="n">
         <v>45838.075908</v>
       </c>
-      <c r="CG10">
+      <c r="CG10" t="n">
         <v>56643.621176</v>
       </c>
-      <c r="CH10">
+      <c r="CH10" t="n">
         <v>45422.527357</v>
       </c>
-      <c r="CI10">
+      <c r="CI10" t="n">
         <v>51459.567149</v>
       </c>
-      <c r="CJ10">
+      <c r="CJ10" t="n">
         <v>46817.438027</v>
       </c>
-      <c r="CK10">
+      <c r="CK10" t="n">
         <v>58413.869702</v>
       </c>
-      <c r="CL10">
+      <c r="CL10" t="n">
         <v>45507.618682</v>
       </c>
-      <c r="CM10">
+      <c r="CM10" t="n">
         <v>52302.962917</v>
       </c>
-      <c r="CN10">
+      <c r="CN10" t="n">
         <v>49806.438249</v>
       </c>
-      <c r="CO10">
+      <c r="CO10" t="n">
         <v>62697.948632</v>
       </c>
-      <c r="CP10">
+      <c r="CP10" t="n">
         <v>50363.847244</v>
       </c>
-      <c r="CQ10">
+      <c r="CQ10" t="n">
         <v>59121.464721</v>
       </c>
-      <c r="CR10">
+      <c r="CR10" t="n">
         <v>55351.209024</v>
       </c>
-      <c r="CS10">
+      <c r="CS10" t="n">
         <v>64040.17539</v>
       </c>
-      <c r="CT10">
+      <c r="CT10" t="n">
         <v>55056.893261</v>
       </c>
-      <c r="CU10">
+      <c r="CU10" t="n">
         <v>61491.169166</v>
       </c>
-      <c r="CV10">
+      <c r="CV10" t="n">
         <v>55679.896572</v>
       </c>
-      <c r="CW10">
+      <c r="CW10" t="n">
         <v>65065.824708</v>
       </c>
-      <c r="CX10">
+      <c r="CX10" t="n">
         <v>59899.654056</v>
       </c>
-      <c r="CY10">
+      <c r="CY10" t="n">
         <v>68878.899707</v>
       </c>
-      <c r="CZ10">
+      <c r="CZ10" t="n">
         <v>62454.796263</v>
       </c>
-      <c r="DA10">
+      <c r="DA10" t="n">
         <v>72787.61088599999</v>
       </c>
-      <c r="DB10">
+      <c r="DB10" t="n">
         <v>61639.89094</v>
       </c>
-      <c r="DC10">
+      <c r="DC10" t="n">
         <v>70163.045815</v>
       </c>
-      <c r="DD10">
+      <c r="DD10" t="n">
         <v>65553.824897</v>
       </c>
-      <c r="DE10">
+      <c r="DE10" t="n">
         <v>74811.492411</v>
       </c>
-      <c r="DF10">
+      <c r="DF10" t="n">
         <v>64278.092772</v>
       </c>
-      <c r="DG10">
+      <c r="DG10" t="n">
         <v>72864.85593400001</v>
       </c>
-      <c r="DH10">
+      <c r="DH10" t="n">
         <v>69809.894679</v>
       </c>
-      <c r="DI10">
+      <c r="DI10" t="n">
         <v>80833.579729</v>
       </c>
-      <c r="DJ10">
+      <c r="DJ10" t="n">
         <v>65730.52130199999</v>
       </c>
-      <c r="DK10">
+      <c r="DK10" t="n">
         <v>83262.28225</v>
       </c>
-      <c r="DL10">
+      <c r="DL10" t="n">
         <v>83352.39870400001</v>
       </c>
-      <c r="DM10">
+      <c r="DM10" t="n">
         <v>92146.71558400001</v>
       </c>
-      <c r="DN10">
+      <c r="DN10" t="n">
         <v>77083.211085</v>
       </c>
-      <c r="DO10">
+      <c r="DO10" t="n">
         <v>100559.807943</v>
       </c>
-      <c r="DP10">
+      <c r="DP10" t="n">
         <v>94980.06215500001</v>
       </c>
-      <c r="DQ10">
+      <c r="DQ10" t="n">
         <v>99206.028895</v>
       </c>
-      <c r="DR10">
+      <c r="DR10" t="n">
         <v>77728.211652</v>
       </c>
-      <c r="DS10">
+      <c r="DS10" t="n">
         <v>111357.632131</v>
       </c>
-      <c r="DT10">
+      <c r="DT10" t="n">
         <v>104014.74509</v>
       </c>
-      <c r="DU10">
+      <c r="DU10" t="n">
         <v>109072.472597</v>
       </c>
-      <c r="DV10">
+      <c r="DV10" t="n">
         <v>85801.572653</v>
       </c>
-      <c r="DW10">
+      <c r="DW10" t="n">
         <v>123021.914167</v>
       </c>
-      <c r="DX10">
+      <c r="DX10" t="n">
         <v>118408.740757</v>
       </c>
-      <c r="DY10">
+      <c r="DY10" t="n">
         <v>126121.436663</v>
       </c>
-      <c r="DZ10">
+      <c r="DZ10" t="n">
         <v>94869.091879</v>
       </c>
-      <c r="EA10">
+      <c r="EA10" t="n">
         <v>133867.348228</v>
       </c>
-      <c r="EB10">
+      <c r="EB10" t="n">
         <v>125208.122748</v>
       </c>
-      <c r="EC10">
+      <c r="EC10" t="n">
         <v>125571.387685</v>
       </c>
-      <c r="ED10">
+      <c r="ED10" t="n">
         <v>99560.42374100001</v>
       </c>
-      <c r="EE10">
+      <c r="EE10" t="n">
         <v>134124.127295</v>
       </c>
-      <c r="EF10">
+      <c r="EF10" t="n">
         <v>120083.241728</v>
       </c>
-      <c r="EG10">
+      <c r="EG10" t="n">
         <v>138318.249288</v>
       </c>
-      <c r="EH10">
+      <c r="EH10" t="n">
         <v>96067.033318</v>
       </c>
-      <c r="EI10">
+      <c r="EI10" t="n">
         <v>134070.726277</v>
       </c>
-      <c r="EJ10">
+      <c r="EJ10" t="n">
         <v>123943.53519</v>
       </c>
-      <c r="EK10">
+      <c r="EK10" t="n">
         <v>149119.569856</v>
       </c>
-      <c r="EL10">
+      <c r="EL10" t="n">
         <v>106850.484925</v>
       </c>
-      <c r="EM10">
+      <c r="EM10" t="n">
         <v>148881.732998</v>
       </c>
-      <c r="EN10">
+      <c r="EN10" t="n">
         <v>130755.086573</v>
       </c>
-      <c r="EO10">
+      <c r="EO10" t="n">
         <v>175766.359622</v>
       </c>
-      <c r="EP10">
+      <c r="EP10" t="n">
         <v>119754.789706</v>
       </c>
-      <c r="EQ10">
+      <c r="EQ10" t="n">
         <v>171762.492388</v>
       </c>
-      <c r="ER10">
+      <c r="ER10" t="n">
         <v>150515.941272</v>
       </c>
-      <c r="ES10">
+      <c r="ES10" t="n">
         <v>200093.73631</v>
       </c>
-      <c r="ET10">
+      <c r="ET10" t="n">
         <v>137740.306463</v>
       </c>
-      <c r="EU10">
+      <c r="EU10" t="n">
         <v>202293.730704</v>
       </c>
-      <c r="EV10">
+      <c r="EV10" t="n">
         <v>186185.32943</v>
       </c>
-      <c r="EW10">
+      <c r="EW10" t="n">
         <v>241486.744427</v>
       </c>
-      <c r="EX10">
+      <c r="EX10" t="n">
         <v>158525.336098</v>
       </c>
-      <c r="EY10">
+      <c r="EY10" t="n">
         <v>229503.894149</v>
       </c>
-      <c r="EZ10">
+      <c r="EZ10" t="n">
         <v>205683.222325</v>
       </c>
-      <c r="FA10">
+      <c r="FA10" t="n">
         <v>296975.271675</v>
       </c>
-      <c r="FB10">
+      <c r="FB10" t="n">
         <v>173620.984836</v>
       </c>
-      <c r="FC10">
+      <c r="FC10" t="n">
         <v>250684.070383</v>
       </c>
-      <c r="FD10">
+      <c r="FD10" t="n">
         <v>219958.398869</v>
       </c>
-      <c r="FE10">
+      <c r="FE10" t="n">
         <v>306326.68018</v>
       </c>
-      <c r="FF10">
+      <c r="FF10" t="n">
         <v>194526.014765</v>
       </c>
-      <c r="FG10">
+      <c r="FG10" t="n">
         <v>267426.627978</v>
       </c>
-      <c r="FH10">
+      <c r="FH10" t="n">
         <v>237922.93017</v>
       </c>
-      <c r="FI10">
+      <c r="FI10" t="n">
         <v>330562.887828</v>
       </c>
-      <c r="FJ10">
+      <c r="FJ10" t="n">
         <v>205662.367761</v>
       </c>
-      <c r="FK10" t="s">
-        <v>178</v>
-      </c>
-      <c r="FL10" t="s">
-        <v>178</v>
-      </c>
-      <c r="FM10" t="s">
-        <v>178</v>
+      <c r="FK10" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+      <c r="FL10" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+      <c r="FM10" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
       </c>
     </row>
-    <row r="11" spans="1:169">
-      <c r="A11" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="BZ11">
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Other services</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
+      <c r="X11" t="inlineStr"/>
+      <c r="Y11" t="inlineStr"/>
+      <c r="Z11" t="inlineStr"/>
+      <c r="AA11" t="inlineStr"/>
+      <c r="AB11" t="inlineStr"/>
+      <c r="AC11" t="inlineStr"/>
+      <c r="AD11" t="inlineStr"/>
+      <c r="AE11" t="inlineStr"/>
+      <c r="AF11" t="inlineStr"/>
+      <c r="AG11" t="inlineStr"/>
+      <c r="AH11" t="inlineStr"/>
+      <c r="AI11" t="inlineStr"/>
+      <c r="AJ11" t="inlineStr"/>
+      <c r="AK11" t="inlineStr"/>
+      <c r="AL11" t="inlineStr"/>
+      <c r="AM11" t="inlineStr"/>
+      <c r="AN11" t="inlineStr"/>
+      <c r="AO11" t="inlineStr"/>
+      <c r="AP11" t="inlineStr"/>
+      <c r="AQ11" t="inlineStr"/>
+      <c r="AR11" t="inlineStr"/>
+      <c r="AS11" t="inlineStr"/>
+      <c r="AT11" t="inlineStr"/>
+      <c r="AU11" t="inlineStr"/>
+      <c r="AV11" t="inlineStr"/>
+      <c r="AW11" t="inlineStr"/>
+      <c r="AX11" t="inlineStr"/>
+      <c r="AY11" t="inlineStr"/>
+      <c r="AZ11" t="inlineStr"/>
+      <c r="BA11" t="inlineStr"/>
+      <c r="BB11" t="inlineStr"/>
+      <c r="BC11" t="inlineStr"/>
+      <c r="BD11" t="inlineStr"/>
+      <c r="BE11" t="inlineStr"/>
+      <c r="BF11" t="inlineStr"/>
+      <c r="BG11" t="inlineStr"/>
+      <c r="BH11" t="inlineStr"/>
+      <c r="BI11" t="inlineStr"/>
+      <c r="BJ11" t="inlineStr"/>
+      <c r="BK11" t="inlineStr"/>
+      <c r="BL11" t="inlineStr"/>
+      <c r="BM11" t="inlineStr"/>
+      <c r="BN11" t="inlineStr"/>
+      <c r="BO11" t="inlineStr"/>
+      <c r="BP11" t="inlineStr"/>
+      <c r="BQ11" t="inlineStr"/>
+      <c r="BR11" t="inlineStr"/>
+      <c r="BS11" t="inlineStr"/>
+      <c r="BT11" t="inlineStr"/>
+      <c r="BU11" t="inlineStr"/>
+      <c r="BV11" t="inlineStr"/>
+      <c r="BW11" t="inlineStr"/>
+      <c r="BX11" t="inlineStr"/>
+      <c r="BY11" t="inlineStr"/>
+      <c r="BZ11" t="n">
         <v>16991.755862</v>
       </c>
-      <c r="CA11">
+      <c r="CA11" t="n">
         <v>18164.768067</v>
       </c>
-      <c r="CB11">
+      <c r="CB11" t="n">
         <v>18206.893478</v>
       </c>
-      <c r="CC11">
+      <c r="CC11" t="n">
         <v>19272.542284</v>
       </c>
-      <c r="CD11">
+      <c r="CD11" t="n">
         <v>18294.623289</v>
       </c>
-      <c r="CE11">
+      <c r="CE11" t="n">
         <v>19461.381834</v>
       </c>
-      <c r="CF11">
+      <c r="CF11" t="n">
         <v>19879.758479</v>
       </c>
-      <c r="CG11">
+      <c r="CG11" t="n">
         <v>20808.970073</v>
       </c>
-      <c r="CH11">
+      <c r="CH11" t="n">
         <v>19521.304822</v>
       </c>
-      <c r="CI11">
+      <c r="CI11" t="n">
         <v>20660.828854</v>
       </c>
-      <c r="CJ11">
+      <c r="CJ11" t="n">
         <v>21432.214524</v>
       </c>
-      <c r="CK11">
+      <c r="CK11" t="n">
         <v>22437.717608</v>
       </c>
-      <c r="CL11">
+      <c r="CL11" t="n">
         <v>21211.659784</v>
       </c>
-      <c r="CM11">
+      <c r="CM11" t="n">
         <v>22577.827063</v>
       </c>
-      <c r="CN11">
+      <c r="CN11" t="n">
         <v>23306.671493</v>
       </c>
-      <c r="CO11">
+      <c r="CO11" t="n">
         <v>24618.322393</v>
       </c>
-      <c r="CP11">
+      <c r="CP11" t="n">
         <v>24372.102739</v>
       </c>
-      <c r="CQ11">
+      <c r="CQ11" t="n">
         <v>25897.305268</v>
       </c>
-      <c r="CR11">
+      <c r="CR11" t="n">
         <v>26366.062887</v>
       </c>
-      <c r="CS11">
+      <c r="CS11" t="n">
         <v>27924.066352</v>
       </c>
-      <c r="CT11">
+      <c r="CT11" t="n">
         <v>26519.818524</v>
       </c>
-      <c r="CU11">
+      <c r="CU11" t="n">
         <v>27828.463367</v>
       </c>
-      <c r="CV11">
+      <c r="CV11" t="n">
         <v>27831.892707</v>
       </c>
-      <c r="CW11">
+      <c r="CW11" t="n">
         <v>29518.546945</v>
       </c>
-      <c r="CX11">
+      <c r="CX11" t="n">
         <v>28957.47756</v>
       </c>
-      <c r="CY11">
+      <c r="CY11" t="n">
         <v>29528.557016</v>
       </c>
-      <c r="CZ11">
+      <c r="CZ11" t="n">
         <v>29874.212356</v>
       </c>
-      <c r="DA11">
+      <c r="DA11" t="n">
         <v>33901.598207</v>
       </c>
-      <c r="DB11">
+      <c r="DB11" t="n">
         <v>31971.419504</v>
       </c>
-      <c r="DC11">
+      <c r="DC11" t="n">
         <v>33641.463513</v>
       </c>
-      <c r="DD11">
+      <c r="DD11" t="n">
         <v>33812.401552</v>
       </c>
-      <c r="DE11">
+      <c r="DE11" t="n">
         <v>39014.85062</v>
       </c>
-      <c r="DF11">
+      <c r="DF11" t="n">
         <v>35487.225393</v>
       </c>
-      <c r="DG11">
+      <c r="DG11" t="n">
         <v>37322.635203</v>
       </c>
-      <c r="DH11">
+      <c r="DH11" t="n">
         <v>36350.511722</v>
       </c>
-      <c r="DI11">
+      <c r="DI11" t="n">
         <v>42303.498001</v>
       </c>
-      <c r="DJ11">
+      <c r="DJ11" t="n">
         <v>38159.873005</v>
       </c>
-      <c r="DK11">
+      <c r="DK11" t="n">
         <v>40945.266704</v>
       </c>
-      <c r="DL11">
+      <c r="DL11" t="n">
         <v>41843.430071</v>
       </c>
-      <c r="DM11">
+      <c r="DM11" t="n">
         <v>50340.063865</v>
       </c>
-      <c r="DN11">
+      <c r="DN11" t="n">
         <v>47009.703466</v>
       </c>
-      <c r="DO11">
+      <c r="DO11" t="n">
         <v>49649.741784</v>
       </c>
-      <c r="DP11">
+      <c r="DP11" t="n">
         <v>49892.271906</v>
       </c>
-      <c r="DQ11">
+      <c r="DQ11" t="n">
         <v>67091.246185</v>
       </c>
-      <c r="DR11">
+      <c r="DR11" t="n">
         <v>49095.758246</v>
       </c>
-      <c r="DS11">
+      <c r="DS11" t="n">
         <v>53084.610947</v>
       </c>
-      <c r="DT11">
+      <c r="DT11" t="n">
         <v>55418.208153</v>
       </c>
-      <c r="DU11">
+      <c r="DU11" t="n">
         <v>73721.37695799999</v>
       </c>
-      <c r="DV11">
+      <c r="DV11" t="n">
         <v>65648.592303</v>
       </c>
-      <c r="DW11">
+      <c r="DW11" t="n">
         <v>65854.15227599999</v>
       </c>
-      <c r="DX11">
+      <c r="DX11" t="n">
         <v>63506.074068</v>
       </c>
-      <c r="DY11">
+      <c r="DY11" t="n">
         <v>84521.866628</v>
       </c>
-      <c r="DZ11">
+      <c r="DZ11" t="n">
         <v>76781.998634</v>
       </c>
-      <c r="EA11">
+      <c r="EA11" t="n">
         <v>75491.14714299999</v>
       </c>
-      <c r="EB11">
+      <c r="EB11" t="n">
         <v>67561.12399199999</v>
       </c>
-      <c r="EC11">
+      <c r="EC11" t="n">
         <v>90877.5963</v>
       </c>
-      <c r="ED11">
+      <c r="ED11" t="n">
         <v>84286.111322</v>
       </c>
-      <c r="EE11">
+      <c r="EE11" t="n">
         <v>75515.957157</v>
       </c>
-      <c r="EF11">
+      <c r="EF11" t="n">
         <v>69734.889549</v>
       </c>
-      <c r="EG11">
+      <c r="EG11" t="n">
         <v>88985.656265</v>
       </c>
-      <c r="EH11">
+      <c r="EH11" t="n">
         <v>88573.605045</v>
       </c>
-      <c r="EI11">
+      <c r="EI11" t="n">
         <v>90304.13961699999</v>
       </c>
-      <c r="EJ11">
+      <c r="EJ11" t="n">
         <v>74508.637582</v>
       </c>
-      <c r="EK11">
+      <c r="EK11" t="n">
         <v>97547.743179</v>
       </c>
-      <c r="EL11">
+      <c r="EL11" t="n">
         <v>94830.65586499999</v>
       </c>
-      <c r="EM11">
+      <c r="EM11" t="n">
         <v>100891.343569</v>
       </c>
-      <c r="EN11">
+      <c r="EN11" t="n">
         <v>77883.528987</v>
       </c>
-      <c r="EO11">
+      <c r="EO11" t="n">
         <v>100739.422765</v>
       </c>
-      <c r="EP11">
+      <c r="EP11" t="n">
         <v>99647.702712</v>
       </c>
-      <c r="EQ11">
+      <c r="EQ11" t="n">
         <v>102240.392569</v>
       </c>
-      <c r="ER11">
+      <c r="ER11" t="n">
         <v>79638.56362</v>
       </c>
-      <c r="ES11">
+      <c r="ES11" t="n">
         <v>107152.704538</v>
       </c>
-      <c r="ET11">
+      <c r="ET11" t="n">
         <v>105852.972239</v>
       </c>
-      <c r="EU11">
+      <c r="EU11" t="n">
         <v>108130.827823</v>
       </c>
-      <c r="EV11">
+      <c r="EV11" t="n">
         <v>83450.912742</v>
       </c>
-      <c r="EW11">
+      <c r="EW11" t="n">
         <v>113590.281448</v>
       </c>
-      <c r="EX11">
+      <c r="EX11" t="n">
         <v>115709.84832</v>
       </c>
-      <c r="EY11">
+      <c r="EY11" t="n">
         <v>118807.957854</v>
       </c>
-      <c r="EZ11">
+      <c r="EZ11" t="n">
         <v>90236.733939</v>
       </c>
-      <c r="FA11">
+      <c r="FA11" t="n">
         <v>125674.566717</v>
       </c>
-      <c r="FB11">
+      <c r="FB11" t="n">
         <v>107395.023986</v>
       </c>
-      <c r="FC11">
+      <c r="FC11" t="n">
         <v>44480.88941</v>
       </c>
-      <c r="FD11">
+      <c r="FD11" t="n">
         <v>47490.986662</v>
       </c>
-      <c r="FE11">
+      <c r="FE11" t="n">
         <v>72590.410259</v>
       </c>
-      <c r="FF11">
+      <c r="FF11" t="n">
         <v>67175.61339499999</v>
       </c>
-      <c r="FG11">
+      <c r="FG11" t="n">
         <v>61699.814068</v>
       </c>
-      <c r="FH11">
+      <c r="FH11" t="n">
         <v>57250.132402</v>
       </c>
-      <c r="FI11">
+      <c r="FI11" t="n">
         <v>94884.586672</v>
       </c>
-      <c r="FJ11">
+      <c r="FJ11" t="n">
         <v>82927.290009</v>
       </c>
-      <c r="FK11" t="s">
-        <v>178</v>
-      </c>
-      <c r="FL11" t="s">
-        <v>178</v>
-      </c>
-      <c r="FM11" t="s">
-        <v>178</v>
+      <c r="FK11" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+      <c r="FL11" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+      <c r="FM11" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>